--- a/PVC.xlsx
+++ b/PVC.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbikkumx\OneDrive - Intel Corporation\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbikkumx\OneDrive - Intel Corporation\Desktop\intel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0509AA2A-BA5C-46CE-BB99-19A85B493E83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB6575D-EB49-4D14-BB59-ED6AE458B8E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -682,9 +682,6 @@
     <t>when not getting i.p</t>
   </si>
   <si>
-    <t>sudo dhclient -r    &gt;&gt; then use ipconfig or just use dhclient</t>
-  </si>
-  <si>
     <t>itp.forcereconfig() ,if bootscript is failing and reset using script</t>
   </si>
   <si>
@@ -904,6 +901,9 @@
   <si>
     <t>SELECT * FROM TestView WHERE (Context IN('OSBV_PVC_A0')) AND (TestListID IN (14246,14247,14229,13497,14231,14238,14241))
 TO FILE HSD FOR ABOVE</t>
+  </si>
+  <si>
+    <t>sudo dhclient -r    &gt;&gt; then use ipconfig or just use dhclient.</t>
   </si>
 </sst>
 </file>
@@ -1460,7 +1460,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A3" s="34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B3" s="27" t="s">
         <v>66</v>
@@ -1544,7 +1544,7 @@
     </row>
     <row r="4" spans="1:3" ht="187.2" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="35" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B4" s="27" t="s">
         <v>67</v>
@@ -1555,7 +1555,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A5" s="34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B5" s="27" t="s">
         <v>82</v>
@@ -1563,7 +1563,7 @@
     </row>
     <row r="7" spans="1:3" ht="93.6" x14ac:dyDescent="0.6">
       <c r="A7" s="35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B7" s="27" t="s">
         <v>77</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A8" s="34" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.6">
@@ -1584,7 +1584,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A11" s="34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B11" s="27" t="s">
         <v>79</v>
@@ -1592,7 +1592,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A12" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B12" s="27" t="s">
         <v>80</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="16" spans="1:3" ht="374.4" x14ac:dyDescent="0.6">
       <c r="A16" s="35" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B16" s="29" t="s">
         <v>85</v>
@@ -1616,7 +1616,7 @@
         <v>135</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.6">
@@ -1681,31 +1681,31 @@
   <sheetData>
     <row r="1" spans="1:3" ht="279.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="38" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C5" s="45" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -1732,57 +1732,57 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="46" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -1812,7 +1812,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>103</v>
@@ -1851,15 +1851,15 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>150</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>54</v>
@@ -2228,49 +2228,49 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>154</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="54" x14ac:dyDescent="0.35">
       <c r="A8" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B9" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" s="25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -2309,21 +2309,21 @@
     </row>
     <row r="3" spans="1:2" ht="87" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B3" s="40" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.5"/>
     <row r="5" spans="1:2" ht="408.6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" s="40" t="s">
         <v>182</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="196.8" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B6" s="40" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -2373,7 +2373,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B1" s="31" t="s">
         <v>142</v>
@@ -2423,7 +2423,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -2524,7 +2524,7 @@
         <v>125</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -2553,7 +2553,7 @@
         <v>146</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>147</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -2608,7 +2608,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2777,7 +2777,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B21" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/PVC.xlsx
+++ b/PVC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbikkumx\OneDrive - Intel Corporation\Desktop\intel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB6575D-EB49-4D14-BB59-ED6AE458B8E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BE99EA-C53F-4A49-A478-D3B8DC5A1130}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Agama" sheetId="4" r:id="rId1"/>
@@ -33,8 +33,10 @@
     <sheet name="terms" sheetId="12" r:id="rId18"/>
     <sheet name="trouble" sheetId="20" r:id="rId19"/>
     <sheet name="status update" sheetId="18" r:id="rId20"/>
-    <sheet name="my info" sheetId="24" r:id="rId21"/>
-    <sheet name="OS_installation" sheetId="25" r:id="rId22"/>
+    <sheet name="proxy" sheetId="33" r:id="rId21"/>
+    <sheet name="my info" sheetId="24" r:id="rId22"/>
+    <sheet name="OS_installation" sheetId="25" r:id="rId23"/>
+    <sheet name="Sheet1" sheetId="32" r:id="rId24"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="257">
   <si>
     <t>export UseDrmVirtualEnginesForCcs=0
 --------------------------------------------
@@ -874,9 +876,6 @@
     <t>http://amr.corp.intel.com/</t>
   </si>
   <si>
-    <t>import pontevechhio.utils.spi_access as spi</t>
-  </si>
-  <si>
     <t>ratio10_ovrd0 = ["fuses.punit.pcode_gt_p0_ratio=0xf",
 "fuses.punit.pcode_gt_p0_ratio_systolic=0xf",
 "fuses.punit.pcode_gt_p0_ratio_chiplet_ifc=0xf",
@@ -905,12 +904,207 @@
   <si>
     <t>sudo dhclient -r    &gt;&gt; then use ipconfig or just use dhclient.</t>
   </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>PVC Priority</t>
+  </si>
+  <si>
+    <t>Functional Status.  - XL Status @900MHZ</t>
+  </si>
+  <si>
+    <t>Functional Status.  - XT Status (Ran @600MHz) - 0019</t>
+  </si>
+  <si>
+    <t>Functional Status. - XT Status (Need to check @900MHz and @600MHz) - 208</t>
+  </si>
+  <si>
+    <t>XT Status Remarks</t>
+  </si>
+  <si>
+    <t>BGEMM-DPASW -BF16</t>
+  </si>
+  <si>
+    <t>Systolic</t>
+  </si>
+  <si>
+    <t>Marquee</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Tested with 2T config on 019 and with2K matrix WL due to system time constrained , Need to check on other machine</t>
+  </si>
+  <si>
+    <t>IGEMM-DPAS-INT8</t>
+  </si>
+  <si>
+    <t>SGEMM - square 8k -FP32, QMCPACK</t>
+  </si>
+  <si>
+    <t>Non-Systolic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tested with 2T config on 019, 208 and with2K matrix WL due to system time constrained </t>
+  </si>
+  <si>
+    <t>DGEMM - square 4k-FP64</t>
+  </si>
+  <si>
+    <t>Stream Triad​</t>
+  </si>
+  <si>
+    <t>HPC-Non-Systolic</t>
+  </si>
+  <si>
+    <t>ResNet 50 Training -BF16</t>
+  </si>
+  <si>
+    <t>ML - Training</t>
+  </si>
+  <si>
+    <t>NEKBONE (axe) TOPs</t>
+  </si>
+  <si>
+    <t>HPC-A21-Non-Systolic</t>
+  </si>
+  <si>
+    <t>NEKBONE (gsop) GB/s</t>
+  </si>
+  <si>
+    <t>NEKBONE (add2s) Triad GB/s</t>
+  </si>
+  <si>
+    <t>LAMMPS NeighList, NeighSpecial, Force</t>
+  </si>
+  <si>
+    <t>LAMMPS (ListCell), charm Ma/s</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>DGEMM-HPL</t>
+  </si>
+  <si>
+    <t>Raytracing WLs (PVC B0)</t>
+  </si>
+  <si>
+    <t>RT</t>
+  </si>
+  <si>
+    <t>NA </t>
+  </si>
+  <si>
+    <t>I4GEMM-DPAS-INT4</t>
+  </si>
+  <si>
+    <t>P1​</t>
+  </si>
+  <si>
+    <t>Pass </t>
+  </si>
+  <si>
+    <t>HGEMM-DPAS-FP16</t>
+  </si>
+  <si>
+    <t>SGEMM - skinny 3kx64x1k</t>
+  </si>
+  <si>
+    <t>DGEMM - skinny 3kx64x1k​</t>
+  </si>
+  <si>
+    <t>GNMT​ </t>
+  </si>
+  <si>
+    <t>Lower Priority</t>
+  </si>
+  <si>
+    <t>ResNet 50 (i8) (CB) –&gt; CM/Grits</t>
+  </si>
+  <si>
+    <t>ML - Inference</t>
+  </si>
+  <si>
+    <t>Fail (Observed Hang)</t>
+  </si>
+  <si>
+    <t>Black Scholes​ </t>
+  </si>
+  <si>
+    <t>HPCG (Spmv)​ </t>
+  </si>
+  <si>
+    <t>FFT2D (4kx4k)​</t>
+  </si>
+  <si>
+    <t>Stencil 2D​ </t>
+  </si>
+  <si>
+    <t>DLP Bench – Non-Systolic</t>
+  </si>
+  <si>
+    <t>Wavefront​</t>
+  </si>
+  <si>
+    <t>HACC (two kernels)</t>
+  </si>
+  <si>
+    <t>QMCPACK​ </t>
+  </si>
+  <si>
+    <t>import pontevecchio.utils.spi_access as spi</t>
+  </si>
+  <si>
+    <t>\\gar.corp.intel.com\ec\proj\deg\GFXSV\OSBV\Linux\Compute</t>
+  </si>
+  <si>
+    <t>for opencv library issue</t>
+  </si>
+  <si>
+    <t>export no_proxy=intel.com,.intel.com,10.0.0.0/8,192.168.0.0/16,localhost,.local,127.0.0.0/8,134.134.0.0/16
+export ftp_proxy=http://proxy-fm.intel.com:911
+export https_proxy=http://proxy-fm.intel.com:912
+export socks_proxy=http://proxy-fm.intel.com:1080
+export NO_PROXY=intel.com,.intel.com,10.0.0.0/8,192.168.0.0/16,localhost,.local,127.0.0.0/8,134.134.0.0/16
+export FTP_PROXY=http://proxy-fm.intel.com:911
+export HTTPS_PROXY=http://proxy-fm.intel.com:912
+export HTTP_PROXY=http://proxy-fm.intel.com:911
+export http_proxy=http://proxy-fm.intel.com:911
+export SOCKS_PROXY=http://proxy-fm.intel.com:1080</t>
+  </si>
+  <si>
+    <t>export https_proxy=http://proxy-fm.intel.com:912</t>
+  </si>
+  <si>
+    <t>this is proxy for intel</t>
+  </si>
+  <si>
+    <t>proxy for india</t>
+  </si>
+  <si>
+    <t>export no_proxy=intel.com,.intel.com,10.0.0.0/8,192.168.0.0/16,localhost,.local,127.0.0.0/8,134.134.0.0/16
+export ftp_proxy=http://proxy-iind.intel.com:911
+export https_proxy=http://proxy-iind.intel.com:912
+export socks_proxy=http://proxy-iind.intel.com:1080
+export NO_PROXY=intel.com,.intel.com,10.0.0.0/8,192.168.0.0/16,localhost,.local,127.0.0.0/8,134.134.0.0/16
+export FTP_PROXY=http://proxy-iind.intel.com:911
+export HTTPS_PROXY=http://proxy-iind.intel.com:912
+export HTTP_PROXY=http://proxy-iind.intel.com:911
+export http_proxy=http://proxy-iind.intel.com:911
+export SOCKS_PROXY=http://proxy-iind.intel.com:1080</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -962,8 +1156,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1048,8 +1255,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4472C4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF70AD47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1072,12 +1297,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1161,6 +1421,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1444,9 +1722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{996C259E-C5CA-4C9C-89B9-A75943685BB6}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1507,7 +1783,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.2" x14ac:dyDescent="0.6"/>
@@ -1571,7 +1847,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A8" s="34" t="s">
-        <v>193</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.6">
@@ -1669,7 +1945,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831CAC65-ABF7-4027-8B3C-BF26A0B50F33}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1681,7 +1959,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="279.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>180</v>
@@ -1702,7 +1980,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="38" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C5" s="45" t="s">
         <v>184</v>
@@ -1782,7 +2060,7 @@
     </row>
     <row r="8" spans="1:4" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -1800,7 +2078,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1849,6 +2127,14 @@
         <v>70</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>250</v>
+      </c>
+    </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>149</v>
@@ -1871,9 +2157,10 @@
     <hyperlink ref="B10" r:id="rId2" xr:uid="{F9319B79-5558-4DA8-BA57-B05D38D21E55}"/>
     <hyperlink ref="B15" r:id="rId3" xr:uid="{0D7CDF6C-103D-4E4D-AB14-6432A317EDB6}"/>
     <hyperlink ref="B1" r:id="rId4" xr:uid="{556CAE43-AE62-4306-9791-BF54D2C355E4}"/>
+    <hyperlink ref="B12" r:id="rId5" xr:uid="{5BB0BFA2-EA37-42E5-B361-92869192475C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -2191,10 +2478,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCEC9E7E-6729-4865-99F0-0C4C696B6B6D}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -2271,6 +2558,14 @@
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" s="25" t="s">
         <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -2323,7 +2618,7 @@
     </row>
     <row r="6" spans="1:2" ht="196.8" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B6" s="40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -2359,6 +2654,38 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90EA2079-16CC-4FC4-8D75-AAB93ECB0524}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="87.88671875" customWidth="1"/>
+    <col min="2" max="2" width="37.44140625" customWidth="1"/>
+    <col min="3" max="3" width="68.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="340.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>256</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C8DA7E-9E18-413F-8FD3-1FA866970298}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -2385,7 +2712,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B2896D-3CA8-4BA5-B29B-82FE2D52D293}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2418,12 +2745,548 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A759DF8-1527-4DA9-8572-873887B87661}">
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="37.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" customWidth="1"/>
+    <col min="7" max="7" width="37.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="51"/>
+      <c r="B1" s="51" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="G1" s="51" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+    </row>
+    <row r="3" spans="1:7" ht="202.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>207</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="F3" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="G3" s="48" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="47" t="s">
+        <v>210</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>207</v>
+      </c>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+    </row>
+    <row r="5" spans="1:7" ht="173.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>207</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>207</v>
+      </c>
+      <c r="F5" s="49" t="s">
+        <v>207</v>
+      </c>
+      <c r="G5" s="48" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="202.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="47" t="s">
+        <v>214</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>212</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>207</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="47" t="s">
+        <v>215</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>216</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>207</v>
+      </c>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+    </row>
+    <row r="8" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>218</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="D8" s="49" t="s">
+        <v>207</v>
+      </c>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+    </row>
+    <row r="9" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="47" t="s">
+        <v>219</v>
+      </c>
+      <c r="B9" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>207</v>
+      </c>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+    </row>
+    <row r="10" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="C10" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>207</v>
+      </c>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+    </row>
+    <row r="11" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="47" t="s">
+        <v>222</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>207</v>
+      </c>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+    </row>
+    <row r="12" spans="1:7" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="47" t="s">
+        <v>223</v>
+      </c>
+      <c r="B12" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>207</v>
+      </c>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+    </row>
+    <row r="13" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="47" t="s">
+        <v>224</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>207</v>
+      </c>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+    </row>
+    <row r="14" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="B14" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="D14" s="49" t="s">
+        <v>207</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+    </row>
+    <row r="15" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>228</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="D15" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+    </row>
+    <row r="16" spans="1:7" ht="202.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>205</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="D16" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="E16" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>205</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="D17" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+    </row>
+    <row r="18" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="47" t="s">
+        <v>234</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>212</v>
+      </c>
+      <c r="C18" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="D18" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="E18" s="49" t="s">
+        <v>207</v>
+      </c>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+    </row>
+    <row r="19" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>212</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="D19" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="E19" s="49" t="s">
+        <v>207</v>
+      </c>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+    </row>
+    <row r="20" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>218</v>
+      </c>
+      <c r="C20" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="D20" s="49" t="s">
+        <v>237</v>
+      </c>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+    </row>
+    <row r="21" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="B21" s="48" t="s">
+        <v>239</v>
+      </c>
+      <c r="C21" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="D21" s="49" t="s">
+        <v>207</v>
+      </c>
+      <c r="E21" s="50" t="s">
+        <v>240</v>
+      </c>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+    </row>
+    <row r="22" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="47" t="s">
+        <v>241</v>
+      </c>
+      <c r="B22" s="48" t="s">
+        <v>216</v>
+      </c>
+      <c r="C22" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="D22" s="49" t="s">
+        <v>207</v>
+      </c>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+    </row>
+    <row r="23" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="47" t="s">
+        <v>242</v>
+      </c>
+      <c r="B23" s="48" t="s">
+        <v>216</v>
+      </c>
+      <c r="C23" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="D23" s="49" t="s">
+        <v>207</v>
+      </c>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+    </row>
+    <row r="24" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="47" t="s">
+        <v>243</v>
+      </c>
+      <c r="B24" s="48" t="s">
+        <v>216</v>
+      </c>
+      <c r="C24" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="D24" s="49" t="s">
+        <v>207</v>
+      </c>
+      <c r="E24" s="49" t="s">
+        <v>207</v>
+      </c>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+    </row>
+    <row r="25" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="47" t="s">
+        <v>244</v>
+      </c>
+      <c r="B25" s="48" t="s">
+        <v>245</v>
+      </c>
+      <c r="C25" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="D25" s="49" t="s">
+        <v>207</v>
+      </c>
+      <c r="E25" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+    </row>
+    <row r="26" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="47" t="s">
+        <v>246</v>
+      </c>
+      <c r="B26" s="48" t="s">
+        <v>245</v>
+      </c>
+      <c r="C26" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="D26" s="49" t="s">
+        <v>207</v>
+      </c>
+      <c r="E26" s="50" t="s">
+        <v>240</v>
+      </c>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+    </row>
+    <row r="27" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="47" t="s">
+        <v>247</v>
+      </c>
+      <c r="B27" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="C27" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="D27" s="49" t="s">
+        <v>207</v>
+      </c>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+    </row>
+    <row r="28" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="47" t="s">
+        <v>248</v>
+      </c>
+      <c r="B28" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="C28" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="D28" s="49" t="s">
+        <v>207</v>
+      </c>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E005901C-00BA-406B-88B9-503DB86B1951}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -2553,7 +3416,7 @@
         <v>146</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -2669,7 +3532,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/PVC.xlsx
+++ b/PVC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbikkumx\OneDrive - Intel Corporation\Desktop\intel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BE99EA-C53F-4A49-A478-D3B8DC5A1130}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824C96DF-2909-40FB-9719-7672E78742E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="258">
   <si>
     <t>export UseDrmVirtualEnginesForCcs=0
 --------------------------------------------
@@ -1098,6 +1098,9 @@
 export HTTP_PROXY=http://proxy-iind.intel.com:911
 export http_proxy=http://proxy-iind.intel.com:911
 export SOCKS_PROXY=http://proxy-iind.intel.com:1080</t>
+  </si>
+  <si>
+    <t>xyz</t>
   </si>
 </sst>
 </file>
@@ -2747,10 +2750,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A759DF8-1527-4DA9-8572-873887B87661}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2760,7 +2763,7 @@
     <col min="7" max="7" width="37.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="51"/>
       <c r="B1" s="51" t="s">
         <v>198</v>
@@ -2780,8 +2783,11 @@
       <c r="G1" s="51" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="52"/>
       <c r="B2" s="52"/>
       <c r="C2" s="52"/>
@@ -2790,7 +2796,7 @@
       <c r="F2" s="52"/>
       <c r="G2" s="52"/>
     </row>
-    <row r="3" spans="1:7" ht="202.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="47" t="s">
         <v>204</v>
       </c>
@@ -2813,7 +2819,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="47" t="s">
         <v>210</v>
       </c>
@@ -2830,7 +2836,7 @@
       <c r="F4" s="48"/>
       <c r="G4" s="48"/>
     </row>
-    <row r="5" spans="1:7" ht="173.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="47" t="s">
         <v>211</v>
       </c>
@@ -2853,7 +2859,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="202.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="47" t="s">
         <v>214</v>
       </c>
@@ -2874,7 +2880,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="47" t="s">
         <v>215</v>
       </c>
@@ -2891,7 +2897,7 @@
       <c r="F7" s="48"/>
       <c r="G7" s="48"/>
     </row>
-    <row r="8" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="47" t="s">
         <v>217</v>
       </c>
@@ -2908,7 +2914,7 @@
       <c r="F8" s="48"/>
       <c r="G8" s="48"/>
     </row>
-    <row r="9" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="47" t="s">
         <v>219</v>
       </c>
@@ -2925,7 +2931,7 @@
       <c r="F9" s="48"/>
       <c r="G9" s="48"/>
     </row>
-    <row r="10" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="47" t="s">
         <v>221</v>
       </c>
@@ -2942,7 +2948,7 @@
       <c r="F10" s="48"/>
       <c r="G10" s="48"/>
     </row>
-    <row r="11" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="47" t="s">
         <v>222</v>
       </c>
@@ -2959,7 +2965,7 @@
       <c r="F11" s="48"/>
       <c r="G11" s="48"/>
     </row>
-    <row r="12" spans="1:7" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="47" t="s">
         <v>223</v>
       </c>
@@ -2976,7 +2982,7 @@
       <c r="F12" s="48"/>
       <c r="G12" s="48"/>
     </row>
-    <row r="13" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="47" t="s">
         <v>224</v>
       </c>
@@ -2993,7 +2999,7 @@
       <c r="F13" s="48"/>
       <c r="G13" s="48"/>
     </row>
-    <row r="14" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="47" t="s">
         <v>226</v>
       </c>
@@ -3012,7 +3018,7 @@
       <c r="F14" s="48"/>
       <c r="G14" s="48"/>
     </row>
-    <row r="15" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="47" t="s">
         <v>227</v>
       </c>
@@ -3029,7 +3035,7 @@
       <c r="F15" s="48"/>
       <c r="G15" s="48"/>
     </row>
-    <row r="16" spans="1:7" ht="202.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="47" t="s">
         <v>230</v>
       </c>
@@ -3050,7 +3056,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="47" t="s">
         <v>233</v>
       </c>
@@ -3067,7 +3073,7 @@
       <c r="F17" s="48"/>
       <c r="G17" s="48"/>
     </row>
-    <row r="18" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="47" t="s">
         <v>234</v>
       </c>
@@ -3086,7 +3092,7 @@
       <c r="F18" s="48"/>
       <c r="G18" s="48"/>
     </row>
-    <row r="19" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="47" t="s">
         <v>235</v>
       </c>
@@ -3122,7 +3128,7 @@
       <c r="F20" s="48"/>
       <c r="G20" s="48"/>
     </row>
-    <row r="21" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="47" t="s">
         <v>238</v>
       </c>

--- a/PVC.xlsx
+++ b/PVC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbikkumx\OneDrive - Intel Corporation\Desktop\intel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824C96DF-2909-40FB-9719-7672E78742E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D766E858-3E23-4145-9440-CB33B9AB9B83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Agama" sheetId="4" r:id="rId1"/>
@@ -1340,7 +1340,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1441,6 +1441,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1948,20 +1951,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831CAC65-ABF7-4027-8B3C-BF26A0B50F33}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="64.21875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="64.21875" style="38" customWidth="1"/>
     <col min="2" max="2" width="34.77734375" style="4" customWidth="1"/>
     <col min="3" max="3" width="98.6640625" style="45" customWidth="1"/>
     <col min="4" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="279.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="53" t="s">
         <v>195</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -1972,12 +1975,12 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="38" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="38" t="s">
         <v>168</v>
       </c>
     </row>
@@ -2579,10 +2582,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A44124-35D8-410D-A47F-0D4F8298DF53}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A3" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.8" x14ac:dyDescent="0.5"/>
@@ -2619,8 +2622,10 @@
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="196.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="40" t="s">
+    <row r="6" spans="1:2" ht="30.6" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.5"/>
+    <row r="8" spans="1:2" ht="409.6" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B8" s="40" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2752,7 +2757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A759DF8-1527-4DA9-8572-873887B87661}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>

--- a/PVC.xlsx
+++ b/PVC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbikkumx\OneDrive - Intel Corporation\Desktop\intel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D766E858-3E23-4145-9440-CB33B9AB9B83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BFF285-BDF7-435A-A6EF-1BE5EE039D0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Agama" sheetId="4" r:id="rId1"/>
@@ -1414,11 +1414,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1445,6 +1440,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1789,7 +1789,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.2" x14ac:dyDescent="0.6"/>
@@ -1951,7 +1951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831CAC65-ABF7-4027-8B3C-BF26A0B50F33}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1959,18 +1959,18 @@
   <cols>
     <col min="1" max="1" width="64.21875" style="38" customWidth="1"/>
     <col min="2" max="2" width="34.77734375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="98.6640625" style="45" customWidth="1"/>
+    <col min="3" max="3" width="98.6640625" style="42" customWidth="1"/>
     <col min="4" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="279.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="50" t="s">
         <v>195</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="41" t="s">
         <v>183</v>
       </c>
     </row>
@@ -1988,7 +1988,7 @@
       <c r="A5" s="38" t="s">
         <v>194</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="42" t="s">
         <v>184</v>
       </c>
     </row>
@@ -2060,7 +2060,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="43" t="s">
         <v>177</v>
       </c>
     </row>
@@ -2584,24 +2584,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A44124-35D8-410D-A47F-0D4F8298DF53}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.8" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="74.109375" style="42" customWidth="1"/>
+    <col min="1" max="1" width="74.109375" style="52" customWidth="1"/>
     <col min="2" max="2" width="195.88671875" style="39" customWidth="1"/>
     <col min="3" max="16384" width="8.88671875" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="73.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="51" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="60.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="52" t="s">
         <v>133</v>
       </c>
       <c r="B2" s="39" t="s">
@@ -2615,7 +2615,7 @@
     </row>
     <row r="4" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.5"/>
     <row r="5" spans="1:2" ht="408.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="53" t="s">
         <v>181</v>
       </c>
       <c r="B5" s="40" t="s">
@@ -2769,23 +2769,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51"/>
-      <c r="B1" s="51" t="s">
+      <c r="A1" s="48"/>
+      <c r="B1" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="48" t="s">
         <v>200</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="48" t="s">
         <v>201</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="48" t="s">
         <v>202</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="48" t="s">
         <v>203</v>
       </c>
       <c r="H1" t="s">
@@ -2793,489 +2793,489 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
     </row>
     <row r="3" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="45" t="s">
         <v>206</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="47" t="s">
         <v>208</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="47" t="s">
         <v>208</v>
       </c>
-      <c r="G3" s="48" t="s">
+      <c r="G3" s="45" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="44" t="s">
         <v>210</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="45" t="s">
         <v>206</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
     </row>
     <row r="5" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="44" t="s">
         <v>211</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="45" t="s">
         <v>212</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="45" t="s">
         <v>206</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="45" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="45" t="s">
         <v>212</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="45" t="s">
         <v>206</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="47" t="s">
         <v>208</v>
       </c>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48" t="s">
+      <c r="F6" s="45"/>
+      <c r="G6" s="45" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="45" t="s">
         <v>216</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="45" t="s">
         <v>206</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
     </row>
     <row r="8" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="44" t="s">
         <v>217</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="45" t="s">
         <v>218</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="45" t="s">
         <v>206</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
     </row>
     <row r="9" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="45" t="s">
         <v>220</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="45" t="s">
         <v>206</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
     </row>
     <row r="10" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="44" t="s">
         <v>221</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="45" t="s">
         <v>220</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="45" t="s">
         <v>206</v>
       </c>
-      <c r="D10" s="49" t="s">
+      <c r="D10" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
     </row>
     <row r="11" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="44" t="s">
         <v>222</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="45" t="s">
         <v>220</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="45" t="s">
         <v>206</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
     </row>
     <row r="12" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="45" t="s">
         <v>220</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="45" t="s">
         <v>206</v>
       </c>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
     </row>
     <row r="13" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="45" t="s">
         <v>220</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="D13" s="49" t="s">
+      <c r="D13" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
     </row>
     <row r="14" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="44" t="s">
         <v>226</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="45" t="s">
         <v>220</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="45" t="s">
         <v>206</v>
       </c>
-      <c r="D14" s="49" t="s">
+      <c r="D14" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="E14" s="50" t="s">
+      <c r="E14" s="47" t="s">
         <v>208</v>
       </c>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="44" t="s">
         <v>227</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="45" t="s">
         <v>228</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="45" t="s">
         <v>206</v>
       </c>
-      <c r="D15" s="49" t="s">
+      <c r="D15" s="46" t="s">
         <v>229</v>
       </c>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
     </row>
     <row r="16" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="44" t="s">
         <v>230</v>
       </c>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="D16" s="49" t="s">
+      <c r="D16" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="E16" s="50" t="s">
+      <c r="E16" s="47" t="s">
         <v>208</v>
       </c>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48" t="s">
+      <c r="F16" s="45"/>
+      <c r="G16" s="45" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="44" t="s">
         <v>233</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="D17" s="49" t="s">
+      <c r="D17" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
     </row>
     <row r="18" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="45" t="s">
         <v>212</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="D18" s="49" t="s">
+      <c r="D18" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="E18" s="49" t="s">
+      <c r="E18" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
     </row>
     <row r="19" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="44" t="s">
         <v>235</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="45" t="s">
         <v>212</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="D19" s="49" t="s">
+      <c r="D19" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="E19" s="49" t="s">
+      <c r="E19" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
     </row>
     <row r="20" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="44" t="s">
         <v>236</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="45" t="s">
         <v>218</v>
       </c>
-      <c r="C20" s="48" t="s">
+      <c r="C20" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="D20" s="49" t="s">
+      <c r="D20" s="46" t="s">
         <v>237</v>
       </c>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
     </row>
     <row r="21" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="44" t="s">
         <v>238</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="45" t="s">
         <v>239</v>
       </c>
-      <c r="C21" s="48" t="s">
+      <c r="C21" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="D21" s="49" t="s">
+      <c r="D21" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="E21" s="50" t="s">
+      <c r="E21" s="47" t="s">
         <v>240</v>
       </c>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
     </row>
     <row r="22" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="44" t="s">
         <v>241</v>
       </c>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="45" t="s">
         <v>216</v>
       </c>
-      <c r="C22" s="48" t="s">
+      <c r="C22" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="D22" s="49" t="s">
+      <c r="D22" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
     </row>
     <row r="23" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="44" t="s">
         <v>242</v>
       </c>
-      <c r="B23" s="48" t="s">
+      <c r="B23" s="45" t="s">
         <v>216</v>
       </c>
-      <c r="C23" s="48" t="s">
+      <c r="C23" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="D23" s="49" t="s">
+      <c r="D23" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
     </row>
     <row r="24" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="44" t="s">
         <v>243</v>
       </c>
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="45" t="s">
         <v>216</v>
       </c>
-      <c r="C24" s="48" t="s">
+      <c r="C24" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="D24" s="49" t="s">
+      <c r="D24" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="E24" s="49" t="s">
+      <c r="E24" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
     </row>
     <row r="25" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="44" t="s">
         <v>244</v>
       </c>
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="C25" s="48" t="s">
+      <c r="C25" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="D25" s="49" t="s">
+      <c r="D25" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="E25" s="50" t="s">
+      <c r="E25" s="47" t="s">
         <v>208</v>
       </c>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
     </row>
     <row r="26" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="47" t="s">
+      <c r="A26" s="44" t="s">
         <v>246</v>
       </c>
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="C26" s="48" t="s">
+      <c r="C26" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="D26" s="49" t="s">
+      <c r="D26" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="E26" s="50" t="s">
+      <c r="E26" s="47" t="s">
         <v>240</v>
       </c>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
     </row>
     <row r="27" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="44" t="s">
         <v>247</v>
       </c>
-      <c r="B27" s="48" t="s">
+      <c r="B27" s="45" t="s">
         <v>220</v>
       </c>
-      <c r="C27" s="48" t="s">
+      <c r="C27" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="D27" s="49" t="s">
+      <c r="D27" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
     </row>
     <row r="28" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="44" t="s">
         <v>248</v>
       </c>
-      <c r="B28" s="48" t="s">
+      <c r="B28" s="45" t="s">
         <v>220</v>
       </c>
-      <c r="C28" s="48" t="s">
+      <c r="C28" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="D28" s="49" t="s">
+      <c r="D28" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/PVC.xlsx
+++ b/PVC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbikkumx\OneDrive - Intel Corporation\Desktop\intel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BFF285-BDF7-435A-A6EF-1BE5EE039D0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4899B1-BEAE-4CB0-A056-69B044B30E06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Agama" sheetId="4" r:id="rId1"/>
@@ -560,9 +560,6 @@
     <t>vijaya python script</t>
   </si>
   <si>
-    <t xml:space="preserve"> https://wiki.ith.intel.com/display/DebugEncyclopedia/Enabling+PM+features</t>
-  </si>
-  <si>
     <t>sudo lspci -v | grep display</t>
   </si>
   <si>
@@ -1101,6 +1098,9 @@
   </si>
   <si>
     <t>xyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://wiki.ith.intel.com/display/DebugEncyclopedia/Enabling+PM+features.</t>
   </si>
 </sst>
 </file>
@@ -1742,7 +1742,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -1789,7 +1789,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.2" x14ac:dyDescent="0.6"/>
@@ -1815,18 +1815,18 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A3" s="34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B3" s="27" t="s">
         <v>66</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="187.2" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="35" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B4" s="27" t="s">
         <v>67</v>
@@ -1837,7 +1837,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A5" s="34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B5" s="27" t="s">
         <v>82</v>
@@ -1845,7 +1845,7 @@
     </row>
     <row r="7" spans="1:3" ht="93.6" x14ac:dyDescent="0.6">
       <c r="A7" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B7" s="27" t="s">
         <v>77</v>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A8" s="34" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.6">
@@ -1866,7 +1866,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A11" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B11" s="27" t="s">
         <v>79</v>
@@ -1874,7 +1874,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A12" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B12" s="27" t="s">
         <v>80</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="16" spans="1:3" ht="374.4" x14ac:dyDescent="0.6">
       <c r="A16" s="35" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B16" s="29" t="s">
         <v>85</v>
@@ -1895,10 +1895,10 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A19" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.6">
@@ -1952,7 +1952,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1965,31 +1965,31 @@
   <sheetData>
     <row r="1" spans="1:3" ht="279.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="50" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="38" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2016,57 +2016,57 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="43" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2096,7 +2096,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>103</v>
@@ -2135,23 +2135,23 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>149</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>54</v>
@@ -2500,78 +2500,78 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" s="25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="42.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="26" t="s">
         <v>138</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>153</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="54" x14ac:dyDescent="0.35">
       <c r="A8" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B9" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -2584,7 +2584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A44124-35D8-410D-A47F-0D4F8298DF53}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -2597,36 +2597,36 @@
   <sheetData>
     <row r="1" spans="1:2" ht="73.8" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="51" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="60.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="39" t="s">
         <v>133</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="87" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B3" s="40" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.5"/>
     <row r="5" spans="1:2" ht="408.6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="53" t="s">
+        <v>180</v>
+      </c>
+      <c r="B5" s="40" t="s">
         <v>181</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30.6" customHeight="1" x14ac:dyDescent="0.5"/>
     <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.5"/>
     <row r="8" spans="1:2" ht="409.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B8" s="40" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -2678,13 +2678,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="340.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>255</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -2708,10 +2708,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2736,15 +2736,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2771,25 +2771,25 @@
     <row r="1" spans="1:8" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="48"/>
       <c r="B1" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="D1" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="E1" s="48" t="s">
         <v>200</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="F1" s="48" t="s">
         <v>201</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="G1" s="48" t="s">
         <v>202</v>
       </c>
-      <c r="G1" s="48" t="s">
-        <v>203</v>
-      </c>
       <c r="H1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2803,39 +2803,39 @@
     </row>
     <row r="3" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" s="45" t="s">
         <v>204</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="C3" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="D3" s="46" t="s">
         <v>206</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="E3" s="47" t="s">
         <v>207</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="F3" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="G3" s="45" t="s">
         <v>208</v>
-      </c>
-      <c r="F3" s="47" t="s">
-        <v>208</v>
-      </c>
-      <c r="G3" s="45" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="44" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B4" s="45" t="s">
+        <v>204</v>
+      </c>
+      <c r="C4" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="D4" s="46" t="s">
         <v>206</v>
-      </c>
-      <c r="D4" s="46" t="s">
-        <v>207</v>
       </c>
       <c r="E4" s="45"/>
       <c r="F4" s="45"/>
@@ -2843,60 +2843,60 @@
     </row>
     <row r="5" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="44" t="s">
+        <v>210</v>
+      </c>
+      <c r="B5" s="45" t="s">
         <v>211</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="C5" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>206</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>206</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>206</v>
+      </c>
+      <c r="G5" s="45" t="s">
         <v>212</v>
-      </c>
-      <c r="C5" s="45" t="s">
-        <v>206</v>
-      </c>
-      <c r="D5" s="46" t="s">
-        <v>207</v>
-      </c>
-      <c r="E5" s="46" t="s">
-        <v>207</v>
-      </c>
-      <c r="F5" s="46" t="s">
-        <v>207</v>
-      </c>
-      <c r="G5" s="45" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="44" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C6" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" s="46" t="s">
         <v>206</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="E6" s="47" t="s">
         <v>207</v>
-      </c>
-      <c r="E6" s="47" t="s">
-        <v>208</v>
       </c>
       <c r="F6" s="45"/>
       <c r="G6" s="45" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="B7" s="45" t="s">
         <v>215</v>
       </c>
-      <c r="B7" s="45" t="s">
-        <v>216</v>
-      </c>
       <c r="C7" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="D7" s="46" t="s">
         <v>206</v>
-      </c>
-      <c r="D7" s="46" t="s">
-        <v>207</v>
       </c>
       <c r="E7" s="45"/>
       <c r="F7" s="45"/>
@@ -2904,16 +2904,16 @@
     </row>
     <row r="8" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="B8" s="45" t="s">
         <v>217</v>
       </c>
-      <c r="B8" s="45" t="s">
-        <v>218</v>
-      </c>
       <c r="C8" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="D8" s="46" t="s">
         <v>206</v>
-      </c>
-      <c r="D8" s="46" t="s">
-        <v>207</v>
       </c>
       <c r="E8" s="45"/>
       <c r="F8" s="45"/>
@@ -2921,16 +2921,16 @@
     </row>
     <row r="9" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="44" t="s">
+        <v>218</v>
+      </c>
+      <c r="B9" s="45" t="s">
         <v>219</v>
       </c>
-      <c r="B9" s="45" t="s">
-        <v>220</v>
-      </c>
       <c r="C9" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="D9" s="46" t="s">
         <v>206</v>
-      </c>
-      <c r="D9" s="46" t="s">
-        <v>207</v>
       </c>
       <c r="E9" s="45"/>
       <c r="F9" s="45"/>
@@ -2938,16 +2938,16 @@
     </row>
     <row r="10" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="44" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C10" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="D10" s="46" t="s">
         <v>206</v>
-      </c>
-      <c r="D10" s="46" t="s">
-        <v>207</v>
       </c>
       <c r="E10" s="45"/>
       <c r="F10" s="45"/>
@@ -2955,16 +2955,16 @@
     </row>
     <row r="11" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="44" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C11" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="D11" s="46" t="s">
         <v>206</v>
-      </c>
-      <c r="D11" s="46" t="s">
-        <v>207</v>
       </c>
       <c r="E11" s="45"/>
       <c r="F11" s="45"/>
@@ -2972,16 +2972,16 @@
     </row>
     <row r="12" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C12" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="D12" s="46" t="s">
         <v>206</v>
-      </c>
-      <c r="D12" s="46" t="s">
-        <v>207</v>
       </c>
       <c r="E12" s="45"/>
       <c r="F12" s="45"/>
@@ -2989,16 +2989,16 @@
     </row>
     <row r="13" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="44" t="s">
+        <v>223</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>219</v>
+      </c>
+      <c r="C13" s="45" t="s">
         <v>224</v>
       </c>
-      <c r="B13" s="45" t="s">
-        <v>220</v>
-      </c>
-      <c r="C13" s="45" t="s">
-        <v>225</v>
-      </c>
       <c r="D13" s="46" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E13" s="45"/>
       <c r="F13" s="45"/>
@@ -3006,35 +3006,35 @@
     </row>
     <row r="14" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="44" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="D14" s="46" t="s">
         <v>206</v>
       </c>
-      <c r="D14" s="46" t="s">
+      <c r="E14" s="47" t="s">
         <v>207</v>
-      </c>
-      <c r="E14" s="47" t="s">
-        <v>208</v>
       </c>
       <c r="F14" s="45"/>
       <c r="G14" s="45"/>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="44" t="s">
+        <v>226</v>
+      </c>
+      <c r="B15" s="45" t="s">
         <v>227</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="C15" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="D15" s="46" t="s">
         <v>228</v>
-      </c>
-      <c r="C15" s="45" t="s">
-        <v>206</v>
-      </c>
-      <c r="D15" s="46" t="s">
-        <v>229</v>
       </c>
       <c r="E15" s="45"/>
       <c r="F15" s="45"/>
@@ -3042,37 +3042,37 @@
     </row>
     <row r="16" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>204</v>
+      </c>
+      <c r="C16" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="B16" s="45" t="s">
-        <v>205</v>
-      </c>
-      <c r="C16" s="45" t="s">
+      <c r="D16" s="46" t="s">
         <v>231</v>
       </c>
-      <c r="D16" s="46" t="s">
-        <v>232</v>
-      </c>
       <c r="E16" s="47" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F16" s="45"/>
       <c r="G16" s="45" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="44" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C17" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="D17" s="46" t="s">
         <v>231</v>
-      </c>
-      <c r="D17" s="46" t="s">
-        <v>232</v>
       </c>
       <c r="E17" s="45"/>
       <c r="F17" s="45"/>
@@ -3080,54 +3080,54 @@
     </row>
     <row r="18" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="44" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C18" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="D18" s="46" t="s">
         <v>231</v>
       </c>
-      <c r="D18" s="46" t="s">
-        <v>232</v>
-      </c>
       <c r="E18" s="46" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F18" s="45"/>
       <c r="G18" s="45"/>
     </row>
     <row r="19" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="44" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C19" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="D19" s="46" t="s">
         <v>231</v>
       </c>
-      <c r="D19" s="46" t="s">
-        <v>232</v>
-      </c>
       <c r="E19" s="46" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F19" s="45"/>
       <c r="G19" s="45"/>
     </row>
     <row r="20" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="44" t="s">
+        <v>235</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>217</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="D20" s="46" t="s">
         <v>236</v>
-      </c>
-      <c r="B20" s="45" t="s">
-        <v>218</v>
-      </c>
-      <c r="C20" s="45" t="s">
-        <v>231</v>
-      </c>
-      <c r="D20" s="46" t="s">
-        <v>237</v>
       </c>
       <c r="E20" s="45"/>
       <c r="F20" s="45"/>
@@ -3135,35 +3135,35 @@
     </row>
     <row r="21" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="44" t="s">
+        <v>237</v>
+      </c>
+      <c r="B21" s="45" t="s">
         <v>238</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="C21" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>206</v>
+      </c>
+      <c r="E21" s="47" t="s">
         <v>239</v>
-      </c>
-      <c r="C21" s="45" t="s">
-        <v>231</v>
-      </c>
-      <c r="D21" s="46" t="s">
-        <v>207</v>
-      </c>
-      <c r="E21" s="47" t="s">
-        <v>240</v>
       </c>
       <c r="F21" s="45"/>
       <c r="G21" s="45"/>
     </row>
     <row r="22" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="44" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C22" s="45" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D22" s="46" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E22" s="45"/>
       <c r="F22" s="45"/>
@@ -3171,16 +3171,16 @@
     </row>
     <row r="23" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="44" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C23" s="45" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E23" s="45"/>
       <c r="F23" s="45"/>
@@ -3188,73 +3188,73 @@
     </row>
     <row r="24" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="44" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C24" s="45" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D24" s="46" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E24" s="46" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F24" s="45"/>
       <c r="G24" s="45"/>
     </row>
     <row r="25" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="B25" s="45" t="s">
         <v>244</v>
       </c>
-      <c r="B25" s="45" t="s">
-        <v>245</v>
-      </c>
       <c r="C25" s="45" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D25" s="46" t="s">
+        <v>206</v>
+      </c>
+      <c r="E25" s="47" t="s">
         <v>207</v>
-      </c>
-      <c r="E25" s="47" t="s">
-        <v>208</v>
       </c>
       <c r="F25" s="45"/>
       <c r="G25" s="45"/>
     </row>
     <row r="26" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="44" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C26" s="45" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D26" s="46" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E26" s="47" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F26" s="45"/>
       <c r="G26" s="45"/>
     </row>
     <row r="27" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="44" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C27" s="45" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D27" s="46" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E27" s="45"/>
       <c r="F27" s="45"/>
@@ -3262,16 +3262,16 @@
     </row>
     <row r="28" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="44" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B28" s="45" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C28" s="45" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D28" s="46" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E28" s="45"/>
       <c r="F28" s="45"/>
@@ -3297,7 +3297,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -3395,39 +3395,39 @@
     </row>
     <row r="14" spans="1:2" ht="36" x14ac:dyDescent="0.35">
       <c r="A14" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="36" x14ac:dyDescent="0.35">
       <c r="B17" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -3482,7 +3482,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -3524,7 +3524,7 @@
         <v>73</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -3542,8 +3542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE4B785-07B1-4650-B638-D0AF9F289A63}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3638,12 +3638,12 @@
         <v>122</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>123</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>10</v>
@@ -3651,7 +3651,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B21" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/PVC.xlsx
+++ b/PVC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbikkumx\OneDrive - Intel Corporation\Desktop\intel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4899B1-BEAE-4CB0-A056-69B044B30E06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35C228E-0641-46A8-8EB0-274D6EE06932}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="11" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Agama" sheetId="4" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="264">
   <si>
     <t>export UseDrmVirtualEnginesForCcs=0
 --------------------------------------------
@@ -714,10 +714,6 @@
     <t>sv.gfxcard0.tiles.gfx.gtgp.pll_sel.link_pll_sel 
 sv.gfxcard0.tile0.gfx.gtgp.pll_sel.link_pll_sel=1
 b.cont()</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sudo dpkg --list | grep intel-opencl
-</t>
   </si>
   <si>
     <t>stencil passing with 157</t>
@@ -780,17 +776,10 @@
     <t>weekend support :</t>
   </si>
   <si>
-    <t>worked on 24-04-2021 ,25-04-2021</t>
-  </si>
-  <si>
     <t xml:space="preserve">UseDrmVirtualEnginesForCcs=0 </t>
   </si>
   <si>
     <t>turn off virtusl engines ccs ,if driver doesn’t load</t>
-  </si>
-  <si>
-    <t>options drm debug=0xe
-- options i915 enable_guc=3 enable_rc6=0 max_tiles=1 smem_access_control=5 enable_guc_hangcheck=0 reset=0 enable_hangcheck=0</t>
   </si>
   <si>
     <t>driver options</t>
@@ -1101,6 +1090,79 @@
   </si>
   <si>
     <t xml:space="preserve"> https://wiki.ith.intel.com/display/DebugEncyclopedia/Enabling+PM+features.</t>
+  </si>
+  <si>
+    <t>trainings :\\gar.corp.intel.com\ec\proj\deg\GFXSV\UserVolume1\KV_11870750\Trainings\Execution</t>
+  </si>
+  <si>
+    <t>Hi all, 
+Before starting daily execution, it is better to capture below information, so that it will be helpful while reporting pre-sighting and sightings.
+b.go command and before running other tests please run know working test, if it is working then only go for other tests.
+	IFWI version:
+import pontevecchio.utils.spi_access as spi
+		spi.read_ifwi_version()
+	Frequency at which system is running:
+from pontevecchio.debug.domains.gfx.gt.gtPmStatus as pms
+pms.dumpGtFrequency(None)
+	GUI snapshot of configuration:
+import pontevecchio.debug.domains.gfx.gt.gtconfig as stat
+		stat.getConfig_mt()
+	UMD and KMD versions:
+KMD : uname -r
+		UMD: sudo dpkg --list | grep intel-opencl
+	VID:
+import pontevecchio.debug.domains.fuse.fuse_utils as f
+		f.visual_ID()
+	Driver options:
+cat /etc/modprobe.d/i915.conf
+If you are seeing any failures, capture below logs:
+if there is any hang please check head and tail registers and also check for Kernel panic and MCA errors in com port
+	SOC error log
+import pontevecchio.fv.ras.error_logging_modules.soc_error_log as soc
+		soc.soc_error_log()
+	GT status
+import pontevecchio.debug.domians.gfx.gt.gtStatus as gt
+		gts.status()
+	dmesg log
+dmesg -w
+	Serial port logs
+	Scandump, (if UO asks)
+from pontececchio.debug.domains.gfx.tools.scandump import pvcgfxscanAFD
+		pvcgfxscanAFD.gtScandump()</t>
+  </si>
+  <si>
+    <t>sudo dpkg --force-all *.deb</t>
+  </si>
+  <si>
+    <t>import toolext.bootscript.boot as b
+ratio10_ovrd0 = ["fuses.punit.pcode_gt_p0_ratio=0x12",
+"fuses.punit.pcode_gt_p0_ratio_systolic=0x12",
+"fuses.punit.pcode_gt_p0_ratio_chiplet_ifc=0x1B",
+"fuses.punit.pcode_gt_max_chiplet_ifc_multiplier=0x12",
+"fuses.punit.pcode_gt_p0_ratio_media_ff=0x12",
+"fuses.punit.pcode_gt_p1_ratio=0x12",
+"fuses.punit.pcode_gt_p1_ratio_systolic=0x12",
+"fuses.punit.pcode_gt_p1_ratio_compute=0x12",
+"fuses.punit.pcode_gt_pn_ratio=0x12",
+"fuses.punit.pcode_gt_min_ratio=0x12",
+]
+b.go(xt=True, fusestr=ratio10_ovrd0, pwrgoodmethod ="usb")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">900 frequency </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sudo dpkg --list | grep intel-opencl</t>
+  </si>
+  <si>
+    <t>b.go(recipes=['user_custom.gpsb_mdfic_mdfi_warmreset','user_custom.anr_disable_recipe'], fusestr=["fuses.punit.pcode_gt_p0_ratio=0x12","fuses.punit.pcode_gt_p0_ratio_media_ff=0x12","fuses.punit.pcode_gt_p0_ratio_systolic=0x12","fuses.punit.pcode_gt_p0_ratio_compute = 0x12", "fuses.punit.pcode_gt_p1_ratio=0x12","fuses.punit.pcode_gt_p1_ratio_systolic=0x12","fuses.punit.pcode_gt_p1_ratio_media_ff=0x12","fuses.punit.pcode_gt_p1_ratio_compute=0x12","fuses.punit.pcode_gt_pn_ratio=0x12","fuses.punit.pcode_gt_min_ratio=0x12", "fuses.punit.pcode_gt_p0_ratio_chiplet_ifc = 0x1B"], pwrgoodmethod ="usb",num_host_wr=2)</t>
+  </si>
+  <si>
+    <t>options drm debug=0xe
+- options i915 enable_guc=3 enable_rc6=0 max_tiles=2 smem_access_control=5 enable_guc_hangcheck=0 reset=0 enable_hangcheck=0</t>
+  </si>
+  <si>
+    <t>on 08-05-2021 or 9-05-2021 check this</t>
   </si>
 </sst>
 </file>
@@ -1173,7 +1235,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1276,6 +1338,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -1340,7 +1408,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1373,7 +1441,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1444,7 +1511,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1742,7 +1821,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -1789,129 +1868,129 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.2" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="169.44140625" style="34" customWidth="1"/>
-    <col min="2" max="2" width="169.33203125" style="27" customWidth="1"/>
-    <col min="3" max="3" width="255.6640625" style="36" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="28"/>
+    <col min="1" max="1" width="169.44140625" style="33" customWidth="1"/>
+    <col min="2" max="2" width="169.33203125" style="26" customWidth="1"/>
+    <col min="3" max="3" width="255.6640625" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="62.4" x14ac:dyDescent="0.6">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="33" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A3" s="34" t="s">
-        <v>187</v>
-      </c>
-      <c r="B3" s="27" t="s">
+      <c r="A3" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="35" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="187.2" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="B4" s="27" t="s">
+      <c r="A4" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="B4" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="36" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="93.6" x14ac:dyDescent="0.6">
-      <c r="A7" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="B7" s="27" t="s">
+      <c r="A7" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" s="26" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A8" s="34" t="s">
-        <v>248</v>
+      <c r="A8" s="33" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="26" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A11" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="B11" s="27" t="s">
+      <c r="A11" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="B11" s="26" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A12" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="B12" s="27" t="s">
+      <c r="A12" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="B12" s="26" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="26" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="374.4" x14ac:dyDescent="0.6">
-      <c r="A16" s="35" t="s">
-        <v>189</v>
-      </c>
-      <c r="B16" s="29" t="s">
+      <c r="A16" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="B16" s="28" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="27" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="B20" s="28"/>
+      <c r="B20" s="27"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="B21" s="28"/>
+      <c r="B21" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1952,44 +2031,44 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="64.21875" style="38" customWidth="1"/>
+    <col min="1" max="1" width="64.21875" style="37" customWidth="1"/>
     <col min="2" max="2" width="34.77734375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="98.6640625" style="42" customWidth="1"/>
+    <col min="3" max="3" width="98.6640625" style="41" customWidth="1"/>
     <col min="4" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="279.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
-        <v>194</v>
+      <c r="A1" s="49" t="s">
+        <v>191</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="41" t="s">
-        <v>182</v>
-      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="37" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="37" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
-        <v>167</v>
-      </c>
-    </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
-        <v>193</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>183</v>
+      <c r="A5" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2002,8 +2081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D212F357-C1CD-4714-BBF8-6624F24586B5}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2016,57 +2095,57 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D2" t="s">
-        <v>169</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
-        <v>176</v>
+      <c r="A4" s="21" t="s">
+        <v>173</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="43" t="s">
-        <v>176</v>
+      <c r="A7" s="42" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="21" t="s">
-        <v>195</v>
+      <c r="C8" s="20" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -2084,7 +2163,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2135,10 +2214,10 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -2404,18 +2483,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="36" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2425,17 +2504,17 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="21" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="21" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="21" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2486,92 +2565,92 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCEC9E7E-6729-4865-99F0-0C4C696B6B6D}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="58.5546875" style="25" customWidth="1"/>
-    <col min="2" max="2" width="143.21875" style="25" customWidth="1"/>
-    <col min="3" max="3" width="99.77734375" style="25" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="25"/>
+    <col min="1" max="1" width="58.5546875" style="24" customWidth="1"/>
+    <col min="2" max="2" width="143.21875" style="24" customWidth="1"/>
+    <col min="3" max="3" width="99.77734375" style="24" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="42.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="B6" s="25" t="s">
+      <c r="A6" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="54" x14ac:dyDescent="0.35">
+      <c r="A8" s="24" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="54" x14ac:dyDescent="0.35">
-      <c r="A8" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>172</v>
+      <c r="B8" s="32" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B9" s="25" t="s">
-        <v>170</v>
+      <c r="B9" s="24" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B10" s="25" t="s">
-        <v>184</v>
+      <c r="B10" s="24" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B11" s="25" t="s">
-        <v>186</v>
+      <c r="B11" s="24" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="25" t="s">
-        <v>253</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>252</v>
+      <c r="A12" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -2582,51 +2661,70 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A44124-35D8-410D-A47F-0D4F8298DF53}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A15" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.8" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="74.109375" style="52" customWidth="1"/>
-    <col min="2" max="2" width="195.88671875" style="39" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="32"/>
+    <col min="1" max="1" width="74.109375" style="51" customWidth="1"/>
+    <col min="2" max="2" width="255.6640625" style="38" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="73.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="50" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="60.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="38" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="87" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="39" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.5"/>
     <row r="5" spans="1:2" ht="408.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="53" t="s">
-        <v>180</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="30.6" customHeight="1" x14ac:dyDescent="0.5"/>
+      <c r="A5" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" s="58" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="208.2" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="59"/>
+      <c r="B6" s="59"/>
+    </row>
     <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.5"/>
     <row r="8" spans="1:2" ht="409.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="40" t="s">
-        <v>192</v>
+      <c r="B8" s="39" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="409.6" x14ac:dyDescent="0.5">
+      <c r="A17" s="55" t="s">
+        <v>259</v>
+      </c>
+      <c r="B17" s="56" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="60" customFormat="1" ht="191.4" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="60">
+        <v>900</v>
+      </c>
+      <c r="B18" s="60" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -2665,9 +2763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90EA2079-16CC-4FC4-8D75-AAB93ECB0524}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2677,14 +2773,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="340.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1" t="s">
         <v>251</v>
       </c>
-      <c r="B1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>255</v>
+      <c r="C1" s="20" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -2701,16 +2797,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="82.6640625" style="30" customWidth="1"/>
-    <col min="2" max="2" width="48.77734375" style="30" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="30"/>
+    <col min="1" max="1" width="82.6640625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="48.77734375" style="29" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="B1" s="31" t="s">
+      <c r="A1" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2735,7 +2831,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>144</v>
       </c>
       <c r="B1" t="s">
@@ -2743,7 +2839,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2769,513 +2865,513 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48"/>
-      <c r="B1" s="48" t="s">
+      <c r="A1" s="47"/>
+      <c r="B1" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>196</v>
+      </c>
+      <c r="E1" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="F1" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="G1" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="H1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+    </row>
+    <row r="3" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="43" t="s">
         <v>200</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="B3" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="C3" s="44" t="s">
         <v>202</v>
       </c>
-      <c r="H1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-    </row>
-    <row r="3" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="44" t="s">
+      <c r="D3" s="45" t="s">
         <v>203</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="E3" s="46" t="s">
         <v>204</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="F3" s="46" t="s">
+        <v>204</v>
+      </c>
+      <c r="G3" s="44" t="s">
         <v>205</v>
       </c>
-      <c r="D3" s="46" t="s">
+    </row>
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="43" t="s">
         <v>206</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="B4" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+    </row>
+    <row r="5" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="43" t="s">
         <v>207</v>
       </c>
-      <c r="F3" s="47" t="s">
-        <v>207</v>
-      </c>
-      <c r="G3" s="45" t="s">
+      <c r="B5" s="44" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="44" t="s">
+      <c r="C5" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="G5" s="44" t="s">
         <v>209</v>
       </c>
-      <c r="B4" s="45" t="s">
+    </row>
+    <row r="6" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="E6" s="46" t="s">
         <v>204</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="F6" s="44"/>
+      <c r="G6" s="44" t="s">
         <v>205</v>
       </c>
-      <c r="D4" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-    </row>
-    <row r="5" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="44" t="s">
-        <v>210</v>
-      </c>
-      <c r="B5" s="45" t="s">
+    </row>
+    <row r="7" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="43" t="s">
         <v>211</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="B7" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+    </row>
+    <row r="8" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+    </row>
+    <row r="9" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="43" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+    </row>
+    <row r="10" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="43" t="s">
+        <v>217</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+    </row>
+    <row r="11" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="43" t="s">
+        <v>218</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="D11" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+    </row>
+    <row r="12" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+    </row>
+    <row r="13" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="43" t="s">
+        <v>220</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="D13" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+    </row>
+    <row r="14" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="D14" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="E14" s="46" t="s">
+        <v>204</v>
+      </c>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>224</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="D15" s="45" t="s">
+        <v>225</v>
+      </c>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+    </row>
+    <row r="16" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="D16" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="E16" s="46" t="s">
+        <v>204</v>
+      </c>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44" t="s">
         <v>205</v>
       </c>
-      <c r="D5" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="E5" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="F5" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="G5" s="45" t="s">
+    </row>
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="43" t="s">
+        <v>229</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="D17" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+    </row>
+    <row r="18" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>208</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="D18" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="E18" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+    </row>
+    <row r="19" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>208</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="D19" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="E19" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+    </row>
+    <row r="20" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="43" t="s">
+        <v>232</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="C20" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="D20" s="45" t="s">
+        <v>233</v>
+      </c>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+    </row>
+    <row r="21" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="43" t="s">
+        <v>234</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>235</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="E21" s="46" t="s">
+        <v>236</v>
+      </c>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+    </row>
+    <row r="22" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="43" t="s">
+        <v>237</v>
+      </c>
+      <c r="B22" s="44" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="44" t="s">
-        <v>213</v>
-      </c>
-      <c r="B6" s="45" t="s">
-        <v>211</v>
-      </c>
-      <c r="C6" s="45" t="s">
-        <v>205</v>
-      </c>
-      <c r="D6" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="E6" s="47" t="s">
-        <v>207</v>
-      </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="44" t="s">
-        <v>214</v>
-      </c>
-      <c r="B7" s="45" t="s">
-        <v>215</v>
-      </c>
-      <c r="C7" s="45" t="s">
-        <v>205</v>
-      </c>
-      <c r="D7" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-    </row>
-    <row r="8" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="44" t="s">
+      <c r="C22" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="D22" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+    </row>
+    <row r="23" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="B23" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="C23" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="D23" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+    </row>
+    <row r="24" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="43" t="s">
+        <v>239</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="D24" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="E24" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+    </row>
+    <row r="25" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="43" t="s">
+        <v>240</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="C25" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="D25" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="E25" s="46" t="s">
+        <v>204</v>
+      </c>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+    </row>
+    <row r="26" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="43" t="s">
+        <v>242</v>
+      </c>
+      <c r="B26" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="C26" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="D26" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="E26" s="46" t="s">
+        <v>236</v>
+      </c>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+    </row>
+    <row r="27" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="B27" s="44" t="s">
         <v>216</v>
       </c>
-      <c r="B8" s="45" t="s">
-        <v>217</v>
-      </c>
-      <c r="C8" s="45" t="s">
-        <v>205</v>
-      </c>
-      <c r="D8" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-    </row>
-    <row r="9" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="44" t="s">
-        <v>218</v>
-      </c>
-      <c r="B9" s="45" t="s">
-        <v>219</v>
-      </c>
-      <c r="C9" s="45" t="s">
-        <v>205</v>
-      </c>
-      <c r="D9" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-    </row>
-    <row r="10" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="44" t="s">
-        <v>220</v>
-      </c>
-      <c r="B10" s="45" t="s">
-        <v>219</v>
-      </c>
-      <c r="C10" s="45" t="s">
-        <v>205</v>
-      </c>
-      <c r="D10" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-    </row>
-    <row r="11" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="44" t="s">
-        <v>221</v>
-      </c>
-      <c r="B11" s="45" t="s">
-        <v>219</v>
-      </c>
-      <c r="C11" s="45" t="s">
-        <v>205</v>
-      </c>
-      <c r="D11" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-    </row>
-    <row r="12" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="44" t="s">
-        <v>222</v>
-      </c>
-      <c r="B12" s="45" t="s">
-        <v>219</v>
-      </c>
-      <c r="C12" s="45" t="s">
-        <v>205</v>
-      </c>
-      <c r="D12" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-    </row>
-    <row r="13" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="44" t="s">
-        <v>223</v>
-      </c>
-      <c r="B13" s="45" t="s">
-        <v>219</v>
-      </c>
-      <c r="C13" s="45" t="s">
-        <v>224</v>
-      </c>
-      <c r="D13" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-    </row>
-    <row r="14" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="44" t="s">
-        <v>225</v>
-      </c>
-      <c r="B14" s="45" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="45" t="s">
-        <v>205</v>
-      </c>
-      <c r="D14" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="E14" s="47" t="s">
-        <v>207</v>
-      </c>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-    </row>
-    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="44" t="s">
-        <v>226</v>
-      </c>
-      <c r="B15" s="45" t="s">
+      <c r="C27" s="44" t="s">
         <v>227</v>
       </c>
-      <c r="C15" s="45" t="s">
-        <v>205</v>
-      </c>
-      <c r="D15" s="46" t="s">
-        <v>228</v>
-      </c>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-    </row>
-    <row r="16" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="44" t="s">
-        <v>229</v>
-      </c>
-      <c r="B16" s="45" t="s">
-        <v>204</v>
-      </c>
-      <c r="C16" s="45" t="s">
-        <v>230</v>
-      </c>
-      <c r="D16" s="46" t="s">
-        <v>231</v>
-      </c>
-      <c r="E16" s="47" t="s">
-        <v>207</v>
-      </c>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="44" t="s">
-        <v>232</v>
-      </c>
-      <c r="B17" s="45" t="s">
-        <v>204</v>
-      </c>
-      <c r="C17" s="45" t="s">
-        <v>230</v>
-      </c>
-      <c r="D17" s="46" t="s">
-        <v>231</v>
-      </c>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-    </row>
-    <row r="18" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="44" t="s">
-        <v>233</v>
-      </c>
-      <c r="B18" s="45" t="s">
-        <v>211</v>
-      </c>
-      <c r="C18" s="45" t="s">
-        <v>230</v>
-      </c>
-      <c r="D18" s="46" t="s">
-        <v>231</v>
-      </c>
-      <c r="E18" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-    </row>
-    <row r="19" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="44" t="s">
-        <v>234</v>
-      </c>
-      <c r="B19" s="45" t="s">
-        <v>211</v>
-      </c>
-      <c r="C19" s="45" t="s">
-        <v>230</v>
-      </c>
-      <c r="D19" s="46" t="s">
-        <v>231</v>
-      </c>
-      <c r="E19" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-    </row>
-    <row r="20" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="44" t="s">
-        <v>235</v>
-      </c>
-      <c r="B20" s="45" t="s">
-        <v>217</v>
-      </c>
-      <c r="C20" s="45" t="s">
-        <v>230</v>
-      </c>
-      <c r="D20" s="46" t="s">
-        <v>236</v>
-      </c>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-    </row>
-    <row r="21" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="44" t="s">
-        <v>237</v>
-      </c>
-      <c r="B21" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="C21" s="45" t="s">
-        <v>230</v>
-      </c>
-      <c r="D21" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="E21" s="47" t="s">
-        <v>239</v>
-      </c>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-    </row>
-    <row r="22" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="44" t="s">
-        <v>240</v>
-      </c>
-      <c r="B22" s="45" t="s">
-        <v>215</v>
-      </c>
-      <c r="C22" s="45" t="s">
-        <v>230</v>
-      </c>
-      <c r="D22" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-    </row>
-    <row r="23" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="44" t="s">
-        <v>241</v>
-      </c>
-      <c r="B23" s="45" t="s">
-        <v>215</v>
-      </c>
-      <c r="C23" s="45" t="s">
-        <v>230</v>
-      </c>
-      <c r="D23" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-    </row>
-    <row r="24" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="44" t="s">
-        <v>242</v>
-      </c>
-      <c r="B24" s="45" t="s">
-        <v>215</v>
-      </c>
-      <c r="C24" s="45" t="s">
-        <v>230</v>
-      </c>
-      <c r="D24" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="E24" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-    </row>
-    <row r="25" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="44" t="s">
-        <v>243</v>
-      </c>
-      <c r="B25" s="45" t="s">
+      <c r="D27" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+    </row>
+    <row r="28" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="C25" s="45" t="s">
-        <v>230</v>
-      </c>
-      <c r="D25" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="E25" s="47" t="s">
-        <v>207</v>
-      </c>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-    </row>
-    <row r="26" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="44" t="s">
-        <v>245</v>
-      </c>
-      <c r="B26" s="45" t="s">
-        <v>244</v>
-      </c>
-      <c r="C26" s="45" t="s">
-        <v>230</v>
-      </c>
-      <c r="D26" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="E26" s="47" t="s">
-        <v>239</v>
-      </c>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-    </row>
-    <row r="27" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="44" t="s">
-        <v>246</v>
-      </c>
-      <c r="B27" s="45" t="s">
-        <v>219</v>
-      </c>
-      <c r="C27" s="45" t="s">
-        <v>230</v>
-      </c>
-      <c r="D27" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-    </row>
-    <row r="28" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="44" t="s">
-        <v>247</v>
-      </c>
-      <c r="B28" s="45" t="s">
-        <v>219</v>
-      </c>
-      <c r="C28" s="45" t="s">
-        <v>230</v>
-      </c>
-      <c r="D28" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
+      <c r="B28" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="C28" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="D28" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3294,7 +3390,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E005901C-00BA-406B-88B9-503DB86B1951}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
@@ -3302,132 +3398,142 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="47.88671875" style="19" customWidth="1"/>
-    <col min="2" max="2" width="75.33203125" style="19" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="19"/>
+    <col min="1" max="1" width="47.88671875" style="18" customWidth="1"/>
+    <col min="2" max="2" width="75.33203125" style="18" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="31.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="38.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="31.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="62.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="18" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="36" x14ac:dyDescent="0.35">
-      <c r="A14" s="19" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="B14" s="20" t="s">
-        <v>157</v>
+      <c r="B14" s="19" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="18" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="18" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="36" x14ac:dyDescent="0.35">
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="19" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="B18" s="19" t="s">
-        <v>196</v>
+      <c r="B18" s="18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B19" s="18" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B20" s="18" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3482,7 +3588,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -3501,34 +3607,34 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="168.88671875" style="23" customWidth="1"/>
-    <col min="3" max="6" width="8.88671875" style="23"/>
-    <col min="7" max="7" width="65.88671875" style="23" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="23"/>
+    <col min="1" max="1" width="26.33203125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="168.88671875" style="22" customWidth="1"/>
+    <col min="3" max="6" width="8.88671875" style="22"/>
+    <col min="7" max="7" width="65.88671875" style="22" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="215.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="22" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="22" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3540,118 +3646,124 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE4B785-07B1-4650-B638-D0AF9F289A63}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="104.21875" style="10" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="10"/>
+    <col min="1" max="1" width="20.6640625" style="54" customWidth="1"/>
+    <col min="2" max="2" width="104.21875" style="54" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" style="54" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="54"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="52" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="52" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="52" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="52" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="52" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="52" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="52" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="52" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="52" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="52" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>257</v>
+      <c r="B14" s="54" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="52" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="11" t="s">
-        <v>191</v>
+      <c r="B21" s="52" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="54" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -3676,20 +3788,24 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{156D588B-62C7-4071-B8E4-D7D39D7B77AF}">
-  <dimension ref="A2"/>
+  <dimension ref="A2:B2"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="110.6640625" customWidth="1"/>
+    <col min="2" max="2" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" ht="253.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:2" ht="388.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
         <v>109</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/PVC.xlsx
+++ b/PVC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbikkumx\OneDrive - Intel Corporation\Desktop\intel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35C228E-0641-46A8-8EB0-274D6EE06932}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72065924-097D-433D-83D8-706DFB72F516}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="11" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="15" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Agama" sheetId="4" r:id="rId1"/>
@@ -32,11 +32,13 @@
     <sheet name="trainings" sheetId="19" r:id="rId17"/>
     <sheet name="terms" sheetId="12" r:id="rId18"/>
     <sheet name="trouble" sheetId="20" r:id="rId19"/>
-    <sheet name="status update" sheetId="18" r:id="rId20"/>
-    <sheet name="proxy" sheetId="33" r:id="rId21"/>
-    <sheet name="my info" sheetId="24" r:id="rId22"/>
-    <sheet name="OS_installation" sheetId="25" r:id="rId23"/>
-    <sheet name="Sheet1" sheetId="32" r:id="rId24"/>
+    <sheet name="proxy" sheetId="33" r:id="rId20"/>
+    <sheet name="my info" sheetId="24" r:id="rId21"/>
+    <sheet name="OS_installation" sheetId="25" r:id="rId22"/>
+    <sheet name="p1_marquee" sheetId="32" r:id="rId23"/>
+    <sheet name="WA~" sheetId="34" r:id="rId24"/>
+    <sheet name="Sheet3" sheetId="37" r:id="rId25"/>
+    <sheet name="Sheet5" sheetId="39" r:id="rId26"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="308">
   <si>
     <t>export UseDrmVirtualEnginesForCcs=0
 --------------------------------------------
@@ -320,14 +322,7 @@
     <t>dmesg-w</t>
   </si>
   <si>
-    <t>log("gtstatus_config_14.txt")
- gts.status()</t>
-  </si>
-  <si>
     <t>nolog()</t>
-  </si>
-  <si>
-    <t>https://teams.microsoft.com/l/file/9C53B210-24B0-46E7-951D-91942F5070ED?tenantId=46c98d88-e344-4ed4-8496-4ed7712e255d&amp;fileType=xlsx&amp;objectUrl=https%3A%2F%2Fintel.sharepoint.com%2Fsites%2FIAGSVTTPVC948%2FShared%20Documents%2FPVC%20PowerOn%2FPVC_PO_Task_Plan.xlsx&amp;baseUrl=https%3A%2F%2Fintel.sharepoint.com%2Fsites%2FIAGSVTTPVC948&amp;serviceName=teams&amp;threadId=19:9939137ec3c94f108985b958a0747c78@thread.skype&amp;groupId=423c2a8f-183e-4a94-902d-4a1fa720c7f5</t>
   </si>
   <si>
     <t>kernal related</t>
@@ -360,14 +355,7 @@
 ./build/test/slim_copy_test –debug</t>
   </si>
   <si>
-    <t xml:space="preserve">
-command for PM ./build/test/  ./slim_copy_test --debug</t>
-  </si>
-  <si>
     <t>\\bassvlab03\Training\PVC\akhilesh\TAP</t>
-  </si>
-  <si>
-    <t>for tap workloads</t>
   </si>
   <si>
     <t>for compute config files</t>
@@ -458,11 +446,6 @@
   </si>
   <si>
     <t>GTA -PVC plan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 b.go(gotil="prepare_for_loop",recipes=['user_custom.gpsb_mdfic_mdfi_warmreset','user_custom.anr_disable_recipe'],fusestr=["fuses.punit.pcode_gt_p0_ratio=0x12","fuses.punit.pcode_gt_p0_ratio_media_ff=0x12","fuses.punit.pcode_gt_p0_ratio_systolic=0x12
-","fuses.punit.pcode_gt_p0_ratio_compute = 0x12", "fuses.punit.pcode_gt_p1_ratio=0x12","fuses.punit.pcode_gt_p1_ratio_systolic=0x12","fuses.punit.pcode_gt_p1_ratio_media_ff=0x12","fuses.punit.pcode_gt_p1_ratio_compute=0x12","fuses.punit.pcode_gt_pn_ratio=0x12
-","fuses.punit.pcode_gt_min_ratio=0x12", "fuses.punit.pcode_gt_p0_ratio_chiplet_ifc = 0x1B"])    </t>
   </si>
   <si>
     <t>running dldt using python3</t>
@@ -847,11 +830,6 @@
     <t>import  pontevecchio.debug.domains.gfx.gt.gtStatus as gt</t>
   </si>
   <si>
-    <t>gt.status()
-import pontevecchio.debug.domains.gfx.gt
-import pontevecchio.fv.ras.error_logging_modules.soc_error_log as soc</t>
-  </si>
-  <si>
     <t>from pontececchio.debug.domains.gfx.tools.scandump import pvcgfxscanAFD
 pvcgfxscanAFD.gtScandump()</t>
   </si>
@@ -878,10 +856,6 @@
   </si>
   <si>
     <t>./stream-triad-dp-cache -b128M -t100</t>
-  </si>
-  <si>
-    <t>tile0.gfx.gtgp.row_chicken.fpu_residue_disable=0x1
-tile1.gfx.gtgp.row_chicken.fpu_residue_disable --&gt; should be 0x1 to disable</t>
   </si>
   <si>
     <t>SELECT * FROM TestView WHERE (Context IN('OSBV_PVC_A0')) AND (TestListID IN (14246,14247,14229,13497,14231,14238,14241))
@@ -1162,14 +1136,245 @@
 - options i915 enable_guc=3 enable_rc6=0 max_tiles=2 smem_access_control=5 enable_guc_hangcheck=0 reset=0 enable_hangcheck=0</t>
   </si>
   <si>
-    <t>on 08-05-2021 or 9-05-2021 check this</t>
+    <t>for i in /sys/class/drm/card*/engine/*/heartbeat_interval_ms; do echo 0 &gt; $i; done;
+for i in /sys/class/drm/card*/engine/*/preempt_timeout_ms; do echo 0 &gt; $i; done;
+for i in /sys/class/drm/card*/engine/*/max_busywait_duration_ns; do echo 0 &gt; $i; done;
+for i in /sys/class/drm/card*/engine/*/stop_timeout_ms; do echo 0 &gt; $i; done;</t>
+  </si>
+  <si>
+    <t>df -h</t>
+  </si>
+  <si>
+    <t>to check disk space in linux</t>
+  </si>
+  <si>
+    <t>sudo dpkg -i --force-all *.deb</t>
+  </si>
+  <si>
+    <t>Execute the test root of the Compubench DT : -./compubench-cli-glfw3 -b . -c 0 -t cl_facedetect
+3) .Execute the test root of the Compubench MB:- ./compubench-cli -b .. -c 0 -t cl_facedetect_buff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">export UseDrmVirtualEnginesForCcs=0 </t>
+  </si>
+  <si>
+    <t>b.go command for 300 MHZ is 
+for 300 MHZ
+ratio10_ovrd0 = ["fuses.punit.pcode_gt_p0_ratio=0x6",
+"fuses.punit.pcode_gt_p0_ratio_systolic=0x6",
+"fuses.punit.pcode_gt_p0_ratio_chiplet_ifc=0x9",
+"fuses.punit.pcode_gt_p0_ratio_media_ff=0x6",
+"fuses.punit.pcode_gt_p1_ratio=0x6",
+"fuses.punit.pcode_gt_p1_ratio_systolic=0x6",
+"fuses.punit.pcode_gt_p1_ratio_compute=0x6",
+"fuses.punit.pcode_gt_pn_ratio=0x6",
+"fuses.punit.pcode_gt_min_ratio=0x6",
+]
+b.go(xt=True, fusestr=ratio10_ovrd0, pwrgoodmethod ="usb")</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For 500 Mhz
+ratio10_ovrd0 = ["fuses.punit.pcode_gt_p0_ratio=0x10",
+"fuses.punit.pcode_gt_p0_ratio_systolic=0x10",
+"fuses.punit.pcode_gt_p0_ratio_chiplet_ifc=0xF",
+"fuses.punit.pcode_gt_p0_ratio_media_ff=0x10",
+"fuses.punit.pcode_gt_p1_ratio=0x10",
+"fuses.punit.pcode_gt_p1_ratio_systolic=0x10",
+"fuses.punit.pcode_gt_p1_ratio_compute=0x10",
+"fuses.punit.pcode_gt_pn_ratio=0x10",
+"fuses.punit.pcode_gt_min_ratio=0x10",
+]
+b.go(xt=True, fusestr=ratio10_ovrd0, pwrgoodmethod ="usb")
+For 750 Mhz
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ratio10_ovrd0 = ["fuses.punit.pcode_gt_p0_ratio=0xf",
+"fuses.punit.pcode_gt_p0_ratio_systolic=0xf",
+"fuses.punit.pcode_gt_p0_ratio_chiplet_ifc=0x17",
+"fuses.punit.pcode_gt_p0_ratio_media_ff=0xf",
+"fuses.punit.pcode_gt_p1_ratio=0xf",
+"fuses.punit.pcode_gt_p1_ratio_systolic=0xf",
+"fuses.punit.pcode_gt_p1_ratio_compute=0xf",
+"fuses.punit.pcode_gt_pn_ratio=0xf",
+"fuses.punit.pcode_gt_min_ratio=0xf",
+]
+b.go(xt=True, fusestr=ratio10_ovrd0, pwrgoodmethod ="usb")</t>
+    </r>
+  </si>
+  <si>
+    <t>sudo chown -R gta:gta .  This is for permissions ls -al</t>
+  </si>
+  <si>
+    <t>tile0.gfx.gtgp.row_chicken.fpu_residue_disable=0x1
+tile1.gfx.gtgp.row_chicken.fpu_residue_disable =0x1</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> import pontevecchio.debug.domains.gfx.gt.gtPmStatus as pms
+pms.dumpGtFrequency(None)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">log("gtstatus_config_14.txt")
+</t>
+  </si>
+  <si>
+    <t>import  pontevecchio.debug.domains.gfx.gt.gtStatus as gt
+ gts.status()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+import pontevecchio.debug.domains.gfx.gt
+import pontevecchio.fv.ras.error_logging_modules.soc_error_log as soc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 </t>
+  </si>
+  <si>
+    <t>test_relationals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stack </t>
+  </si>
+  <si>
+    <t>command for PM ./build/test/  ./slim_copy_test --debug</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BSP sync with APs timeout in SmmRuntimeCtlExit!
+BSP sync with APs timeout in SmmRuntimeCtlExit!
+[  694.807947] Kernel panic - not syncing: Timeout: Not all CPUs entered broadcast exception handler
+[  694.807954]</t>
+  </si>
+  <si>
+    <t>900 frequency</t>
+  </si>
+  <si>
+    <t>200 frequency</t>
+  </si>
+  <si>
+    <t>test with( smem_access_ccontrol=0)</t>
+  </si>
+  <si>
+    <t>importpontevecchio.debug.domains.gfx.gt.gtPmStatus as pms
+[18:37] Goswami, Vijaya
+Load driver --&gt; sudo modprobe  i915 enable_rc6=0 enable_rps=0 enable_guc=3 enable_hangcheck=0 reset=0 smem_access_control=0
+pms.setGtFrequency_unslice(900)</t>
+  </si>
+  <si>
+    <t>For stress tetsing you can use
+Resnet training
+Resnet Inference
+BlackScholes
+CLpeak
+Lammps
+DLDT-vggnet
+DLDT-Yolo
+DLDT- GoogleNet
+Mandelbrot
+SVM Bench - bwRead131072KB
+SVM Bench -  bwWrite131072KB
+SVM Bench - bwCopy131072KB
+OpenCV - cascadeclassifier
+HCP - dnnbench</t>
+  </si>
+  <si>
+    <t>clinfo | grep -sub</t>
+  </si>
+  <si>
+    <t>how many tiles</t>
+  </si>
+  <si>
+    <t>export UseDrmVirtualEnginesForCcs=0</t>
+  </si>
+  <si>
+    <t>tap _3.5</t>
+  </si>
+  <si>
+    <t>for tap 3.6 workloads</t>
+  </si>
+  <si>
+    <t>itp.forcereconfig() ,sv.refresh() if bootscore is less</t>
+  </si>
+  <si>
+    <t>config -1</t>
+  </si>
+  <si>
+    <t>config-33</t>
+  </si>
+  <si>
+    <t>pms.setGtFrequency_unslice(900)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ gts.status()</t>
+  </si>
+  <si>
+    <t>import pontevecchio.fv.ras.error_logging_modules.soc_error_log as soc</t>
+  </si>
+  <si>
+    <t>soc.soc_error_log()</t>
+  </si>
+  <si>
+    <t>config-34</t>
+  </si>
+  <si>
+    <t>kernel panic(collected GT_status and soc,test logs)</t>
+  </si>
+  <si>
+    <t>config -98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">config-10 </t>
+  </si>
+  <si>
+    <t>config-full memory test</t>
+  </si>
+  <si>
+    <t>PASS (got BKM from kedar ,collected the logs)</t>
+  </si>
+  <si>
+    <t>mandelbrot (HCP_BENCH_OCL,dcg,dpd)</t>
+  </si>
+  <si>
+    <t>Resnet i8 ,resnet train</t>
+  </si>
+  <si>
+    <t>out of memory ,killed .</t>
+  </si>
+  <si>
+    <t>SGEMM qmc pack</t>
+  </si>
+  <si>
+    <t>this is having some issue .</t>
+  </si>
+  <si>
+    <t>BGEMM ,iGEMM</t>
+  </si>
+  <si>
+    <t>failing collected the GT ,SOC status(IFWI problem)</t>
+  </si>
+  <si>
+    <t>lamps</t>
+  </si>
+  <si>
+    <t>I tried but it didn’t worked .</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1234,8 +1439,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1344,6 +1556,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -1408,7 +1632,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1440,7 +1664,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1481,9 +1704,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1497,15 +1717,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1524,6 +1735,33 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1821,7 +2059,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -1868,129 +2106,135 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.2" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="169.44140625" style="33" customWidth="1"/>
-    <col min="2" max="2" width="169.33203125" style="26" customWidth="1"/>
-    <col min="3" max="3" width="255.6640625" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="27"/>
+    <col min="1" max="1" width="169.44140625" style="32" customWidth="1"/>
+    <col min="2" max="2" width="187.88671875" style="25" customWidth="1"/>
+    <col min="3" max="3" width="255.6640625" style="34" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="62.4" x14ac:dyDescent="0.6">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A2" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="26" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="62.4" x14ac:dyDescent="0.6">
+      <c r="A3" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="145.19999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A2" s="33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A3" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="187.2" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="34" t="s">
-        <v>185</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>99</v>
+      <c r="C4" s="35" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A5" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>82</v>
+      <c r="A5" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="93.6" x14ac:dyDescent="0.6">
-      <c r="A7" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="B7" s="26" t="s">
+      <c r="A7" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A8" s="32" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A9" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A11" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A12" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="62.4" x14ac:dyDescent="0.6">
+      <c r="A14" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="B14" s="25" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A8" s="33" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A9" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A11" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A12" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="B14" s="26" t="s">
+    <row r="16" spans="1:3" ht="374.4" x14ac:dyDescent="0.6">
+      <c r="A16" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="B16" s="27" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="374.4" x14ac:dyDescent="0.6">
-      <c r="A16" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>85</v>
-      </c>
-    </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A19" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>146</v>
+      <c r="A19" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A20" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="B20" s="27"/>
+      <c r="A20" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="26"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A21" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="B21" s="27"/>
+      <c r="A21" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2028,7 +2272,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831CAC65-ABF7-4027-8B3C-BF26A0B50F33}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -2036,39 +2280,49 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="64.21875" style="37" customWidth="1"/>
+    <col min="1" max="1" width="103.77734375" style="36" customWidth="1"/>
     <col min="2" max="2" width="34.77734375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="98.6640625" style="41" customWidth="1"/>
+    <col min="3" max="3" width="98.6640625" style="39" customWidth="1"/>
     <col min="4" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="279.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>179</v>
+    <row r="1" spans="1:3" s="62" customFormat="1" ht="134.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="61" t="s">
+        <v>265</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" s="63" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
-        <v>165</v>
+      <c r="A2" s="36" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="37" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
-        <v>190</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>180</v>
+      <c r="A3" s="36" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="39" customFormat="1" ht="374.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="60" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="59" customFormat="1" ht="287.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="58" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -2095,57 +2349,57 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D2" t="s">
-        <v>263</v>
+        <v>167</v>
+      </c>
+      <c r="D2" s="65">
+        <v>44330</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
-        <v>173</v>
+      <c r="A4" s="20" t="s">
+        <v>168</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="42" t="s">
-        <v>173</v>
+      <c r="A7" s="40" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="20" t="s">
-        <v>192</v>
+      <c r="C8" s="19" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -2160,10 +2414,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F66318DF-E8FA-47E2-8867-757595ABE751}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2175,10 +2429,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2198,7 +2452,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>52</v>
@@ -2206,34 +2460,42 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>71</v>
+        <v>285</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -2243,9 +2505,10 @@
     <hyperlink ref="B15" r:id="rId3" xr:uid="{0D7CDF6C-103D-4E4D-AB14-6432A317EDB6}"/>
     <hyperlink ref="B1" r:id="rId4" xr:uid="{556CAE43-AE62-4306-9791-BF54D2C355E4}"/>
     <hyperlink ref="B12" r:id="rId5" xr:uid="{5BB0BFA2-EA37-42E5-B361-92869192475C}"/>
+    <hyperlink ref="B17" r:id="rId6" xr:uid="{233125EB-2616-4C24-99C7-AB01650C471B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -2483,39 +2746,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="36" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>115</v>
+      <c r="A1" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>116</v>
+      <c r="A2" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
-        <v>117</v>
+      <c r="A4" s="20" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
-        <v>119</v>
+      <c r="A5" s="20" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
-        <v>120</v>
+      <c r="A6" s="20" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2537,7 +2800,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2563,94 +2826,109 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCEC9E7E-6729-4865-99F0-0C4C696B6B6D}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="58.5546875" style="24" customWidth="1"/>
-    <col min="2" max="2" width="143.21875" style="24" customWidth="1"/>
-    <col min="3" max="3" width="99.77734375" style="24" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="24"/>
+    <col min="1" max="1" width="58.5546875" style="23" customWidth="1"/>
+    <col min="2" max="2" width="143.21875" style="23" customWidth="1"/>
+    <col min="3" max="3" width="99.77734375" style="23" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B1" s="24" t="s">
-        <v>123</v>
+      <c r="B1" s="23" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="42.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>138</v>
+      <c r="A2" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>150</v>
+      <c r="A4" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>153</v>
+      <c r="A5" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="54" x14ac:dyDescent="0.35">
-      <c r="A8" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>262</v>
+      <c r="A6" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="41.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B9" s="24" t="s">
-        <v>168</v>
+      <c r="B9" s="23" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B10" s="24" t="s">
-        <v>181</v>
+      <c r="B10" s="23" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B11" s="24" t="s">
-        <v>183</v>
+      <c r="B11" s="23" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>249</v>
+      <c r="A12" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="36" x14ac:dyDescent="0.35">
+      <c r="B13" s="31" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B14" s="23" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B15" s="23" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -2663,68 +2941,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A44124-35D8-410D-A47F-0D4F8298DF53}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.8" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="74.109375" style="51" customWidth="1"/>
-    <col min="2" max="2" width="255.6640625" style="38" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="31"/>
+    <col min="1" max="1" width="74.109375" style="46" customWidth="1"/>
+    <col min="2" max="2" width="255.6640625" style="37" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="73.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="50" t="s">
-        <v>129</v>
+      <c r="A1" s="45" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="60.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="51" t="s">
-        <v>132</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>133</v>
+      <c r="A2" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="87" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="39" t="s">
-        <v>156</v>
+      <c r="B3" s="38" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.5"/>
     <row r="5" spans="1:2" ht="408.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="57" t="s">
-        <v>177</v>
-      </c>
-      <c r="B5" s="58" t="s">
-        <v>178</v>
+      <c r="A5" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="208.2" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="59"/>
-      <c r="B6" s="59"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
     </row>
     <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.5"/>
     <row r="8" spans="1:2" ht="409.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="39" t="s">
-        <v>189</v>
+      <c r="B8" s="38" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="409.6" x14ac:dyDescent="0.5">
-      <c r="A17" s="55" t="s">
-        <v>259</v>
-      </c>
-      <c r="B17" s="56" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" s="60" customFormat="1" ht="191.4" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="60">
+      <c r="A17" s="50" t="s">
+        <v>252</v>
+      </c>
+      <c r="B17" s="51" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="55" customFormat="1" ht="191.4" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="55">
         <v>900</v>
       </c>
-      <c r="B18" s="60" t="s">
-        <v>261</v>
+      <c r="B18" s="55" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -2734,32 +3012,6 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B68097A-33D4-45B0-8750-607B79D16F03}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="94.21875" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="15"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="https://teams.microsoft.com/l/file/9C53B210-24B0-46E7-951D-91942F5070ED?tenantId=46c98d88-e344-4ed4-8496-4ed7712e255d&amp;fileType=xlsx&amp;objectUrl=https%3A%2F%2Fintel.sharepoint.com%2Fsites%2FIAGSVTTPVC948%2FShared%20Documents%2FPVC%20PowerOn%2FPVC_PO_Task_Plan.xlsx&amp;baseUrl=https%3A%2F%2Fintel.sharepoint.com%2Fsites%2FIAGSVTTPVC948&amp;serviceName=teams&amp;threadId=19:9939137ec3c94f108985b958a0747c78@thread.skype&amp;groupId=423c2a8f-183e-4a94-902d-4a1fa720c7f5" xr:uid="{DC4DA1DC-12A9-4ACF-AD6E-55465FAC5CD9}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90EA2079-16CC-4FC4-8D75-AAB93ECB0524}">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -2773,14 +3025,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="340.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>248</v>
+      <c r="A1" s="19" t="s">
+        <v>241</v>
       </c>
       <c r="B1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>252</v>
+        <v>244</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>245</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C8DA7E-9E18-413F-8FD3-1FA866970298}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="82.6640625" style="28" customWidth="1"/>
+    <col min="2" max="2" width="48.77734375" style="28" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2790,33 +3069,6 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C8DA7E-9E18-413F-8FD3-1FA866970298}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="82.6640625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="48.77734375" style="29" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="29"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>141</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B2896D-3CA8-4BA5-B29B-82FE2D52D293}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2831,16 +3083,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>144</v>
+      <c r="A1" s="19" t="s">
+        <v>139</v>
       </c>
       <c r="B1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
-        <v>142</v>
+      <c r="A2" s="19" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2849,12 +3101,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A759DF8-1527-4DA9-8572-873887B87661}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2865,513 +3117,513 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47"/>
-      <c r="B1" s="47" t="s">
+      <c r="A1" s="56"/>
+      <c r="B1" s="56" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="F1" s="56" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1" s="56" t="s">
+        <v>192</v>
+      </c>
+      <c r="H1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+    </row>
+    <row r="3" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" s="42" t="s">
         <v>194</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C3" s="42" t="s">
         <v>195</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D3" s="43" t="s">
         <v>196</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E3" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F3" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="G3" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="G1" s="47" t="s">
+    </row>
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="H1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-    </row>
-    <row r="3" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="43" t="s">
+      <c r="B4" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+    </row>
+    <row r="5" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="41" t="s">
         <v>200</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B5" s="42" t="s">
         <v>201</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C5" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="G5" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="D3" s="45" t="s">
+    </row>
+    <row r="6" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="41" t="s">
         <v>203</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="B6" s="42" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="F3" s="46" t="s">
-        <v>204</v>
-      </c>
-      <c r="G3" s="44" t="s">
+      <c r="B7" s="42" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="43" t="s">
+      <c r="C7" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+    </row>
+    <row r="8" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="41" t="s">
         <v>206</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B8" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+    </row>
+    <row r="9" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+    </row>
+    <row r="10" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+    </row>
+    <row r="11" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+    </row>
+    <row r="12" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+    </row>
+    <row r="13" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+    </row>
+    <row r="14" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="E14" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>218</v>
+      </c>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+    </row>
+    <row r="16" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="41" t="s">
+        <v>219</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>221</v>
+      </c>
+      <c r="E16" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>221</v>
+      </c>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+    </row>
+    <row r="18" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="B18" s="42" t="s">
         <v>201</v>
       </c>
-      <c r="C4" s="44" t="s">
-        <v>202</v>
-      </c>
-      <c r="D4" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-    </row>
-    <row r="5" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="43" t="s">
+      <c r="C18" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>221</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+    </row>
+    <row r="19" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>201</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>221</v>
+      </c>
+      <c r="E19" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+    </row>
+    <row r="20" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="B20" s="42" t="s">
         <v>207</v>
       </c>
-      <c r="B5" s="44" t="s">
-        <v>208</v>
-      </c>
-      <c r="C5" s="44" t="s">
-        <v>202</v>
-      </c>
-      <c r="D5" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="E5" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="F5" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="G5" s="44" t="s">
+      <c r="C20" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+    </row>
+    <row r="21" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="41" t="s">
+        <v>227</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+    </row>
+    <row r="22" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+    </row>
+    <row r="23" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+    </row>
+    <row r="24" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="E24" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+    </row>
+    <row r="25" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="D25" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="E25" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+    </row>
+    <row r="26" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="E26" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+    </row>
+    <row r="27" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="B27" s="42" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="43" t="s">
-        <v>210</v>
-      </c>
-      <c r="B6" s="44" t="s">
-        <v>208</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>202</v>
-      </c>
-      <c r="D6" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="E6" s="46" t="s">
-        <v>204</v>
-      </c>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="43" t="s">
-        <v>211</v>
-      </c>
-      <c r="B7" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>202</v>
-      </c>
-      <c r="D7" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-    </row>
-    <row r="8" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="B8" s="44" t="s">
-        <v>214</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>202</v>
-      </c>
-      <c r="D8" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-    </row>
-    <row r="9" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="43" t="s">
-        <v>215</v>
-      </c>
-      <c r="B9" s="44" t="s">
-        <v>216</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>202</v>
-      </c>
-      <c r="D9" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-    </row>
-    <row r="10" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="43" t="s">
-        <v>217</v>
-      </c>
-      <c r="B10" s="44" t="s">
-        <v>216</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>202</v>
-      </c>
-      <c r="D10" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-    </row>
-    <row r="11" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="43" t="s">
-        <v>218</v>
-      </c>
-      <c r="B11" s="44" t="s">
-        <v>216</v>
-      </c>
-      <c r="C11" s="44" t="s">
-        <v>202</v>
-      </c>
-      <c r="D11" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-    </row>
-    <row r="12" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="43" t="s">
-        <v>219</v>
-      </c>
-      <c r="B12" s="44" t="s">
-        <v>216</v>
-      </c>
-      <c r="C12" s="44" t="s">
-        <v>202</v>
-      </c>
-      <c r="D12" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-    </row>
-    <row r="13" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="43" t="s">
+      <c r="C27" s="42" t="s">
         <v>220</v>
       </c>
-      <c r="B13" s="44" t="s">
-        <v>216</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>221</v>
-      </c>
-      <c r="D13" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-    </row>
-    <row r="14" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="43" t="s">
-        <v>222</v>
-      </c>
-      <c r="B14" s="44" t="s">
-        <v>216</v>
-      </c>
-      <c r="C14" s="44" t="s">
-        <v>202</v>
-      </c>
-      <c r="D14" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="E14" s="46" t="s">
-        <v>204</v>
-      </c>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-    </row>
-    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="43" t="s">
-        <v>223</v>
-      </c>
-      <c r="B15" s="44" t="s">
-        <v>224</v>
-      </c>
-      <c r="C15" s="44" t="s">
-        <v>202</v>
-      </c>
-      <c r="D15" s="45" t="s">
-        <v>225</v>
-      </c>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-    </row>
-    <row r="16" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="43" t="s">
-        <v>226</v>
-      </c>
-      <c r="B16" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="C16" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="D16" s="45" t="s">
-        <v>228</v>
-      </c>
-      <c r="E16" s="46" t="s">
-        <v>204</v>
-      </c>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="43" t="s">
-        <v>229</v>
-      </c>
-      <c r="B17" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="C17" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="D17" s="45" t="s">
-        <v>228</v>
-      </c>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-    </row>
-    <row r="18" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="B18" s="44" t="s">
-        <v>208</v>
-      </c>
-      <c r="C18" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="D18" s="45" t="s">
-        <v>228</v>
-      </c>
-      <c r="E18" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-    </row>
-    <row r="19" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="43" t="s">
-        <v>231</v>
-      </c>
-      <c r="B19" s="44" t="s">
-        <v>208</v>
-      </c>
-      <c r="C19" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="D19" s="45" t="s">
-        <v>228</v>
-      </c>
-      <c r="E19" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-    </row>
-    <row r="20" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="43" t="s">
-        <v>232</v>
-      </c>
-      <c r="B20" s="44" t="s">
-        <v>214</v>
-      </c>
-      <c r="C20" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="D20" s="45" t="s">
-        <v>233</v>
-      </c>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-    </row>
-    <row r="21" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="43" t="s">
-        <v>234</v>
-      </c>
-      <c r="B21" s="44" t="s">
-        <v>235</v>
-      </c>
-      <c r="C21" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="D21" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="E21" s="46" t="s">
-        <v>236</v>
-      </c>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-    </row>
-    <row r="22" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="43" t="s">
+      <c r="D27" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+    </row>
+    <row r="28" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="41" t="s">
         <v>237</v>
       </c>
-      <c r="B22" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="C22" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="D22" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-    </row>
-    <row r="23" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="43" t="s">
-        <v>238</v>
-      </c>
-      <c r="B23" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="C23" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="D23" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-    </row>
-    <row r="24" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="43" t="s">
-        <v>239</v>
-      </c>
-      <c r="B24" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="C24" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="D24" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="E24" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-    </row>
-    <row r="25" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="43" t="s">
-        <v>240</v>
-      </c>
-      <c r="B25" s="44" t="s">
-        <v>241</v>
-      </c>
-      <c r="C25" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="D25" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="E25" s="46" t="s">
-        <v>204</v>
-      </c>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-    </row>
-    <row r="26" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="43" t="s">
-        <v>242</v>
-      </c>
-      <c r="B26" s="44" t="s">
-        <v>241</v>
-      </c>
-      <c r="C26" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="D26" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="E26" s="46" t="s">
-        <v>236</v>
-      </c>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-    </row>
-    <row r="27" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="43" t="s">
-        <v>243</v>
-      </c>
-      <c r="B27" s="44" t="s">
-        <v>216</v>
-      </c>
-      <c r="C27" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="D27" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-    </row>
-    <row r="28" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="43" t="s">
-        <v>244</v>
-      </c>
-      <c r="B28" s="44" t="s">
-        <v>216</v>
-      </c>
-      <c r="C28" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="D28" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
+      <c r="B28" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="C28" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3388,152 +3640,394 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF0F9D88-BB12-4839-8BF8-5B47A2565CA3}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="79.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="46.88671875" customWidth="1"/>
+    <col min="3" max="3" width="37.5546875" customWidth="1"/>
+    <col min="4" max="4" width="34.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="119.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB19E7AD-5BFB-4F60-A765-1ECE5117AF5C}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="35.5546875" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1"/>
+    <col min="3" max="3" width="55.88671875" customWidth="1"/>
+    <col min="4" max="4" width="71.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="198" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="19" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="64" t="s">
+        <v>278</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>277</v>
+      </c>
+      <c r="C2" s="64" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="241.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>280</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E18ECF3D-98BD-415A-B71F-E7E3A99FA8CE}">
+  <dimension ref="A8:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="41.77734375" customWidth="1"/>
+    <col min="2" max="2" width="52" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" customWidth="1"/>
+    <col min="5" max="5" width="36.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="68" t="s">
+        <v>296</v>
+      </c>
+      <c r="B8" s="68" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="68" t="s">
+        <v>297</v>
+      </c>
+      <c r="B9" s="68" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="68" t="s">
+        <v>299</v>
+      </c>
+      <c r="B10" s="68" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="68" t="s">
+        <v>287</v>
+      </c>
+      <c r="B11" s="68" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="68" t="s">
+        <v>288</v>
+      </c>
+      <c r="B12" s="68" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="68" t="s">
+        <v>293</v>
+      </c>
+      <c r="B13" s="68" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="68" t="s">
+        <v>295</v>
+      </c>
+      <c r="B14" s="68" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="68" t="s">
+        <v>300</v>
+      </c>
+      <c r="B15" s="68" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="68" t="s">
+        <v>302</v>
+      </c>
+      <c r="B16" s="68" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="68" t="s">
+        <v>304</v>
+      </c>
+      <c r="B17" s="68" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="68" t="s">
+        <v>306</v>
+      </c>
+      <c r="B18" s="68" t="s">
+        <v>307</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E005901C-00BA-406B-88B9-503DB86B1951}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="47.88671875" style="18" customWidth="1"/>
-    <col min="2" max="2" width="75.33203125" style="18" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="18"/>
+    <col min="1" max="1" width="30.5546875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="75.33203125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="57" style="17" customWidth="1"/>
+    <col min="4" max="4" width="79.5546875" style="66" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="31.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="38.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="31.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="62.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="18" t="s">
+    <row r="2" spans="1:4" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="66" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" s="67" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="66" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="66" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B6" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="66" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B7" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="66" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B8" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="18" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="17" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B6" s="18" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B7" s="18" t="s">
+      <c r="B9" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B10" s="17" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B8" s="18" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="18" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B10" s="18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B13" s="18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="18" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B13" s="17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="36" x14ac:dyDescent="0.35">
+      <c r="B17" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="B15" s="18" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="36" x14ac:dyDescent="0.35">
-      <c r="B17" s="19" t="s">
-        <v>131</v>
-      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>193</v>
+      <c r="A18" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="17" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B20" s="17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="B21" s="17" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B20" s="18" t="s">
-        <v>176</v>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B22" s="17" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B24" s="17" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -3546,9 +4040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3583,12 +4075,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3601,41 +4093,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B2F3189-4A8F-41FE-8D4A-CED7524F8633}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" style="22" customWidth="1"/>
-    <col min="2" max="2" width="168.88671875" style="22" customWidth="1"/>
-    <col min="3" max="6" width="8.88671875" style="22"/>
-    <col min="7" max="7" width="65.88671875" style="22" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="22"/>
+    <col min="1" max="1" width="26.33203125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="168.88671875" style="21" customWidth="1"/>
+    <col min="3" max="6" width="8.88671875" style="21"/>
+    <col min="7" max="7" width="65.88671875" style="21" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="215.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>114</v>
+      <c r="B1" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B2" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>130</v>
+      <c r="B2" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B4" s="22" t="s">
-        <v>86</v>
+      <c r="B4" s="21" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3649,121 +4141,121 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="54" customWidth="1"/>
-    <col min="2" max="2" width="104.21875" style="54" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" style="54" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="54"/>
+    <col min="1" max="1" width="20.6640625" style="49" customWidth="1"/>
+    <col min="2" max="2" width="108.6640625" style="49" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" style="49" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="49"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="47" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="47" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="47" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="47" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="52" t="s">
-        <v>64</v>
+      <c r="A5" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="52" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="54" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="52" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="54" t="s">
-        <v>102</v>
-      </c>
-      <c r="B10" s="52" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="54" t="s">
-        <v>104</v>
-      </c>
-      <c r="B11" s="52" t="s">
-        <v>105</v>
+      <c r="A11" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="54" t="s">
-        <v>112</v>
-      </c>
-      <c r="B12" s="52" t="s">
-        <v>113</v>
+      <c r="A12" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="B14" s="54" t="s">
-        <v>254</v>
+      <c r="A14" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="54" t="s">
-        <v>140</v>
-      </c>
-      <c r="B17" s="52" t="s">
+      <c r="A17" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="47" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="52" t="s">
-        <v>188</v>
+      <c r="B21" s="47" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="54" t="s">
-        <v>255</v>
+      <c r="B22" s="49" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -3801,11 +4293,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="388.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>256</v>
+      <c r="A2" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/PVC.xlsx
+++ b/PVC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbikkumx\OneDrive - Intel Corporation\Desktop\intel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72065924-097D-433D-83D8-706DFB72F516}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0EC77A5-4202-4C23-8176-FF324E937D96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="15" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="12" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Agama" sheetId="4" r:id="rId1"/>
@@ -39,6 +39,7 @@
     <sheet name="WA~" sheetId="34" r:id="rId24"/>
     <sheet name="Sheet3" sheetId="37" r:id="rId25"/>
     <sheet name="Sheet5" sheetId="39" r:id="rId26"/>
+    <sheet name="Sheet1" sheetId="40" r:id="rId27"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="372">
   <si>
     <t>export UseDrmVirtualEnginesForCcs=0
 --------------------------------------------
@@ -491,9 +492,6 @@
   </si>
   <si>
     <t>pvc kerenel ubit</t>
-  </si>
-  <si>
-    <t>https://ubit-gfx.intel.com/build/9929684/artifacts</t>
   </si>
   <si>
     <t>TDR -timeout detection and recovery. If TDR is enable in registry manager</t>
@@ -1265,12 +1263,6 @@
     <t>test with( smem_access_ccontrol=0)</t>
   </si>
   <si>
-    <t>importpontevecchio.debug.domains.gfx.gt.gtPmStatus as pms
-[18:37] Goswami, Vijaya
-Load driver --&gt; sudo modprobe  i915 enable_rc6=0 enable_rps=0 enable_guc=3 enable_hangcheck=0 reset=0 smem_access_control=0
-pms.setGtFrequency_unslice(900)</t>
-  </si>
-  <si>
     <t>For stress tetsing you can use
 Resnet training
 Resnet Inference
@@ -1369,12 +1361,219 @@
   <si>
     <t>I tried but it didn’t worked .</t>
   </si>
+  <si>
+    <t>b.go(xt=True,pwrgoodmethod=’usb’, num_host_wr=2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ubit-gfx.intel.com/build/9929684/artifacts          </t>
+  </si>
+  <si>
+    <t>for driver</t>
+  </si>
+  <si>
+    <t>gc.getConfig_mt()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>import pontevecchio.debug.domains.gfx.gt.gtconfig as gc</t>
+  </si>
+  <si>
+    <t>#########how many DSS enabled#######</t>
+  </si>
+  <si>
+    <t>wget --user=vivek --password='myPassword'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://gfx-assets-build.intel.com/artifactory/gfx-debs/ focal-pvc-xta-po main</t>
+  </si>
+  <si>
+    <t>vi  /etc/apt/sources.list.d/intel.list           (apt update branch)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/etc/default/grub </t>
+  </si>
+  <si>
+    <t>Quick update regarding the system issues:
+If any one seeing IEH error. please do git pull and use below boot receipe 
+b.go(xt=True, fusefiles=[r” C:\pythonsv\pontevecchio\toolext\bootscript\fusefiles\PVC\A0XT_2T\Debug\Fuses_FIVR_GANG.cfg”])
+	If any one seeing GUI initialization issue while loading driver, it will be mostly due to the driver switching from XL to XT back and forth. to resolve this please re-flash IFWI
+	If any seeing the Kernel panic after loading the driver, check by loading 1T driver. if you still see the issue check the issue remove smem parameter in the driver load options. if above things didnt resolve please capture the dmesg logs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1024 EU's in 1 tile         8192 in one tile so 1024*4 </t>
+  </si>
+  <si>
+    <t>1Dss=8EU's</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Stepping</t>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
+    <t>No of Tiles (1T/2T)</t>
+  </si>
+  <si>
+    <t>Part Type</t>
+  </si>
+  <si>
+    <t>QDF</t>
+  </si>
+  <si>
+    <t>QZBN</t>
+  </si>
+  <si>
+    <t>Visual ID of the Part (Unit No)</t>
+  </si>
+  <si>
+    <t>Board</t>
+  </si>
+  <si>
+    <t>IFWI Version</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>Ubuntu</t>
+  </si>
+  <si>
+    <t>KMD Version</t>
+  </si>
+  <si>
+    <t>UMD Version</t>
+  </si>
+  <si>
+    <t>Type of Issue</t>
+  </si>
+  <si>
+    <t>Is issue sporadic</t>
+  </si>
+  <si>
+    <t>GT Frequency</t>
+  </si>
+  <si>
+    <t>Boot Scripts Used if any</t>
+  </si>
+  <si>
+    <t>Is issue specific to PM</t>
+  </si>
+  <si>
+    <t>Is this issue part specific</t>
+  </si>
+  <si>
+    <t>i915 Config Details / Driver Knob Details</t>
+  </si>
+  <si>
+    <t>Is GT Status logs attached ?</t>
+  </si>
+  <si>
+    <t>Is dmsg logs attached ?</t>
+  </si>
+  <si>
+    <t>Is scan dump attached?</t>
+  </si>
+  <si>
+    <t>Is test logs attached ?</t>
+  </si>
+  <si>
+    <t>Is SOC logs attached ?</t>
+  </si>
+  <si>
+    <t>Is EU logs attached ?</t>
+  </si>
+  <si>
+    <t>https://wiki.ith.intel.com/pages/viewpage.action?spaceKey=PPA&amp;title=Ponte+Vecchio+PO+IFWI+Releases</t>
+  </si>
+  <si>
+    <t>for ifwi</t>
+  </si>
+  <si>
+    <t>sudo bash l_BaseKit_p_2021.1.0.2659_offline.sh -s -a --silent --eula accept</t>
+  </si>
+  <si>
+    <t>EnableStatelessCompression
+OverridePreferredSlmAllocationSizePerDss   remove this 2 causing functinal issus</t>
+  </si>
+  <si>
+    <t>import pontevecchio.debug.domains.gfx.gt.gtPmStatus as pms
+[18:37] Goswami, Vijaya
+Load driver --&gt; sudo modprobe  i915 enable_rc6=0 enable_rps=0 enable_guc=3 enable_hangcheck=0 reset=0 smem_access_control=0
+pms.setGtFrequency_unslice(900)</t>
+  </si>
+  <si>
+    <t>2T</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Not tried</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>5.10.5+pvc-xta-po38</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sudo modprobe  i915 enable_rc6=0 enable_rps=0 enable_guc=3 enable_hangcheck=0 reset=0 </t>
+  </si>
+  <si>
+    <t>D1U72V1800025</t>
+  </si>
+  <si>
+    <t>PVC-XT(full quad,MC1)</t>
+  </si>
+  <si>
+    <t>b.go(xt=True) after loading the driver using pms.setGtFrequency_unslice(900)</t>
+  </si>
+  <si>
+    <t>Wilson City / Archer City (FM06WVAW0210.amr.corp.intel.com (XT))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">019533+embargo10369845+releaseinternal1     amd64  </t>
+  </si>
+  <si>
+    <t>https://hsdes.intel.com/appstore/article/#/16013360360(this for test_basic)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21WW16.4 P IFWI25MHz Quad Mode</t>
+  </si>
+  <si>
+    <t>Fused/unfused</t>
+  </si>
+  <si>
+    <t>Hang</t>
+  </si>
+  <si>
+    <t>200Hz(hang) 900Hz (core dumped)</t>
+  </si>
+  <si>
+    <t>https://hsdes.intel.com/appstore/article/#/16013360480 (for test_integer_ops)</t>
+  </si>
+  <si>
+    <t>https://hsdes.intel.com/appstore/article/#/16013360452 (for test_atomics)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1445,6 +1644,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="21">
@@ -1632,7 +1837,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1722,7 +1927,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1735,12 +1939,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1757,11 +1955,23 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2059,7 +2269,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -2106,7 +2316,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.2" x14ac:dyDescent="0.6"/>
@@ -2119,7 +2329,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="62.4" x14ac:dyDescent="0.6">
       <c r="A1" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>63</v>
@@ -2132,29 +2342,29 @@
     </row>
     <row r="3" spans="1:3" ht="62.4" x14ac:dyDescent="0.6">
       <c r="A3" s="33" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B3" s="25" t="s">
         <v>64</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="145.19999999999999" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="33" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B4" s="25" t="s">
         <v>65</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A5" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B5" s="25" t="s">
         <v>78</v>
@@ -2162,18 +2372,18 @@
     </row>
     <row r="7" spans="1:3" ht="93.6" x14ac:dyDescent="0.6">
       <c r="A7" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B7" s="25" t="s">
         <v>73</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A8" s="32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.6">
@@ -2186,7 +2396,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A11" s="32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B11" s="25" t="s">
         <v>75</v>
@@ -2194,7 +2404,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A12" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B12" s="25" t="s">
         <v>76</v>
@@ -2202,7 +2412,7 @@
     </row>
     <row r="14" spans="1:3" ht="62.4" x14ac:dyDescent="0.6">
       <c r="A14" s="33" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B14" s="25" t="s">
         <v>77</v>
@@ -2210,7 +2420,7 @@
     </row>
     <row r="16" spans="1:3" ht="374.4" x14ac:dyDescent="0.6">
       <c r="A16" s="33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B16" s="27" t="s">
         <v>81</v>
@@ -2218,10 +2428,10 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A19" s="32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.6">
@@ -2286,43 +2496,43 @@
     <col min="4" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="62" customFormat="1" ht="134.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
-        <v>265</v>
-      </c>
-      <c r="B1" s="62" t="s">
-        <v>171</v>
-      </c>
-      <c r="C1" s="63" t="s">
-        <v>174</v>
+    <row r="1" spans="1:3" s="59" customFormat="1" ht="134.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="58" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="36" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="36" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="39" customFormat="1" ht="374.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="60" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="59" customFormat="1" ht="287.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="58" t="s">
+      <c r="A6" s="57" t="s">
         <v>262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="56" customFormat="1" ht="287.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="55" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -2333,10 +2543,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D212F357-C1CD-4714-BBF8-6624F24586B5}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2349,66 +2559,99 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D2" s="65">
+        <v>166</v>
+      </c>
+      <c r="D2" s="62">
         <v>44330</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C12" s="19" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C14" s="20" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C15" s="20" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C16" s="20" t="s">
+        <v>370</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" xr:uid="{613A9D32-FA7D-4FAC-8B09-5AEE02FF0F50}"/>
     <hyperlink ref="A7" r:id="rId2" xr:uid="{98AA45D6-A2C3-4313-B877-A75E1D232AB0}"/>
+    <hyperlink ref="C14" r:id="rId3" location="/16013360360(this for test_basic)" xr:uid="{BE3E71C3-62F1-4DBB-9C65-6F2323D2D303}"/>
+    <hyperlink ref="C15" r:id="rId4" location="/16013360452 (for test_atomics)" xr:uid="{EB4AAD67-1388-4FEE-BE1D-50CC41D48C81}"/>
+    <hyperlink ref="C16" r:id="rId5" location="/16013360480 (for test_integer_ops)" xr:uid="{22B83826-05F8-41E2-A407-F99FF54744DB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -2416,8 +2659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F66318DF-E8FA-47E2-8867-757595ABE751}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2429,7 +2672,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>98</v>
@@ -2460,7 +2703,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>67</v>
@@ -2468,23 +2711,23 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>143</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>54</v>
@@ -2492,10 +2735,10 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -2747,38 +2990,38 @@
   <sheetData>
     <row r="1" spans="1:2" ht="36" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2826,10 +3069,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCEC9E7E-6729-4865-99F0-0C4C696B6B6D}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="B7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -2840,95 +3083,123 @@
     <col min="4" max="16384" width="8.88671875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="23" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="B2" s="23" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="23" t="s">
+      <c r="B3" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="B4" s="23" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="23" t="s">
+      <c r="B5" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="41.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="41.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="23" t="s">
-        <v>165</v>
-      </c>
       <c r="B8" s="31" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B9" s="23" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B10" s="23" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B11" s="23" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="23" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="36" x14ac:dyDescent="0.35">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="207.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="31" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+        <v>259</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B14" s="23" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B15" s="23" t="s">
-        <v>286</v>
+        <v>284</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B16" s="23" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B17" s="23" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B18" s="23" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B19" s="23" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B20" s="23" t="s">
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -2954,55 +3225,55 @@
   <sheetData>
     <row r="1" spans="1:2" ht="73.8" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="45" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="60.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="37" t="s">
         <v>127</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="87" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B3" s="38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.5"/>
     <row r="5" spans="1:2" ht="408.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="51" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" s="52" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="53" t="s">
-        <v>173</v>
-      </c>
     </row>
     <row r="6" spans="1:2" ht="208.2" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="53"/>
     </row>
     <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.5"/>
     <row r="8" spans="1:2" ht="409.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B8" s="38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="409.6" x14ac:dyDescent="0.5">
-      <c r="A17" s="50" t="s">
-        <v>252</v>
-      </c>
-      <c r="B17" s="51" t="s">
+      <c r="A17" s="49" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" s="55" customFormat="1" ht="191.4" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="55">
+      <c r="B17" s="50" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="54" customFormat="1" ht="191.4" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="54">
         <v>900</v>
       </c>
-      <c r="B18" s="55" t="s">
-        <v>254</v>
+      <c r="B18" s="54" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -3026,13 +3297,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="340.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>244</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -3056,10 +3327,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -3084,15 +3355,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3117,73 +3388,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56"/>
-      <c r="B1" s="56" t="s">
+      <c r="A1" s="70"/>
+      <c r="B1" s="70" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1" s="70" t="s">
         <v>187</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="D1" s="70" t="s">
         <v>188</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="E1" s="70" t="s">
         <v>189</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="F1" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="G1" s="70" t="s">
         <v>191</v>
       </c>
-      <c r="G1" s="56" t="s">
-        <v>192</v>
-      </c>
       <c r="H1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="C3" s="42" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="D3" s="43" t="s">
         <v>195</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="E3" s="44" t="s">
         <v>196</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="F3" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="G3" s="42" t="s">
         <v>197</v>
-      </c>
-      <c r="F3" s="44" t="s">
-        <v>197</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="41" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B4" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" s="42" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="D4" s="43" t="s">
         <v>195</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>196</v>
       </c>
       <c r="E4" s="42"/>
       <c r="F4" s="42"/>
@@ -3191,60 +3462,60 @@
     </row>
     <row r="5" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" s="42" t="s">
         <v>200</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="C5" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="G5" s="42" t="s">
         <v>201</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>195</v>
-      </c>
-      <c r="D5" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="E5" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="F5" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="G5" s="42" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="41" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C6" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" s="43" t="s">
         <v>195</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="E6" s="44" t="s">
         <v>196</v>
-      </c>
-      <c r="E6" s="44" t="s">
-        <v>197</v>
       </c>
       <c r="F6" s="42"/>
       <c r="G6" s="42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="B7" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="B7" s="42" t="s">
-        <v>205</v>
-      </c>
       <c r="C7" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="D7" s="43" t="s">
         <v>195</v>
-      </c>
-      <c r="D7" s="43" t="s">
-        <v>196</v>
       </c>
       <c r="E7" s="42"/>
       <c r="F7" s="42"/>
@@ -3252,16 +3523,16 @@
     </row>
     <row r="8" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="B8" s="42" t="s">
-        <v>207</v>
-      </c>
       <c r="C8" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="D8" s="43" t="s">
         <v>195</v>
-      </c>
-      <c r="D8" s="43" t="s">
-        <v>196</v>
       </c>
       <c r="E8" s="42"/>
       <c r="F8" s="42"/>
@@ -3269,16 +3540,16 @@
     </row>
     <row r="9" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="B9" s="42" t="s">
         <v>208</v>
       </c>
-      <c r="B9" s="42" t="s">
-        <v>209</v>
-      </c>
       <c r="C9" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="D9" s="43" t="s">
         <v>195</v>
-      </c>
-      <c r="D9" s="43" t="s">
-        <v>196</v>
       </c>
       <c r="E9" s="42"/>
       <c r="F9" s="42"/>
@@ -3286,16 +3557,16 @@
     </row>
     <row r="10" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="41" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C10" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="D10" s="43" t="s">
         <v>195</v>
-      </c>
-      <c r="D10" s="43" t="s">
-        <v>196</v>
       </c>
       <c r="E10" s="42"/>
       <c r="F10" s="42"/>
@@ -3303,16 +3574,16 @@
     </row>
     <row r="11" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="41" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C11" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="D11" s="43" t="s">
         <v>195</v>
-      </c>
-      <c r="D11" s="43" t="s">
-        <v>196</v>
       </c>
       <c r="E11" s="42"/>
       <c r="F11" s="42"/>
@@ -3320,16 +3591,16 @@
     </row>
     <row r="12" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="41" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C12" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="D12" s="43" t="s">
         <v>195</v>
-      </c>
-      <c r="D12" s="43" t="s">
-        <v>196</v>
       </c>
       <c r="E12" s="42"/>
       <c r="F12" s="42"/>
@@ -3337,16 +3608,16 @@
     </row>
     <row r="13" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="C13" s="42" t="s">
         <v>213</v>
       </c>
-      <c r="B13" s="42" t="s">
-        <v>209</v>
-      </c>
-      <c r="C13" s="42" t="s">
-        <v>214</v>
-      </c>
       <c r="D13" s="43" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
@@ -3354,35 +3625,35 @@
     </row>
     <row r="14" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="41" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C14" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="D14" s="43" t="s">
         <v>195</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="E14" s="44" t="s">
         <v>196</v>
-      </c>
-      <c r="E14" s="44" t="s">
-        <v>197</v>
       </c>
       <c r="F14" s="42"/>
       <c r="G14" s="42"/>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="B15" s="42" t="s">
         <v>216</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="C15" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="D15" s="43" t="s">
         <v>217</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>195</v>
-      </c>
-      <c r="D15" s="43" t="s">
-        <v>218</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="42"/>
@@ -3390,37 +3661,37 @@
     </row>
     <row r="16" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="C16" s="42" t="s">
         <v>219</v>
       </c>
-      <c r="B16" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="C16" s="42" t="s">
+      <c r="D16" s="43" t="s">
         <v>220</v>
       </c>
-      <c r="D16" s="43" t="s">
-        <v>221</v>
-      </c>
       <c r="E16" s="44" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F16" s="42"/>
       <c r="G16" s="42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="41" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C17" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="D17" s="43" t="s">
         <v>220</v>
-      </c>
-      <c r="D17" s="43" t="s">
-        <v>221</v>
       </c>
       <c r="E17" s="42"/>
       <c r="F17" s="42"/>
@@ -3428,54 +3699,54 @@
     </row>
     <row r="18" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C18" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="D18" s="43" t="s">
         <v>220</v>
       </c>
-      <c r="D18" s="43" t="s">
-        <v>221</v>
-      </c>
       <c r="E18" s="43" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F18" s="42"/>
       <c r="G18" s="42"/>
     </row>
     <row r="19" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="41" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C19" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="D19" s="43" t="s">
         <v>220</v>
       </c>
-      <c r="D19" s="43" t="s">
-        <v>221</v>
-      </c>
       <c r="E19" s="43" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F19" s="42"/>
       <c r="G19" s="42"/>
     </row>
     <row r="20" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="D20" s="43" t="s">
         <v>225</v>
-      </c>
-      <c r="B20" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="C20" s="42" t="s">
-        <v>220</v>
-      </c>
-      <c r="D20" s="43" t="s">
-        <v>226</v>
       </c>
       <c r="E20" s="42"/>
       <c r="F20" s="42"/>
@@ -3483,35 +3754,35 @@
     </row>
     <row r="21" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="B21" s="42" t="s">
         <v>227</v>
       </c>
-      <c r="B21" s="42" t="s">
+      <c r="C21" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="E21" s="44" t="s">
         <v>228</v>
-      </c>
-      <c r="C21" s="42" t="s">
-        <v>220</v>
-      </c>
-      <c r="D21" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="E21" s="44" t="s">
-        <v>229</v>
       </c>
       <c r="F21" s="42"/>
       <c r="G21" s="42"/>
     </row>
     <row r="22" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="41" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E22" s="42"/>
       <c r="F22" s="42"/>
@@ -3519,16 +3790,16 @@
     </row>
     <row r="23" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D23" s="43" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E23" s="42"/>
       <c r="F23" s="42"/>
@@ -3536,73 +3807,73 @@
     </row>
     <row r="24" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D24" s="43" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E24" s="43" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F24" s="42"/>
       <c r="G24" s="42"/>
     </row>
     <row r="25" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="B25" s="42" t="s">
         <v>233</v>
       </c>
-      <c r="B25" s="42" t="s">
-        <v>234</v>
-      </c>
       <c r="C25" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D25" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="E25" s="44" t="s">
         <v>196</v>
-      </c>
-      <c r="E25" s="44" t="s">
-        <v>197</v>
       </c>
       <c r="F25" s="42"/>
       <c r="G25" s="42"/>
     </row>
     <row r="26" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="41" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D26" s="43" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E26" s="44" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F26" s="42"/>
       <c r="G26" s="42"/>
     </row>
     <row r="27" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="41" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D27" s="43" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E27" s="42"/>
       <c r="F27" s="42"/>
@@ -3610,16 +3881,16 @@
     </row>
     <row r="28" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C28" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E28" s="42"/>
       <c r="F28" s="42"/>
@@ -3656,12 +3927,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="119.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -3688,32 +3959,32 @@
   <sheetData>
     <row r="1" spans="1:4" ht="198" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D1" s="19" t="s">
-        <v>279</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="64" t="s">
-        <v>278</v>
-      </c>
-      <c r="B2" s="64" t="s">
+      <c r="A2" s="61" t="s">
         <v>277</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="B2" s="61" t="s">
         <v>276</v>
+      </c>
+      <c r="C2" s="61" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="241.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B3" t="s">
         <v>272</v>
       </c>
-      <c r="B3" t="s">
-        <v>273</v>
-      </c>
       <c r="C3" s="19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -3739,91 +4010,303 @@
   </cols>
   <sheetData>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="63" t="s">
+        <v>294</v>
+      </c>
+      <c r="B8" s="63" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="63" t="s">
+        <v>295</v>
+      </c>
+      <c r="B9" s="63" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="63" t="s">
+        <v>297</v>
+      </c>
+      <c r="B10" s="63" t="s">
         <v>296</v>
       </c>
-      <c r="B8" s="68" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="68" t="s">
-        <v>297</v>
-      </c>
-      <c r="B9" s="68" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="68" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="63" t="s">
+        <v>285</v>
+      </c>
+      <c r="B11" s="63" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="63" t="s">
+        <v>286</v>
+      </c>
+      <c r="B12" s="63" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="63" t="s">
+        <v>291</v>
+      </c>
+      <c r="B13" s="63" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="63" t="s">
+        <v>293</v>
+      </c>
+      <c r="B14" s="63" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="63" t="s">
+        <v>298</v>
+      </c>
+      <c r="B15" s="63" t="s">
         <v>299</v>
       </c>
-      <c r="B10" s="68" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="68" t="s">
-        <v>287</v>
-      </c>
-      <c r="B11" s="68" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="68" t="s">
-        <v>288</v>
-      </c>
-      <c r="B12" s="68" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="68" t="s">
-        <v>293</v>
-      </c>
-      <c r="B13" s="68" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="68" t="s">
-        <v>295</v>
-      </c>
-      <c r="B14" s="68" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="68" t="s">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="63" t="s">
         <v>300</v>
       </c>
-      <c r="B15" s="68" t="s">
+      <c r="B16" s="63" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="68" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="63" t="s">
         <v>302</v>
       </c>
-      <c r="B16" s="68" t="s">
+      <c r="B17" s="63" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="68" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="63" t="s">
         <v>304</v>
       </c>
-      <c r="B17" s="68" t="s">
+      <c r="B18" s="63" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="68" t="s">
-        <v>306</v>
-      </c>
-      <c r="B18" s="68" t="s">
-        <v>307</v>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{731B7D48-077E-45C4-BE90-047D20D147F9}">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="48" customWidth="1"/>
+    <col min="2" max="2" width="100.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="66" t="s">
+        <v>320</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="66" t="s">
+        <v>321</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="66" t="s">
+        <v>323</v>
+      </c>
+      <c r="B3" s="66" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="66" t="s">
+        <v>324</v>
+      </c>
+      <c r="B4" s="66" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="66" t="s">
+        <v>325</v>
+      </c>
+      <c r="B5" s="66" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="66" t="s">
+        <v>327</v>
+      </c>
+      <c r="B6" s="66" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="66" t="s">
+        <v>328</v>
+      </c>
+      <c r="B7" s="66" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="66" t="s">
+        <v>329</v>
+      </c>
+      <c r="B8" s="66" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="66" t="s">
+        <v>330</v>
+      </c>
+      <c r="B9" s="66" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="66" t="s">
+        <v>332</v>
+      </c>
+      <c r="B10" s="66" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="66" t="s">
+        <v>333</v>
+      </c>
+      <c r="B11" s="66" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="66" t="s">
+        <v>334</v>
+      </c>
+      <c r="B12" s="66" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="66" t="s">
+        <v>335</v>
+      </c>
+      <c r="B13" s="66" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="66" t="s">
+        <v>336</v>
+      </c>
+      <c r="B14" s="66" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="66" t="s">
+        <v>337</v>
+      </c>
+      <c r="B15" s="66" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="66" t="s">
+        <v>338</v>
+      </c>
+      <c r="B16" s="66" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="66" t="s">
+        <v>339</v>
+      </c>
+      <c r="B17" s="66" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="66" t="s">
+        <v>340</v>
+      </c>
+      <c r="B18" s="66" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="66" t="s">
+        <v>341</v>
+      </c>
+      <c r="B19" s="66" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="66" t="s">
+        <v>342</v>
+      </c>
+      <c r="B20" s="66" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="66" t="s">
+        <v>343</v>
+      </c>
+      <c r="B21" s="66" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="66" t="s">
+        <v>344</v>
+      </c>
+      <c r="B22" s="66" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="B23" s="66" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="66" t="s">
+        <v>346</v>
+      </c>
+      <c r="B24" s="66" t="s">
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -3834,10 +4317,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E005901C-00BA-406B-88B9-503DB86B1951}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -3845,7 +4328,7 @@
     <col min="1" max="1" width="30.5546875" style="17" customWidth="1"/>
     <col min="2" max="2" width="75.33203125" style="17" customWidth="1"/>
     <col min="3" max="3" width="57" style="17" customWidth="1"/>
-    <col min="4" max="4" width="79.5546875" style="66" customWidth="1"/>
+    <col min="4" max="4" width="79.5546875" style="64" customWidth="1"/>
     <col min="5" max="16384" width="8.88671875" style="17"/>
   </cols>
   <sheetData>
@@ -3859,11 +4342,11 @@
     </row>
     <row r="2" spans="1:4" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C2" s="18"/>
-      <c r="D2" s="66" t="s">
-        <v>179</v>
+      <c r="D2" s="64" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -3874,10 +4357,10 @@
         <v>71</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="D3" s="67" t="s">
-        <v>290</v>
+        <v>170</v>
+      </c>
+      <c r="D3" s="65" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -3887,8 +4370,8 @@
       <c r="B4" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="66" t="s">
-        <v>291</v>
+      <c r="D4" s="64" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
@@ -3898,23 +4381,23 @@
       <c r="B5" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="66" t="s">
-        <v>292</v>
+      <c r="D5" s="64" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B6" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="66" t="s">
-        <v>238</v>
+      <c r="D6" s="64" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B7" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="D7" s="66" t="s">
+      <c r="D7" s="64" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3931,9 +4414,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="17" t="s">
         <v>93</v>
+      </c>
+      <c r="D10" s="65" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -3943,6 +4429,9 @@
       <c r="B11" s="17" t="s">
         <v>96</v>
       </c>
+      <c r="D11" s="64" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="17" t="s">
@@ -3951,83 +4440,94 @@
       <c r="B12" s="17" t="s">
         <v>101</v>
       </c>
+      <c r="D12" s="64" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B13" s="17" t="s">
         <v>103</v>
       </c>
+      <c r="D13" s="64" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="36" x14ac:dyDescent="0.35">
       <c r="B17" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B19" s="17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B20" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B22" s="17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="17" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B24" s="17" t="s">
-        <v>283</v>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B25" s="17" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -4080,7 +4580,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -4114,7 +4614,7 @@
         <v>66</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -4122,7 +4622,7 @@
         <v>69</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -4138,124 +4638,135 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE4B785-07B1-4650-B638-D0AF9F289A63}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="49" customWidth="1"/>
-    <col min="2" max="2" width="108.6640625" style="49" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" style="49" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="49"/>
+    <col min="1" max="1" width="20.6640625" style="48" customWidth="1"/>
+    <col min="2" max="2" width="108.6640625" style="68" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" style="69" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="67" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="48" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="67" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="48" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="67" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="48" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="48" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="67" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="49" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="67" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="49" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="67" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="49" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="67" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="49" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="67" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="49" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="B12" s="47" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="49" t="s">
-        <v>117</v>
-      </c>
-      <c r="B14" s="49" t="s">
+      <c r="B12" s="67" t="s">
+        <v>307</v>
+      </c>
+      <c r="C12" s="69" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="68" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="67" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="68" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="B17" s="47" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="47" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="49" t="s">
-        <v>248</v>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="67" t="s">
+        <v>347</v>
+      </c>
+      <c r="C23" s="69" t="s">
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -4272,9 +4783,10 @@
     <hyperlink ref="B12" r:id="rId10" xr:uid="{19D726A9-C634-4E58-89A1-7B04270C9E2F}"/>
     <hyperlink ref="B17" r:id="rId11" location="/testplanning/plan/TP-114229" xr:uid="{38CF6A34-D8ED-43B9-9458-AE8EC1A97A1E}"/>
     <hyperlink ref="B21" r:id="rId12" xr:uid="{63512D8F-0010-4E46-A253-ADA5C8ADD7B3}"/>
+    <hyperlink ref="B23" r:id="rId13" xr:uid="{6BCECB19-C9DA-4DE2-8CE4-DDDF05A9C91F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 
@@ -4297,7 +4809,7 @@
         <v>104</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/PVC.xlsx
+++ b/PVC.xlsx
@@ -8,29 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbikkumx\OneDrive - Intel Corporation\Desktop\intel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0EC77A5-4202-4C23-8176-FF324E937D96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5975CF-8F42-4ADD-9596-494146A9511A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="12" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Agama" sheetId="4" r:id="rId1"/>
-    <sheet name="boot scripts" sheetId="21" r:id="rId2"/>
-    <sheet name="commands" sheetId="15" r:id="rId3"/>
-    <sheet name="COMPUTE_DEBUG" sheetId="1" r:id="rId4"/>
-    <sheet name="exports" sheetId="17" r:id="rId5"/>
-    <sheet name="info" sheetId="13" r:id="rId6"/>
-    <sheet name="links" sheetId="8" r:id="rId7"/>
-    <sheet name="mails" sheetId="11" r:id="rId8"/>
-    <sheet name="media+Pm" sheetId="6" r:id="rId9"/>
-    <sheet name="QUERIES" sheetId="2" r:id="rId10"/>
-    <sheet name="python sv" sheetId="16" r:id="rId11"/>
-    <sheet name="PVC_MEDIA" sheetId="3" r:id="rId12"/>
-    <sheet name="pvc-XT" sheetId="30" r:id="rId13"/>
-    <sheet name="remember" sheetId="31" r:id="rId14"/>
-    <sheet name="sources" sheetId="5" r:id="rId15"/>
-    <sheet name="targets" sheetId="7" r:id="rId16"/>
-    <sheet name="trainings" sheetId="19" r:id="rId17"/>
-    <sheet name="terms" sheetId="12" r:id="rId18"/>
+    <sheet name="bash_scripts" sheetId="44" r:id="rId2"/>
+    <sheet name="boot scripts" sheetId="21" r:id="rId3"/>
+    <sheet name="commands" sheetId="15" r:id="rId4"/>
+    <sheet name="COMPUTE_DEBUG" sheetId="1" r:id="rId5"/>
+    <sheet name="exports" sheetId="17" r:id="rId6"/>
+    <sheet name="info" sheetId="13" r:id="rId7"/>
+    <sheet name="links" sheetId="8" r:id="rId8"/>
+    <sheet name="linux" sheetId="43" r:id="rId9"/>
+    <sheet name="mails" sheetId="11" r:id="rId10"/>
+    <sheet name="media+Pm" sheetId="6" r:id="rId11"/>
+    <sheet name="QUERIES" sheetId="2" r:id="rId12"/>
+    <sheet name="python sv" sheetId="16" r:id="rId13"/>
+    <sheet name="PVC_MEDIA" sheetId="3" r:id="rId14"/>
+    <sheet name="pvc-XT" sheetId="30" r:id="rId15"/>
+    <sheet name="remember" sheetId="31" r:id="rId16"/>
+    <sheet name="sources" sheetId="5" r:id="rId17"/>
+    <sheet name="trainings" sheetId="19" r:id="rId18"/>
     <sheet name="trouble" sheetId="20" r:id="rId19"/>
     <sheet name="proxy" sheetId="33" r:id="rId20"/>
     <sheet name="my info" sheetId="24" r:id="rId21"/>
@@ -38,8 +38,9 @@
     <sheet name="p1_marquee" sheetId="32" r:id="rId23"/>
     <sheet name="WA~" sheetId="34" r:id="rId24"/>
     <sheet name="Sheet3" sheetId="37" r:id="rId25"/>
-    <sheet name="Sheet5" sheetId="39" r:id="rId26"/>
-    <sheet name="Sheet1" sheetId="40" r:id="rId27"/>
+    <sheet name="Sheet2" sheetId="41" r:id="rId26"/>
+    <sheet name="HSD_details" sheetId="40" r:id="rId27"/>
+    <sheet name="PVC-XT-158" sheetId="42" r:id="rId28"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="435">
   <si>
     <t>export UseDrmVirtualEnginesForCcs=0
 --------------------------------------------
@@ -137,33 +138,6 @@
 sudo modprobe i915 enable_rc6=1</t>
   </si>
   <si>
-    <t xml:space="preserve">Basvhost80 -10.99.113.148 (target IP)
-Basvhost45-  10.99.113.22 (target IP)
-----------------------------------------------latest below---------------------------
-Basvhost80- 10.99.113.154
-Basvhost45-10.99.113.34 
-----------------------------------------------
-archer city ATS+1T
-10.145.168.168 (host)
-10.145.168.180(target)
-wilso city +ATS @T
-10.145.168.152 (host)
-10.145.168.58(target) 
-------------------------------
-ram said targets changed 
-45 --10.99.113.22
-80 --10.99.113.143
-45- 10.99.113.40 (baghavan said)
-recently by ram  80 :(10.99.113.169)
-=====================================================
-10.145.168.178(host)
-10.145.168.50(1T target)
--------------------------------------------------
-10.145.168.152(wilson city 2T host)
-10.145.168.53(target 2T)
-</t>
-  </si>
-  <si>
     <t>https://ubit-gfx.intel.com/history/25408</t>
   </si>
   <si>
@@ -182,78 +156,6 @@
     <t>http://10.145.162.23:8080/#/clients</t>
   </si>
   <si>
-    <t>Basvhost80 -10.99.113.148 (target IP)</t>
-  </si>
-  <si>
-    <t>Basvhost45-  10.99.113.22 (target IP)</t>
-  </si>
-  <si>
-    <t>----------------------------------------------latest below---------------------------</t>
-  </si>
-  <si>
-    <t>Basvhost80- 10.99.113.154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basvhost45-10.99.113.34 </t>
-  </si>
-  <si>
-    <t>----------------------------------------------</t>
-  </si>
-  <si>
-    <t>archer city ATS+1T</t>
-  </si>
-  <si>
-    <t>10.145.168.168 (host)</t>
-  </si>
-  <si>
-    <t>10.145.168.180(target)</t>
-  </si>
-  <si>
-    <t>wilso city +ATS @T</t>
-  </si>
-  <si>
-    <t>10.145.168.152 (host)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.145.168.58(target) </t>
-  </si>
-  <si>
-    <t>------------------------------</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ram said targets changed </t>
-  </si>
-  <si>
-    <t>45 --10.99.113.22</t>
-  </si>
-  <si>
-    <t>80 --10.99.113.143</t>
-  </si>
-  <si>
-    <t>45- 10.99.113.40 (baghavan said)</t>
-  </si>
-  <si>
-    <t>recently by ram  80 :(10.99.113.169)</t>
-  </si>
-  <si>
-    <t>=====================================================</t>
-  </si>
-  <si>
-    <t>10.145.168.178(host)</t>
-  </si>
-  <si>
-    <t>10.145.168.50(1T target)</t>
-  </si>
-  <si>
-    <t>-------------------------------------------------</t>
-  </si>
-  <si>
-    <t>10.145.168.152(wilson city 2T host)</t>
-  </si>
-  <si>
-    <t>10.145.168.53(target 2T)</t>
-  </si>
-  <si>
     <t>RC6 enabled ? : sudo vim /etc/modprobe.d/i915.conf</t>
   </si>
   <si>
@@ -306,12 +208,6 @@
   </si>
   <si>
     <t>https://gitlab.devtools.intel.com/postsicoredevbangalore/binocle-3.3</t>
-  </si>
-  <si>
-    <t>FM06WVAW0209.amr.corp.intel.com</t>
-  </si>
-  <si>
-    <t>moba-x-term</t>
   </si>
   <si>
     <t>65 passed in compute OSBV</t>
@@ -363,9 +259,6 @@
   </si>
   <si>
     <t>command to check which IFWI is there</t>
-  </si>
-  <si>
-    <t>command for executing binnocle runs</t>
   </si>
   <si>
     <t>./binocleRun.sh 2T_1D config24.txt</t>
@@ -554,9 +447,6 @@
   </si>
   <si>
     <t>lspci -v | grep Display</t>
-  </si>
-  <si>
-    <t>to check  pvc card detection</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1132,12 +1022,6 @@
   <si>
     <t>options drm debug=0xe
 - options i915 enable_guc=3 enable_rc6=0 max_tiles=2 smem_access_control=5 enable_guc_hangcheck=0 reset=0 enable_hangcheck=0</t>
-  </si>
-  <si>
-    <t>for i in /sys/class/drm/card*/engine/*/heartbeat_interval_ms; do echo 0 &gt; $i; done;
-for i in /sys/class/drm/card*/engine/*/preempt_timeout_ms; do echo 0 &gt; $i; done;
-for i in /sys/class/drm/card*/engine/*/max_busywait_duration_ns; do echo 0 &gt; $i; done;
-for i in /sys/class/drm/card*/engine/*/stop_timeout_ms; do echo 0 &gt; $i; done;</t>
   </si>
   <si>
     <t>df -h</t>
@@ -1216,9 +1100,6 @@
 tile1.gfx.gtgp.row_chicken.fpu_residue_disable =0x1</t>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
     <t xml:space="preserve"> import pontevecchio.debug.domains.gfx.gt.gtPmStatus as pms
 pms.dumpGtFrequency(None)</t>
   </si>
@@ -1234,9 +1115,6 @@
     <t xml:space="preserve">
 import pontevecchio.debug.domains.gfx.gt
 import pontevecchio.fv.ras.error_logging_modules.soc_error_log as soc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 </t>
   </si>
   <si>
     <t>test_relationals</t>
@@ -1298,12 +1176,6 @@
     <t>itp.forcereconfig() ,sv.refresh() if bootscore is less</t>
   </si>
   <si>
-    <t>config -1</t>
-  </si>
-  <si>
-    <t>config-33</t>
-  </si>
-  <si>
     <t>pms.setGtFrequency_unslice(900)</t>
   </si>
   <si>
@@ -1315,51 +1187,6 @@
   </si>
   <si>
     <t>soc.soc_error_log()</t>
-  </si>
-  <si>
-    <t>config-34</t>
-  </si>
-  <si>
-    <t>kernel panic(collected GT_status and soc,test logs)</t>
-  </si>
-  <si>
-    <t>config -98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">config-10 </t>
-  </si>
-  <si>
-    <t>config-full memory test</t>
-  </si>
-  <si>
-    <t>PASS (got BKM from kedar ,collected the logs)</t>
-  </si>
-  <si>
-    <t>mandelbrot (HCP_BENCH_OCL,dcg,dpd)</t>
-  </si>
-  <si>
-    <t>Resnet i8 ,resnet train</t>
-  </si>
-  <si>
-    <t>out of memory ,killed .</t>
-  </si>
-  <si>
-    <t>SGEMM qmc pack</t>
-  </si>
-  <si>
-    <t>this is having some issue .</t>
-  </si>
-  <si>
-    <t>BGEMM ,iGEMM</t>
-  </si>
-  <si>
-    <t>failing collected the GT ,SOC status(IFWI problem)</t>
-  </si>
-  <si>
-    <t>lamps</t>
-  </si>
-  <si>
-    <t>I tried but it didn’t worked .</t>
   </si>
   <si>
     <t>b.go(xt=True,pwrgoodmethod=’usb’, num_host_wr=2)</t>
@@ -1503,77 +1330,489 @@
 OverridePreferredSlmAllocationSizePerDss   remove this 2 causing functinal issus</t>
   </si>
   <si>
+    <t>2T</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Not tried</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>5.10.5+pvc-xta-po38</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sudo modprobe  i915 enable_rc6=0 enable_rps=0 enable_guc=3 enable_hangcheck=0 reset=0 </t>
+  </si>
+  <si>
+    <t>D1U72V1800025</t>
+  </si>
+  <si>
+    <t>PVC-XT(full quad,MC1)</t>
+  </si>
+  <si>
+    <t>b.go(xt=True) after loading the driver using pms.setGtFrequency_unslice(900)</t>
+  </si>
+  <si>
+    <t>Wilson City / Archer City (FM06WVAW0210.amr.corp.intel.com (XT))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">019533+embargo10369845+releaseinternal1     amd64  </t>
+  </si>
+  <si>
+    <t>https://hsdes.intel.com/appstore/article/#/16013360360(this for test_basic)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21WW16.4 P IFWI25MHz Quad Mode</t>
+  </si>
+  <si>
+    <t>Fused/unfused</t>
+  </si>
+  <si>
+    <t>Hang</t>
+  </si>
+  <si>
+    <t>200Hz(hang) 900Hz (core dumped)</t>
+  </si>
+  <si>
+    <t>https://hsdes.intel.com/appstore/article/#/16013360480 (for test_integer_ops)</t>
+  </si>
+  <si>
+    <t>https://hsdes.intel.com/appstore/article/#/16013360452 (for test_atomics)</t>
+  </si>
+  <si>
+    <t>this keys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OverridePreferredSlmAllocationSizePerDss=0 </t>
+  </si>
+  <si>
+    <t>oxbd0 -XL  ,,oxbd5 -XT</t>
+  </si>
+  <si>
+    <t>https://wiki.ith.intel.com/pages/viewpage.action?pageId=1835585363</t>
+  </si>
+  <si>
+    <t>for target help</t>
+  </si>
+  <si>
+    <t>tap_3.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\gar.corp.intel.com\ec\proj\deg\GFXSV\OSBV\Linux\Compute                        </t>
+  </si>
+  <si>
+    <t>CFESingleSliceDispatchCCSMode=0</t>
+  </si>
+  <si>
     <t>import pontevecchio.debug.domains.gfx.gt.gtPmStatus as pms
 [18:37] Goswami, Vijaya
-Load driver --&gt; sudo modprobe  i915 enable_rc6=0 enable_rps=0 enable_guc=3 enable_hangcheck=0 reset=0 smem_access_control=0
+Load driver --&gt; sudo modprobe  i915 enable_rc6=0 enable_rps=0 enable_guc=3 enable_hangcheck=0 reset=0 smem_access_control=5
 pms.setGtFrequency_unslice(900)</t>
   </si>
   <si>
-    <t>2T</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>Not tried</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>5.10.5+pvc-xta-po38</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sudo modprobe  i915 enable_rc6=0 enable_rps=0 enable_guc=3 enable_hangcheck=0 reset=0 </t>
-  </si>
-  <si>
-    <t>D1U72V1800025</t>
-  </si>
-  <si>
-    <t>PVC-XT(full quad,MC1)</t>
-  </si>
-  <si>
-    <t>b.go(xt=True) after loading the driver using pms.setGtFrequency_unslice(900)</t>
-  </si>
-  <si>
-    <t>Wilson City / Archer City (FM06WVAW0210.amr.corp.intel.com (XT))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">019533+embargo10369845+releaseinternal1     amd64  </t>
-  </si>
-  <si>
-    <t>https://hsdes.intel.com/appstore/article/#/16013360360(this for test_basic)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 21WW16.4 P IFWI25MHz Quad Mode</t>
-  </si>
-  <si>
-    <t>Fused/unfused</t>
-  </si>
-  <si>
-    <t>Hang</t>
-  </si>
-  <si>
-    <t>200Hz(hang) 900Hz (core dumped)</t>
-  </si>
-  <si>
-    <t>https://hsdes.intel.com/appstore/article/#/16013360480 (for test_integer_ops)</t>
-  </si>
-  <si>
-    <t>https://hsdes.intel.com/appstore/article/#/16013360452 (for test_atomics)</t>
+    <t>clinfo | grep -compute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">free -m </t>
+  </si>
+  <si>
+    <t>https://hsdes.intel.com/resource/16013360480</t>
+  </si>
+  <si>
+    <t>https://hsdes.intel.com/appstore/article/#/16013360452</t>
+  </si>
+  <si>
+    <t>https://hsdes.intel.com/appstore/article/#/16013360360</t>
+  </si>
+  <si>
+    <t>https://hsdes.intel.com/appstore/article/#/16013346780</t>
+  </si>
+  <si>
+    <t>https://hsdes.intel.com/appstore/article/#/16013345309</t>
+  </si>
+  <si>
+    <t>https://hsdes.intel.com/appstore/article/#/16013336650</t>
+  </si>
+  <si>
+    <t>https://gfxspecs.intel.com/Predator/Home/Index/44483</t>
+  </si>
+  <si>
+    <t>bspec</t>
+  </si>
+  <si>
+    <t>EnableStatelessCompression
+OverridePreferredSlmAllocationSizePerDss=0 this two combination keys are causing functional issues</t>
+  </si>
+  <si>
+    <t>total - slices= 8</t>
+  </si>
+  <si>
+    <t>total subslices=8*8=64</t>
+  </si>
+  <si>
+    <t>for i in /sys/class/drm/card*/engine/*/heartbeat_interval_ms; do echo 0 &gt; $i; done;
+for i in /sys/class/drm/card*/engine/*/preempt_timeout_ms; do echo 0 &gt; $i; done;
+for i in /sys/class/drm/card*/engine/*/max_busywait_duration_ns; do echo 0 &gt; $i; done;
+for i in /sys/class/drm/card*/engine/*/stop_timeout_ms; do echo 0 &gt; $i; done;
+echo 0 &gt; /proc/sys/kernel/nmi_watchdog
+echo 0 &gt; /proc/sys/kernel/watchdog</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (Binnocle)</t>
+  </si>
+  <si>
+    <t>\\gar.corp.intel.com\ec\proj\deg\GFXSV\PVC\Execution\Users\Kcheekot\OSbV_bins</t>
+  </si>
+  <si>
+    <t>thhis is for all PVC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">export CFESingleSliceDispatchCCSMode=0  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">export UseDrmVirtualEnginesForCcs=0
+export CFESingleSliceDispatchCCSMode=0  </t>
+  </si>
+  <si>
+    <t>https://wiki.ith.intel.com/pages/viewpage.action?pageId=1820922249</t>
+  </si>
+  <si>
+    <t>check when free</t>
+  </si>
+  <si>
+    <t>1. Change hostname (edit /etc/hostname to update) 
+2. Remove the following files: 
+1. sudo rm /etc/machine-id 
+2. sudo rm /var/lib/dbus/machine-id 
+3. Run the following two commands: 
+1. sudo dbus-uuidgen --ensure=/etc/machine-id 
+2. sudo dbus-uuidgen --ensure 
+4. Run the following command to renew the IP 
+1. sudo dhclient -r;sudo dhclient 
+5. Reboot the system and check if there is a new IP generated 
+6. Once we make sure the IP has changed, reboot a few times to ensure the change is consistent</t>
+  </si>
+  <si>
+    <t>sudo usermod -a -G render $USER
+sudo usermod -a -G video $USER</t>
+  </si>
+  <si>
+    <t>SL#</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>SGEMM - square 8K -FP32, QMCPACK</t>
+  </si>
+  <si>
+    <t>SGEMM - qmcpack</t>
+  </si>
+  <si>
+    <t>Stream Triad</t>
+  </si>
+  <si>
+    <t>Config 1 with 64 threads in config</t>
+  </si>
+  <si>
+    <t>Config 1</t>
+  </si>
+  <si>
+    <t>Config 10</t>
+  </si>
+  <si>
+    <t>Config 33</t>
+  </si>
+  <si>
+    <t>Config 34</t>
+  </si>
+  <si>
+    <t>config 98</t>
+  </si>
+  <si>
+    <t>Config_fullmemorytest</t>
+  </si>
+  <si>
+    <t>test_basic</t>
+  </si>
+  <si>
+    <t>test_atomic</t>
+  </si>
+  <si>
+    <t>2- Pass</t>
+  </si>
+  <si>
+    <t>test_subgroups</t>
+  </si>
+  <si>
+    <t>test_workgroups</t>
+  </si>
+  <si>
+    <t>test_integer_ops</t>
+  </si>
+  <si>
+    <t>BlackScholes</t>
+  </si>
+  <si>
+    <t>CLpeak</t>
+  </si>
+  <si>
+    <t>6 - Pass</t>
+  </si>
+  <si>
+    <t>DLDT-vggnet</t>
+  </si>
+  <si>
+    <t>DLDT-Yolo</t>
+  </si>
+  <si>
+    <t>DLDT- GoogleNet</t>
+  </si>
+  <si>
+    <t>Mandelbrot</t>
+  </si>
+  <si>
+    <t>SVM Bench - bwRead131072KB</t>
+  </si>
+  <si>
+    <t>SVM Bench - bwWrite131072KB</t>
+  </si>
+  <si>
+    <t>SVM Bench - bwCopy131072KB</t>
+  </si>
+  <si>
+    <t>OpenCV - cascadeclassifier</t>
+  </si>
+  <si>
+    <t>HCP - dnnbench</t>
+  </si>
+  <si>
+    <t>PVC_P_Si_2021WW19.4_IFWI_25Mhz.bin</t>
+  </si>
+  <si>
+    <t>IFWI</t>
+  </si>
+  <si>
+    <t>KMD</t>
+  </si>
+  <si>
+    <t>UMD</t>
+  </si>
+  <si>
+    <t>5.10.5+pvc-xta-po40</t>
+  </si>
+  <si>
+    <t>ii  intel-opencl-icd          019533+embargo10344439+releaseinternal1     amd64        Intel graphics compute runtime for OpenCL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 ipehr</t>
+  </si>
+  <si>
+    <t>1000MHz, @ 2T Fused part</t>
+  </si>
+  <si>
+    <t>VID: (unable to locate)</t>
+  </si>
+  <si>
+    <t>yet to try</t>
+  </si>
+  <si>
+    <t>sudo vi /etc/default/grub
+GRUB_CMDLINE_LINUX_DEFAULT="console=ttyS0,115200n8 console=tty1 systemd.unit=multi-user.target modprobe.blacklist=i915,snd_hda_intel pcie_ports=native intel_iommu=on iommu=pt"</t>
+  </si>
+  <si>
+    <t>linux has root ,normal user,service user</t>
+  </si>
+  <si>
+    <t>software files are stored in /bin, programs and device files 
+are in /dev, and boot files are stored in /boot directory.</t>
+  </si>
+  <si>
+    <t>The env command is used to display all the available variables in the system.</t>
+  </si>
+  <si>
+    <t>To remove an environment variable, execute the unset command followed by variable name:</t>
+  </si>
+  <si>
+    <t>export -p  environmental variables in current shell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">export -f function_name  
+We are exporting a function 'name' as follows:
+name() { echo "Javatpoint";}  
+To export the above function, execute the command as follows:
+export -f name  
+Now, invoke the bash shell to execute the function:
+bash  
+To call the function, enter the function name:
+name  </t>
+  </si>
+  <si>
+    <t>printenv  envname (prints the env variable name)</t>
+  </si>
+  <si>
+    <t>cd ~ (home directory)</t>
+  </si>
+  <si>
+    <t>cd -(previous directory)</t>
+  </si>
+  <si>
+    <t>export functions in linux</t>
+  </si>
+  <si>
+    <t>ls -l --block-size=M
+K = Kilobyte
+M = Megabyte
+G = Gigabyte
+T = Terabyte
+P = Petabyte
+E = Exabyte
+Z = Zettabyte
+Y = Yottabyte</t>
+  </si>
+  <si>
+    <t>ls --color=auto  or  ls --color=never</t>
+  </si>
+  <si>
+    <t>mv Old_folder New_folder  (will rename)</t>
+  </si>
+  <si>
+    <t>man command in linux ,ls -help</t>
+  </si>
+  <si>
+    <t>comm	Compares two streams or files.</t>
+  </si>
+  <si>
+    <t>alias	Converts complex commands into simpler ones.
+bzip2 / bunzip2	Compresses a file / Decompress a bzip2 file.
+bzcat / bzmore	Displays files compressed with bzip2.
+file	Displays the type of file.</t>
+  </si>
+  <si>
+    <t>sleep---Waits for the specified number of seconds.</t>
+  </si>
+  <si>
+    <t>passwd	---Set a password for a user group.</t>
+  </si>
+  <si>
+    <t>head--Displays the first ten lines of a file.</t>
+  </si>
+  <si>
+    <t>sort	sorts the content in alphabetical order</t>
+  </si>
+  <si>
+    <t>tac	Displays file content in the opposite order.</t>
+  </si>
+  <si>
+    <t>tar	Compresses a directory.</t>
+  </si>
+  <si>
+    <t>time	Displays time taken to execute a command.</t>
+  </si>
+  <si>
+    <t>wDisplays who is logged on and what are they doing.</t>
+  </si>
+  <si>
+    <t>The local user database in Linux is /etc/passwd directory.</t>
+  </si>
+  <si>
+    <t>man -f chmod (shortcut  about what it does)</t>
+  </si>
+  <si>
+    <t>LILO is a boot loader for Linux. It is used to load the 
+Linux operating system into the main memory to 
+begin its operations</t>
+  </si>
+  <si>
+    <t>Samba service is used to connect Linux machines 
+to Microsoft network resources by providing Microsoft SMB support.</t>
+  </si>
+  <si>
+    <t>ip</t>
+  </si>
+  <si>
+    <t>ifplugstatus	Tells whether a cable is plugged in or not.</t>
+  </si>
+  <si>
+    <t>b.go(fusestr=ratio10_ovrd0)</t>
+  </si>
+  <si>
+    <t>ratio10_ovrd0 = ["fuses.punit.pcode_gt_p0_ratio=0x12","fuses.punit.pcode_gt_p1_ratio=0x1B"]</t>
+  </si>
+  <si>
+    <t>SVMBENCH</t>
+  </si>
+  <si>
+    <t>DGEMM</t>
+  </si>
+  <si>
+    <t>SGEMM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">my() { 
+cd;
+set -x;
+echo moving to SVMBENCH folder;
+sleep 1;
+cd tap_3.6_Linux/apps/SVMBench ;
+sleep 1;
+echo "running sample SVMBench";
+sudo ./bwRead000256KB.sh;
+}
+</t>
+  </si>
+  <si>
+    <t>shell tracing in linux</t>
+  </si>
+  <si>
+    <t>DGEMM() { start=$(date +%s.%N);
+  echo "running DGEMM";
+   cd;
+   sleep 1;
+   echo "moving to DGEMM folder";
+   sleep 1;
+cd pvc-compute-wl-packaging-master/mlgemm/DGEMM_Square;
+   sleep 1;
+   sudo ./PVCDGEMM_square_online.x --N 2048 --K 2048 --M 2048 --eu_count 512 --mtile_height 8 --profiled_timing  --implicit_dispatch;
+   duration=$(echo "$(date +%s.%N) - $start" | bc);
+   execution_time=`printf "%.2f seconds" $duration`;
+   echo "Script Execution Time: $execution_time";
+   echo "completed DGEMM"; }</t>
+  </si>
+  <si>
+    <t>SGEMM() { start=$(date +%s.%N);
+  export _f SGEMM;
+   echo "hi running SGEMM";
+   cd;
+   sleep 1;
+   echo "moving to SGEMM folder";
+   sleep 1;
+   cd pvc-compute-wl-packaging-master/mlgemm/SGEMM_Square;
+   sleep 1;
+  sudo  ./PVCSGEMM_online.x --N 2048 --K 2048 --M 2048 --eu_count 512 --mtile_height 8 --profiled_timing --implicit_dispatch
+  export _f SGEMM;
+  }</t>
+  </si>
+  <si>
+    <t>set command in linux
+will show the commands in comandprompt which are currently executing it is like debug</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1651,8 +1890,23 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="21">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1773,8 +2027,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1832,12 +2098,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1855,20 +2147,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1881,8 +2164,6 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1893,9 +2174,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1910,7 +2188,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1954,8 +2231,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1966,12 +2241,61 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1988,6 +2312,111 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2308860</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1033976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A5AD03D-B6A5-4B23-8B31-4262F4BE0B04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114300" y="68580"/>
+          <a:ext cx="2194560" cy="965396"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>44106</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>482600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EBFF9BB-842F-431E-B64F-A88E9FF6AF3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10966106" y="12700"/>
+          <a:ext cx="7484454" cy="4533900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2269,7 +2698,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -2279,6 +2708,124 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{156D588B-62C7-4071-B8E4-D7D39D7B77AF}">
+  <dimension ref="A2:B2"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="110.6640625" customWidth="1"/>
+    <col min="2" max="2" width="55" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" ht="388.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>219</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B3BD26-DF42-4EE7-B690-C4147DE70AC0}">
+  <dimension ref="A1:A22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="65.77734375" style="11" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73EB3F9D-7EBE-4339-A9FC-2D38929CBEA5}">
   <dimension ref="A1:P3"/>
   <sheetViews>
@@ -2311,140 +2858,140 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{421E263F-E057-48F7-9CCF-C506CE63B672}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.2" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="169.44140625" style="32" customWidth="1"/>
-    <col min="2" max="2" width="187.88671875" style="25" customWidth="1"/>
-    <col min="3" max="3" width="255.6640625" style="34" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="26"/>
+    <col min="1" max="1" width="169.44140625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="187.88671875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="255.6640625" style="26" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="62.4" x14ac:dyDescent="0.6">
-      <c r="A1" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A2" s="32" t="s">
-        <v>60</v>
+      <c r="A1" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="139.19999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="24" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="62.4" x14ac:dyDescent="0.6">
-      <c r="A3" s="33" t="s">
-        <v>268</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>133</v>
+      <c r="A3" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="145.19999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="33" t="s">
-        <v>269</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>270</v>
+      <c r="A4" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A5" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="B5" s="25" t="s">
+      <c r="A5" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="93.6" x14ac:dyDescent="0.6">
+      <c r="A7" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A8" s="24" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A9" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A11" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A12" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="62.4" x14ac:dyDescent="0.6">
+      <c r="A14" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="374.4" x14ac:dyDescent="0.6">
+      <c r="A16" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A19" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A20" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="19"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A21" s="24" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="93.6" x14ac:dyDescent="0.6">
-      <c r="A7" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A8" s="32" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A9" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A11" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A12" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="62.4" x14ac:dyDescent="0.6">
-      <c r="A14" s="33" t="s">
-        <v>266</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="374.4" x14ac:dyDescent="0.6">
-      <c r="A16" s="33" t="s">
-        <v>179</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A19" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A20" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="B20" s="26"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A21" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="B21" s="26"/>
+      <c r="B21" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2452,11 +2999,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC07885-4320-40BF-B3CD-43CCBA79C63F}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2480,7 +3029,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831CAC65-ABF7-4027-8B3C-BF26A0B50F33}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -2490,49 +3039,49 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="103.77734375" style="36" customWidth="1"/>
+    <col min="1" max="1" width="103.77734375" style="28" customWidth="1"/>
     <col min="2" max="2" width="34.77734375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="98.6640625" style="39" customWidth="1"/>
+    <col min="3" max="3" width="98.6640625" style="31" customWidth="1"/>
     <col min="4" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="59" customFormat="1" ht="134.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
-        <v>264</v>
-      </c>
-      <c r="B1" s="59" t="s">
-        <v>170</v>
-      </c>
-      <c r="C1" s="60" t="s">
-        <v>173</v>
+    <row r="1" spans="1:3" s="50" customFormat="1" ht="134.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
-        <v>159</v>
+      <c r="A2" s="28" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
-        <v>160</v>
+      <c r="A3" s="28" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="39" customFormat="1" ht="374.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="57" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="56" customFormat="1" ht="287.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="55" t="s">
-        <v>261</v>
+      <c r="A5" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="31" customFormat="1" ht="374.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="48" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="47" customFormat="1" ht="287.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="46" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -2541,105 +3090,138 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D212F357-C1CD-4714-BBF8-6624F24586B5}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="57.21875" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" customWidth="1"/>
-    <col min="3" max="3" width="107.77734375" customWidth="1"/>
-    <col min="4" max="4" width="50.109375" customWidth="1"/>
+    <col min="1" max="1" width="57.21875" style="59" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="107.77734375" style="67" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" style="65" customWidth="1"/>
+    <col min="5" max="5" width="33.5546875" style="60" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="60" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="66">
+        <v>44330</v>
+      </c>
+      <c r="E2" s="60" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="59" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="67" t="s">
+        <v>324</v>
+      </c>
+      <c r="E4" s="70">
+        <v>44330</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" s="70">
+        <v>44325</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="C1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D2" s="62">
-        <v>44330</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="62" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="68" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="40" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="19" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C12" s="19" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C14" s="20" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C15" s="20" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C16" s="20" t="s">
-        <v>370</v>
+      <c r="E8" s="71" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C9" s="67" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C10" s="67" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C12" s="68" t="s">
+        <v>301</v>
+      </c>
+      <c r="D12" s="65" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C14" s="69" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C15" s="69" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C16" s="69" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C18" s="67" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C19" s="67" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -2655,90 +3237,98 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F66318DF-E8FA-47E2-8867-757595ABE751}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.109375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="106.109375" style="10" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="10"/>
+    <col min="1" max="1" width="26.109375" style="77" customWidth="1"/>
+    <col min="2" max="2" width="106.109375" style="77" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="77"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>238</v>
+    <row r="1" spans="1:2" ht="105.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="75" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="76" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" s="77" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B4" s="77" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B5" s="77" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="76" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="77" t="s">
+        <v>251</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="77" t="s">
+        <v>210</v>
+      </c>
+      <c r="B12" s="76" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="77" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="77" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="76" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="77" t="s">
+        <v>250</v>
+      </c>
+      <c r="B17" s="76" t="s">
+        <v>328</v>
+      </c>
+      <c r="C17" s="77" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B19" s="76" t="s">
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -2749,237 +3339,19 @@
     <hyperlink ref="B1" r:id="rId4" xr:uid="{556CAE43-AE62-4306-9791-BF54D2C355E4}"/>
     <hyperlink ref="B12" r:id="rId5" xr:uid="{5BB0BFA2-EA37-42E5-B361-92869192475C}"/>
     <hyperlink ref="B17" r:id="rId6" xr:uid="{233125EB-2616-4C24-99C7-AB01650C471B}"/>
+    <hyperlink ref="B19" r:id="rId7" xr:uid="{0869BD87-FE26-4319-B01E-B2BCCE287215}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA71405-A95A-4DE4-9E1B-974F970D6C8A}">
-  <dimension ref="A1:F37"/>
-  <sheetViews>
-    <sheetView topLeftCell="B7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B7" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="190.5546875" style="15" customWidth="1"/>
-    <col min="2" max="5" width="8.88671875" style="15"/>
-    <col min="6" max="6" width="60.77734375" style="15" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="15"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="406.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-    </row>
-    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-    </row>
-    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="E4" s="16"/>
-      <c r="F4" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="E5" s="16"/>
-      <c r="F5" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="E6" s="16"/>
-      <c r="F6" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="E7" s="16"/>
-      <c r="F7" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="E8" s="16"/>
-      <c r="F8" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="E9" s="16"/>
-      <c r="F9" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-    </row>
-    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-    </row>
-    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-    </row>
-    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="E13" s="16"/>
-      <c r="F13" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="E14" s="16"/>
-      <c r="F14" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="E15" s="16"/>
-      <c r="F15" s="16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-    </row>
-    <row r="17" spans="5:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="E17" s="16"/>
-      <c r="F17" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="5:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="E18" s="16"/>
-      <c r="F18" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="5:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="E19" s="16"/>
-      <c r="F19" s="16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="5:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-    </row>
-    <row r="21" spans="5:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="E21" s="16"/>
-      <c r="F21" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="5:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="E22" s="16"/>
-      <c r="F22" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="5:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="E23" s="16"/>
-      <c r="F23" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="5:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="E24" s="16"/>
-      <c r="F24" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="5:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-    </row>
-    <row r="26" spans="5:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="E26" s="16"/>
-      <c r="F26" s="16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="5:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="E27" s="16"/>
-      <c r="F27" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="5:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-    </row>
-    <row r="29" spans="5:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="E29" s="16"/>
-      <c r="F29" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="5:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="E30" s="16"/>
-      <c r="F30" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="5:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="E31" s="16"/>
-      <c r="F31" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="5:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-    </row>
-    <row r="33" spans="5:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-    </row>
-    <row r="34" spans="5:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="E34" s="16"/>
-      <c r="F34" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="5:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="E35" s="16"/>
-      <c r="F35" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="5:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="E36" s="16"/>
-      <c r="F36" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="5:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CB7E1C8-6EB6-4118-B485-7CAF8B079854}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A7" sqref="A7:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2988,46 +3360,50 @@
     <col min="2" max="2" width="43.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="36" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="36" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
-        <v>114</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{BA21F4A3-C603-4BCE-972F-74317E40688E}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{3C1B2B04-5178-47B5-A933-AF8E77E485DB}"/>
+    <hyperlink ref="A7" r:id="rId1" xr:uid="{BA21F4A3-C603-4BCE-972F-74317E40688E}"/>
+    <hyperlink ref="A8" r:id="rId2" xr:uid="{3C1B2B04-5178-47B5-A933-AF8E77E485DB}"/>
     <hyperlink ref="A2" r:id="rId3" xr:uid="{050C6FB7-76F6-4E80-820A-A9ACAD3D586A}"/>
     <hyperlink ref="A4" r:id="rId4" xr:uid="{2FCB7898-B784-40C4-B832-858B2CC90EAC}"/>
     <hyperlink ref="A5" r:id="rId5" xr:uid="{4847FB13-619D-42F4-9A0C-3D62B134F691}"/>
@@ -3038,168 +3414,150 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1642B6-82A7-4FCF-BC18-45D533D1F838}">
-  <dimension ref="A1:A2"/>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCEC9E7E-6729-4865-99F0-0C4C696B6B6D}">
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="A12" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.88671875" customWidth="1"/>
+    <col min="1" max="1" width="35.21875" style="73" customWidth="1"/>
+    <col min="2" max="2" width="82.21875" style="73" customWidth="1"/>
+    <col min="3" max="3" width="99.77734375" style="73" customWidth="1"/>
+    <col min="4" max="4" width="52.109375" style="73" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="73"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCEC9E7E-6729-4865-99F0-0C4C696B6B6D}">
-  <dimension ref="A1:C20"/>
-  <sheetViews>
-    <sheetView topLeftCell="B7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="58.5546875" style="23" customWidth="1"/>
-    <col min="2" max="2" width="143.21875" style="23" customWidth="1"/>
-    <col min="3" max="3" width="99.77734375" style="23" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="23"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="23" t="s">
+    <row r="1" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="73" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="73" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="73" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="73" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="74" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="73" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="73" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="73" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="23" t="s">
+      <c r="B5" s="73" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="73" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="73" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="76.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D7" s="72" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="41.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="73" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="72" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="73" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="41.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B9" s="23" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B10" s="23" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B11" s="23" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="23" t="s">
-        <v>242</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="207.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="31" t="s">
-        <v>259</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B14" s="23" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B15" s="23" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B16" s="23" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B17" s="23" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B18" s="23" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B19" s="23" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B20" s="23" t="s">
-        <v>349</v>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="73" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="73" t="s">
+        <v>213</v>
+      </c>
+      <c r="B12" s="73" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="124.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="72" t="s">
+        <v>229</v>
+      </c>
+      <c r="C13" s="72" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="73" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="73" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="73" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="73" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="73" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="73" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="73" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="30.6" x14ac:dyDescent="0.2">
+      <c r="B22" s="72" t="s">
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -3209,71 +3567,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A44124-35D8-410D-A47F-0D4F8298DF53}">
-  <dimension ref="A1:B18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2468D19D-BD6C-4D74-A7A1-FC5161141623}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="25.8" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="74.109375" style="46" customWidth="1"/>
-    <col min="2" max="2" width="255.6640625" style="37" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="30"/>
+    <col min="1" max="1" width="84.6640625" style="84" customWidth="1"/>
+    <col min="2" max="2" width="78.44140625" style="84" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="73.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="45" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="60.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="87" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="38" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="5" spans="1:2" ht="408.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="51" t="s">
-        <v>171</v>
-      </c>
-      <c r="B5" s="52" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="208.2" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="53"/>
-      <c r="B6" s="53"/>
-    </row>
-    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.5"/>
-    <row r="8" spans="1:2" ht="409.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="38" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="409.6" x14ac:dyDescent="0.5">
-      <c r="A17" s="49" t="s">
-        <v>251</v>
-      </c>
-      <c r="B17" s="50" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" s="54" customFormat="1" ht="191.4" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="54">
-        <v>900</v>
-      </c>
-      <c r="B18" s="54" t="s">
-        <v>253</v>
+    <row r="1" spans="1:2" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="84" t="s">
+        <v>427</v>
+      </c>
+      <c r="B1" s="85" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="84" t="s">
+        <v>428</v>
+      </c>
+      <c r="B2" s="85" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="84" t="s">
+        <v>429</v>
+      </c>
+      <c r="B3" s="85" t="s">
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -3286,7 +3614,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90EA2079-16CC-4FC4-8D75-AAB93ECB0524}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3296,14 +3626,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="340.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>240</v>
+      <c r="A1" s="14" t="s">
+        <v>211</v>
       </c>
       <c r="B1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>244</v>
+        <v>214</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -3316,21 +3646,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C8DA7E-9E18-413F-8FD3-1FA866970298}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="82.6640625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="48.77734375" style="28" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="28"/>
+    <col min="1" max="1" width="110.21875" style="21" customWidth="1"/>
+    <col min="2" max="2" width="48.77734375" style="21" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>135</v>
+    <row r="1" spans="1:2" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3343,7 +3675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B2896D-3CA8-4BA5-B29B-82FE2D52D293}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3353,17 +3685,17 @@
     <col min="2" max="2" width="51.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>138</v>
+    <row r="1" spans="1:2" ht="330" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>109</v>
       </c>
       <c r="B1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
-        <v>136</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="321.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3388,513 +3720,513 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="70"/>
-      <c r="B1" s="70" t="s">
+      <c r="A1" s="80"/>
+      <c r="B1" s="80" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="80" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" s="80" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" s="80" t="s">
+        <v>160</v>
+      </c>
+      <c r="F1" s="80" t="s">
+        <v>161</v>
+      </c>
+      <c r="G1" s="80" t="s">
+        <v>162</v>
+      </c>
+      <c r="H1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+    </row>
+    <row r="3" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+    </row>
+    <row r="5" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+    </row>
+    <row r="8" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+    </row>
+    <row r="9" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+    </row>
+    <row r="10" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+    </row>
+    <row r="11" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+    </row>
+    <row r="12" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+    </row>
+    <row r="13" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+    </row>
+    <row r="14" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="B15" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="C15" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="D15" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="E1" s="70" t="s">
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+    </row>
+    <row r="16" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="B16" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="G1" s="70" t="s">
+      <c r="D16" s="34" t="s">
         <v>191</v>
       </c>
-      <c r="H1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-    </row>
-    <row r="3" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="41" t="s">
+      <c r="E16" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B17" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+    </row>
+    <row r="18" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="B18" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+    </row>
+    <row r="19" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="32" t="s">
         <v>194</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="B19" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+    </row>
+    <row r="20" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="B20" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="D20" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="F3" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="G3" s="42" t="s">
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+    </row>
+    <row r="21" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="32" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="41" t="s">
+      <c r="B21" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="B4" s="42" t="s">
-        <v>193</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-    </row>
-    <row r="5" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="41" t="s">
+      <c r="C21" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="E21" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+    </row>
+    <row r="22" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="C5" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="D5" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="E5" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="F5" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="G5" s="42" t="s">
+      <c r="B22" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+    </row>
+    <row r="23" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="32" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="41" t="s">
+      <c r="B23" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+    </row>
+    <row r="24" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="B6" s="42" t="s">
-        <v>200</v>
-      </c>
-      <c r="C6" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="D6" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="E6" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="41" t="s">
+      <c r="B24" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+    </row>
+    <row r="25" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B25" s="33" t="s">
         <v>204</v>
       </c>
-      <c r="C7" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="D7" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-    </row>
-    <row r="8" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="41" t="s">
+      <c r="C25" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="E25" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+    </row>
+    <row r="26" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B26" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="E26" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+    </row>
+    <row r="27" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="C8" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="D8" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-    </row>
-    <row r="9" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="41" t="s">
+      <c r="B27" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+    </row>
+    <row r="28" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="B9" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="C9" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="D9" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-    </row>
-    <row r="10" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="41" t="s">
-        <v>209</v>
-      </c>
-      <c r="B10" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="C10" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="D10" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-    </row>
-    <row r="11" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="41" t="s">
-        <v>210</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="C11" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="D11" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-    </row>
-    <row r="12" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="41" t="s">
-        <v>211</v>
-      </c>
-      <c r="B12" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="C12" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="D12" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-    </row>
-    <row r="13" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="C13" s="42" t="s">
-        <v>213</v>
-      </c>
-      <c r="D13" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-    </row>
-    <row r="14" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="41" t="s">
-        <v>214</v>
-      </c>
-      <c r="B14" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="C14" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="D14" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="E14" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-    </row>
-    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="41" t="s">
-        <v>215</v>
-      </c>
-      <c r="B15" s="42" t="s">
-        <v>216</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="D15" s="43" t="s">
-        <v>217</v>
-      </c>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-    </row>
-    <row r="16" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="41" t="s">
-        <v>218</v>
-      </c>
-      <c r="B16" s="42" t="s">
-        <v>193</v>
-      </c>
-      <c r="C16" s="42" t="s">
-        <v>219</v>
-      </c>
-      <c r="D16" s="43" t="s">
-        <v>220</v>
-      </c>
-      <c r="E16" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="41" t="s">
-        <v>221</v>
-      </c>
-      <c r="B17" s="42" t="s">
-        <v>193</v>
-      </c>
-      <c r="C17" s="42" t="s">
-        <v>219</v>
-      </c>
-      <c r="D17" s="43" t="s">
-        <v>220</v>
-      </c>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-    </row>
-    <row r="18" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="41" t="s">
-        <v>222</v>
-      </c>
-      <c r="B18" s="42" t="s">
-        <v>200</v>
-      </c>
-      <c r="C18" s="42" t="s">
-        <v>219</v>
-      </c>
-      <c r="D18" s="43" t="s">
-        <v>220</v>
-      </c>
-      <c r="E18" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-    </row>
-    <row r="19" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="B19" s="42" t="s">
-        <v>200</v>
-      </c>
-      <c r="C19" s="42" t="s">
-        <v>219</v>
-      </c>
-      <c r="D19" s="43" t="s">
-        <v>220</v>
-      </c>
-      <c r="E19" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-    </row>
-    <row r="20" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="41" t="s">
-        <v>224</v>
-      </c>
-      <c r="B20" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="C20" s="42" t="s">
-        <v>219</v>
-      </c>
-      <c r="D20" s="43" t="s">
-        <v>225</v>
-      </c>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-    </row>
-    <row r="21" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="B21" s="42" t="s">
-        <v>227</v>
-      </c>
-      <c r="C21" s="42" t="s">
-        <v>219</v>
-      </c>
-      <c r="D21" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="E21" s="44" t="s">
-        <v>228</v>
-      </c>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-    </row>
-    <row r="22" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="41" t="s">
-        <v>229</v>
-      </c>
-      <c r="B22" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="C22" s="42" t="s">
-        <v>219</v>
-      </c>
-      <c r="D22" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-    </row>
-    <row r="23" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="41" t="s">
-        <v>230</v>
-      </c>
-      <c r="B23" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="C23" s="42" t="s">
-        <v>219</v>
-      </c>
-      <c r="D23" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-    </row>
-    <row r="24" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="41" t="s">
-        <v>231</v>
-      </c>
-      <c r="B24" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="C24" s="42" t="s">
-        <v>219</v>
-      </c>
-      <c r="D24" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="E24" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-    </row>
-    <row r="25" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="B25" s="42" t="s">
-        <v>233</v>
-      </c>
-      <c r="C25" s="42" t="s">
-        <v>219</v>
-      </c>
-      <c r="D25" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="E25" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-    </row>
-    <row r="26" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="41" t="s">
-        <v>234</v>
-      </c>
-      <c r="B26" s="42" t="s">
-        <v>233</v>
-      </c>
-      <c r="C26" s="42" t="s">
-        <v>219</v>
-      </c>
-      <c r="D26" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="E26" s="44" t="s">
-        <v>228</v>
-      </c>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-    </row>
-    <row r="27" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="41" t="s">
-        <v>235</v>
-      </c>
-      <c r="B27" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="C27" s="42" t="s">
-        <v>219</v>
-      </c>
-      <c r="D27" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-    </row>
-    <row r="28" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="41" t="s">
-        <v>236</v>
-      </c>
-      <c r="B28" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="C28" s="42" t="s">
-        <v>219</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
+      <c r="B28" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3913,26 +4245,48 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF0F9D88-BB12-4839-8BF8-5B47A2565CA3}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="79.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="46.88671875" customWidth="1"/>
-    <col min="3" max="3" width="37.5546875" customWidth="1"/>
-    <col min="4" max="4" width="34.21875" customWidth="1"/>
+    <col min="1" max="1" width="79.33203125" style="60" customWidth="1"/>
+    <col min="2" max="2" width="46.88671875" style="59" customWidth="1"/>
+    <col min="3" max="3" width="37.5546875" style="59" customWidth="1"/>
+    <col min="4" max="4" width="34.21875" style="59" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="119.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>264</v>
+    <row r="1" spans="1:3" ht="119.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="71" t="s">
+        <v>344</v>
+      </c>
+      <c r="B1" s="63" t="s">
+        <v>349</v>
+      </c>
+      <c r="C1" s="59" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="71" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="60" t="s">
+        <v>348</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="71" t="s">
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -3958,33 +4312,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="198" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="19" t="s">
-        <v>351</v>
+      <c r="D1" s="14" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="61" t="s">
-        <v>277</v>
-      </c>
-      <c r="B2" s="61" t="s">
-        <v>276</v>
-      </c>
-      <c r="C2" s="61" t="s">
-        <v>275</v>
+      <c r="A2" s="52" t="s">
+        <v>245</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="241.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="B3" t="s">
-        <v>272</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>278</v>
+        <v>240</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -3994,112 +4348,59 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E18ECF3D-98BD-415A-B71F-E7E3A99FA8CE}">
-  <dimension ref="A8:B18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A91F47FF-1481-4A81-A1C5-8077A6F703E5}">
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B18"/>
+      <selection activeCell="A7" sqref="A1:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.77734375" customWidth="1"/>
-    <col min="2" max="2" width="52" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" customWidth="1"/>
-    <col min="5" max="5" width="36.44140625" customWidth="1"/>
+    <col min="1" max="1" width="71.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="63" t="s">
-        <v>294</v>
-      </c>
-      <c r="B8" s="63" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="63" t="s">
-        <v>295</v>
-      </c>
-      <c r="B9" s="63" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="63" t="s">
-        <v>297</v>
-      </c>
-      <c r="B10" s="63" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="63" t="s">
-        <v>285</v>
-      </c>
-      <c r="B11" s="63" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="63" t="s">
-        <v>286</v>
-      </c>
-      <c r="B12" s="63" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="63" t="s">
-        <v>291</v>
-      </c>
-      <c r="B13" s="63" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="63" t="s">
-        <v>293</v>
-      </c>
-      <c r="B14" s="63" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="63" t="s">
-        <v>298</v>
-      </c>
-      <c r="B15" s="63" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="63" t="s">
-        <v>300</v>
-      </c>
-      <c r="B16" s="63" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="63" t="s">
-        <v>302</v>
-      </c>
-      <c r="B17" s="63" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="63" t="s">
-        <v>304</v>
-      </c>
-      <c r="B18" s="63" t="s">
-        <v>305</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>338</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{CC8CA8B3-A9FA-4BF5-821B-7F55DC16D127}"/>
+    <hyperlink ref="A2" r:id="rId2" location="/16013360452" xr:uid="{151DB556-F77F-47A1-AD70-0DE441026F1D}"/>
+    <hyperlink ref="A3" r:id="rId3" location="/16013360360" xr:uid="{5ABEC443-A506-48F9-B4B3-746396A53A1A}"/>
+    <hyperlink ref="A4" r:id="rId4" location="/16013346780" xr:uid="{54A5077D-9402-45C9-909D-8AA59A1EC434}"/>
+    <hyperlink ref="A5" r:id="rId5" location="/16013345309" xr:uid="{E826157D-AC46-47C1-8A77-9CFFC2818A69}"/>
+    <hyperlink ref="A6" r:id="rId6" location="/16013336650" xr:uid="{762F62FC-06CC-47FA-9C54-F4759EFEC165}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -4118,195 +4419,195 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
-        <v>320</v>
-      </c>
-      <c r="B1" s="66" t="s">
-        <v>361</v>
+      <c r="A1" s="55" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="66" t="s">
-        <v>321</v>
-      </c>
-      <c r="B2" s="66" t="s">
-        <v>322</v>
+      <c r="A2" s="55" t="s">
+        <v>272</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="66" t="s">
-        <v>323</v>
-      </c>
-      <c r="B3" s="66" t="s">
-        <v>352</v>
+      <c r="A3" s="55" t="s">
+        <v>274</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="66" t="s">
-        <v>324</v>
-      </c>
-      <c r="B4" s="66" t="s">
-        <v>367</v>
+      <c r="A4" s="55" t="s">
+        <v>275</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="66" t="s">
-        <v>325</v>
-      </c>
-      <c r="B5" s="66" t="s">
-        <v>326</v>
+      <c r="A5" s="55" t="s">
+        <v>276</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="66" t="s">
-        <v>327</v>
-      </c>
-      <c r="B6" s="66" t="s">
-        <v>360</v>
+      <c r="A6" s="55" t="s">
+        <v>278</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="66" t="s">
-        <v>328</v>
-      </c>
-      <c r="B7" s="66" t="s">
-        <v>363</v>
+      <c r="A7" s="55" t="s">
+        <v>279</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="66" t="s">
-        <v>329</v>
-      </c>
-      <c r="B8" s="66" t="s">
-        <v>366</v>
+      <c r="A8" s="55" t="s">
+        <v>280</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="66" t="s">
-        <v>330</v>
-      </c>
-      <c r="B9" s="66" t="s">
-        <v>331</v>
+      <c r="A9" s="55" t="s">
+        <v>281</v>
+      </c>
+      <c r="B9" s="55" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="66" t="s">
-        <v>332</v>
-      </c>
-      <c r="B10" s="66" t="s">
-        <v>357</v>
+      <c r="A10" s="55" t="s">
+        <v>283</v>
+      </c>
+      <c r="B10" s="55" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="66" t="s">
-        <v>333</v>
-      </c>
-      <c r="B11" s="66" t="s">
-        <v>364</v>
+      <c r="A11" s="55" t="s">
+        <v>284</v>
+      </c>
+      <c r="B11" s="55" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="66" t="s">
-        <v>334</v>
-      </c>
-      <c r="B12" s="66" t="s">
-        <v>368</v>
+      <c r="A12" s="55" t="s">
+        <v>285</v>
+      </c>
+      <c r="B12" s="55" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="66" t="s">
-        <v>335</v>
-      </c>
-      <c r="B13" s="66" t="s">
-        <v>358</v>
+      <c r="A13" s="55" t="s">
+        <v>286</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="66" t="s">
-        <v>336</v>
-      </c>
-      <c r="B14" s="66" t="s">
-        <v>369</v>
+      <c r="A14" s="55" t="s">
+        <v>287</v>
+      </c>
+      <c r="B14" s="55" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="66" t="s">
-        <v>337</v>
-      </c>
-      <c r="B15" s="66" t="s">
-        <v>362</v>
+      <c r="A15" s="55" t="s">
+        <v>288</v>
+      </c>
+      <c r="B15" s="55" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="66" t="s">
-        <v>338</v>
-      </c>
-      <c r="B16" s="66" t="s">
-        <v>353</v>
+      <c r="A16" s="55" t="s">
+        <v>289</v>
+      </c>
+      <c r="B16" s="55" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="66" t="s">
-        <v>339</v>
-      </c>
-      <c r="B17" s="66" t="s">
-        <v>354</v>
+      <c r="A17" s="55" t="s">
+        <v>290</v>
+      </c>
+      <c r="B17" s="55" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="66" t="s">
-        <v>340</v>
-      </c>
-      <c r="B18" s="66" t="s">
-        <v>359</v>
+      <c r="A18" s="55" t="s">
+        <v>291</v>
+      </c>
+      <c r="B18" s="55" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="66" t="s">
-        <v>341</v>
-      </c>
-      <c r="B19" s="66" t="s">
-        <v>355</v>
+      <c r="A19" s="55" t="s">
+        <v>292</v>
+      </c>
+      <c r="B19" s="55" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="66" t="s">
-        <v>342</v>
-      </c>
-      <c r="B20" s="66" t="s">
-        <v>356</v>
+      <c r="A20" s="55" t="s">
+        <v>293</v>
+      </c>
+      <c r="B20" s="55" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="66" t="s">
-        <v>343</v>
-      </c>
-      <c r="B21" s="66" t="s">
-        <v>356</v>
+      <c r="A21" s="55" t="s">
+        <v>294</v>
+      </c>
+      <c r="B21" s="55" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="66" t="s">
-        <v>344</v>
-      </c>
-      <c r="B22" s="66" t="s">
-        <v>355</v>
+      <c r="A22" s="55" t="s">
+        <v>295</v>
+      </c>
+      <c r="B22" s="55" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="B23" s="66" t="s">
-        <v>355</v>
+      <c r="A23" s="55" t="s">
+        <v>296</v>
+      </c>
+      <c r="B23" s="55" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="66" t="s">
-        <v>346</v>
-      </c>
-      <c r="B24" s="66" t="s">
-        <v>356</v>
+      <c r="A24" s="55" t="s">
+        <v>297</v>
+      </c>
+      <c r="B24" s="55" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -4315,219 +4616,540 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E005901C-00BA-406B-88B9-503DB86B1951}">
-  <dimension ref="A1:D25"/>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F113FE8E-37A5-40A7-A4C9-4CCE1394317F}">
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="75.33203125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="57" style="17" customWidth="1"/>
-    <col min="4" max="4" width="79.5546875" style="64" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="17"/>
+    <col min="1" max="1" width="24.5546875" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="33.44140625" customWidth="1"/>
+    <col min="4" max="4" width="59.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="64" t="s">
+    <row r="1" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="82" t="s">
+        <v>354</v>
+      </c>
+      <c r="B1" s="83" t="s">
+        <v>355</v>
+      </c>
+      <c r="C1" s="78" t="s">
+        <v>391</v>
+      </c>
+      <c r="D1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="82"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="78" t="s">
+        <v>392</v>
+      </c>
+      <c r="D2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="78">
+        <v>1</v>
+      </c>
+      <c r="B3" s="79" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="78" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" t="s">
+        <v>389</v>
+      </c>
+      <c r="E3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="78">
+        <v>2</v>
+      </c>
+      <c r="B4" s="79" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="78" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="78">
+        <v>3</v>
+      </c>
+      <c r="B5" s="79" t="s">
+        <v>356</v>
+      </c>
+      <c r="C5" s="78" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="78">
+        <v>4</v>
+      </c>
+      <c r="B6" s="79" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="78" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="78">
+        <v>5</v>
+      </c>
+      <c r="B7" s="79" t="s">
+        <v>357</v>
+      </c>
+      <c r="C7" s="78" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="78">
+        <v>6</v>
+      </c>
+      <c r="B8" s="79" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" s="78" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="78">
+        <v>7</v>
+      </c>
+      <c r="B9" s="79" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="D3" s="65" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="64" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="64" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B6" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="64" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="64" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B8" s="17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="D10" s="65" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" s="64" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" s="64" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13" s="64" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="B16" s="17" t="s">
+      <c r="C9" s="78" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="78">
+        <v>8</v>
+      </c>
+      <c r="B10" s="79" t="s">
+        <v>180</v>
+      </c>
+      <c r="C10" s="78" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="78">
+        <v>9</v>
+      </c>
+      <c r="B11" s="79" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11" s="78" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="78">
+        <v>10</v>
+      </c>
+      <c r="B12" s="79" t="s">
+        <v>183</v>
+      </c>
+      <c r="C12" s="78" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="78">
+        <v>11</v>
+      </c>
+      <c r="B13" s="79" t="s">
+        <v>185</v>
+      </c>
+      <c r="C13" s="78" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="78">
+        <v>12</v>
+      </c>
+      <c r="B14" s="79" t="s">
+        <v>358</v>
+      </c>
+      <c r="C14" s="78" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="78">
+        <v>13</v>
+      </c>
+      <c r="B15" s="79" t="s">
+        <v>359</v>
+      </c>
+      <c r="C15" s="78" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="78">
+        <v>14</v>
+      </c>
+      <c r="B16" s="79" t="s">
+        <v>360</v>
+      </c>
+      <c r="C16" s="78" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="78">
+        <v>15</v>
+      </c>
+      <c r="B17" s="79" t="s">
+        <v>361</v>
+      </c>
+      <c r="C17" s="78" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="78">
+        <v>16</v>
+      </c>
+      <c r="B18" s="79" t="s">
+        <v>362</v>
+      </c>
+      <c r="C18" s="78" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="78">
+        <v>17</v>
+      </c>
+      <c r="B19" s="79" t="s">
+        <v>363</v>
+      </c>
+      <c r="C19" s="78" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="78">
+        <v>18</v>
+      </c>
+      <c r="B20" s="79" t="s">
+        <v>364</v>
+      </c>
+      <c r="C20" s="78" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="78">
+        <v>19</v>
+      </c>
+      <c r="B21" s="79" t="s">
+        <v>365</v>
+      </c>
+      <c r="C21" s="78" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="78">
+        <v>20</v>
+      </c>
+      <c r="B22" s="79" t="s">
+        <v>366</v>
+      </c>
+      <c r="C22" s="78" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="78">
+        <v>21</v>
+      </c>
+      <c r="B23" s="79" t="s">
+        <v>367</v>
+      </c>
+      <c r="C23" s="78" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="78">
+        <v>22</v>
+      </c>
+      <c r="B24" s="79" t="s">
+        <v>369</v>
+      </c>
+      <c r="C24" s="78" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="78">
+        <v>23</v>
+      </c>
+      <c r="B25" s="79" t="s">
+        <v>370</v>
+      </c>
+      <c r="C25" s="78" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="78">
+        <v>24</v>
+      </c>
+      <c r="B26" s="79" t="s">
+        <v>371</v>
+      </c>
+      <c r="C26" s="78" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="78">
+        <v>25</v>
+      </c>
+      <c r="B27" s="79" t="s">
+        <v>239</v>
+      </c>
+      <c r="C27" s="78" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="78">
+        <v>27</v>
+      </c>
+      <c r="B28" s="79" t="s">
+        <v>372</v>
+      </c>
+      <c r="C28" s="78" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="78">
+        <v>28</v>
+      </c>
+      <c r="B29" s="79" t="s">
+        <v>373</v>
+      </c>
+      <c r="C29" s="78" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="78">
+        <v>29</v>
+      </c>
+      <c r="B30" s="79" t="s">
+        <v>375</v>
+      </c>
+      <c r="C30" s="78" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="78">
+        <v>30</v>
+      </c>
+      <c r="B31" s="79" t="s">
+        <v>376</v>
+      </c>
+      <c r="C31" s="78" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="78">
+        <v>31</v>
+      </c>
+      <c r="B32" s="79" t="s">
+        <v>377</v>
+      </c>
+      <c r="C32" s="78" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="78">
+        <v>32</v>
+      </c>
+      <c r="B33" s="79" t="s">
+        <v>378</v>
+      </c>
+      <c r="C33" s="78" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="78">
+        <v>33</v>
+      </c>
+      <c r="B34" s="79" t="s">
+        <v>379</v>
+      </c>
+      <c r="C34" s="78" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="78">
+        <v>34</v>
+      </c>
+      <c r="B35" s="79" t="s">
+        <v>380</v>
+      </c>
+      <c r="C35" s="78" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="78">
+        <v>35</v>
+      </c>
+      <c r="B36" s="79" t="s">
+        <v>381</v>
+      </c>
+      <c r="C36" s="78" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="78">
+        <v>36</v>
+      </c>
+      <c r="B37" s="79" t="s">
+        <v>382</v>
+      </c>
+      <c r="C37" s="78" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="78">
+        <v>37</v>
+      </c>
+      <c r="B38" s="79" t="s">
+        <v>383</v>
+      </c>
+      <c r="C38" s="78" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A44124-35D8-410D-A47F-0D4F8298DF53}">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="FE99" sqref="FE99"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="25.8" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="118.77734375" style="37" customWidth="1"/>
+    <col min="2" max="2" width="255.6640625" style="29" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="73.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="36" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="60.6" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="87" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="30" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="36" x14ac:dyDescent="0.35">
-      <c r="B17" s="18" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B19" s="17" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B20" s="17" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B22" s="17" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="17" t="s">
-        <v>280</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B24" s="17" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B25" s="17" t="s">
-        <v>313</v>
+    <row r="4" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="5" spans="1:2" ht="408.6" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="208.2" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
+    </row>
+    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.5"/>
+    <row r="8" spans="1:2" ht="409.6" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B8" s="30" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="409.6" x14ac:dyDescent="0.5">
+      <c r="A17" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="45" customFormat="1" ht="191.4" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="45">
+        <v>900</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B21" s="29" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B22" s="29" t="s">
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -4537,6 +5159,229 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E005901C-00BA-406B-88B9-503DB86B1951}">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="40.88671875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="75.33203125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="57" style="12" customWidth="1"/>
+    <col min="4" max="4" width="79.5546875" style="53" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="53" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B6" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B7" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B8" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B13" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B16" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="36" x14ac:dyDescent="0.35">
+      <c r="B17" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B19" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B20" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B22" s="12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B24" s="12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B25" s="12" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B26" s="12" t="s">
+        <v>331</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4560,7 +5405,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F50B5FDA-16FD-4B07-BEB7-A21732413AD7}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -4575,12 +5420,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4589,7 +5434,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B2F3189-4A8F-41FE-8D4A-CED7524F8633}">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -4599,35 +5444,35 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" style="21" customWidth="1"/>
-    <col min="2" max="2" width="168.88671875" style="21" customWidth="1"/>
-    <col min="3" max="6" width="8.88671875" style="21"/>
-    <col min="7" max="7" width="65.88671875" style="21" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="21"/>
+    <col min="1" max="1" width="26.33203125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="168.88671875" style="16" customWidth="1"/>
+    <col min="3" max="6" width="8.88671875" style="16"/>
+    <col min="7" max="7" width="65.88671875" style="16" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="215.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>108</v>
+      <c r="A1" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B2" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>124</v>
+      <c r="B2" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B4" s="21" t="s">
-        <v>82</v>
+      <c r="B4" s="16" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -4636,137 +5481,164 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE4B785-07B1-4650-B638-D0AF9F289A63}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="48" customWidth="1"/>
-    <col min="2" max="2" width="108.6640625" style="68" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" style="69" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="48"/>
+    <col min="1" max="1" width="20.6640625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="108.6640625" style="57" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" style="58" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="67" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="B2" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="67" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="38" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="B3" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="67" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="67" t="s">
-        <v>54</v>
+      <c r="A4" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="67" t="s">
-        <v>62</v>
+      <c r="A5" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="56" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" s="67" t="s">
-        <v>83</v>
+      <c r="A6" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="56" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="67" t="s">
-        <v>85</v>
+      <c r="A7" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="56" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" s="67" t="s">
-        <v>98</v>
+      <c r="A10" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="56" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="67" t="s">
-        <v>100</v>
+      <c r="A11" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="56" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="B12" s="67" t="s">
-        <v>307</v>
-      </c>
-      <c r="C12" s="69" t="s">
-        <v>308</v>
+      <c r="A12" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="56" t="s">
+        <v>258</v>
+      </c>
+      <c r="C12" s="58" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="B14" s="68" t="s">
-        <v>246</v>
+      <c r="A14" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="57" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="39" t="s">
+        <v>351</v>
+      </c>
+      <c r="B15" s="56" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="B17" s="67" t="s">
-        <v>10</v>
+      <c r="A17" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="56" t="s">
+        <v>339</v>
+      </c>
+      <c r="C20" s="58" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="67" t="s">
-        <v>181</v>
+      <c r="B21" s="56" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="68" t="s">
-        <v>247</v>
+      <c r="B22" s="57" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="67" t="s">
-        <v>347</v>
-      </c>
-      <c r="C23" s="69" t="s">
-        <v>348</v>
+      <c r="B23" s="56" t="s">
+        <v>298</v>
+      </c>
+      <c r="C23" s="58" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="C24" s="58" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -4784,126 +5656,163 @@
     <hyperlink ref="B17" r:id="rId11" location="/testplanning/plan/TP-114229" xr:uid="{38CF6A34-D8ED-43B9-9458-AE8EC1A97A1E}"/>
     <hyperlink ref="B21" r:id="rId12" xr:uid="{63512D8F-0010-4E46-A253-ADA5C8ADD7B3}"/>
     <hyperlink ref="B23" r:id="rId13" xr:uid="{6BCECB19-C9DA-4DE2-8CE4-DDDF05A9C91F}"/>
+    <hyperlink ref="B24" r:id="rId14" xr:uid="{A682E38E-776F-4A77-8CD5-BC0B7A5B573F}"/>
+    <hyperlink ref="B20" r:id="rId15" xr:uid="{A30DA85F-C20B-4C0D-BF49-55DF549C0A04}"/>
+    <hyperlink ref="B15" r:id="rId16" xr:uid="{9795953E-1013-453D-8081-CD7DB27E1522}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{156D588B-62C7-4071-B8E4-D7D39D7B77AF}">
-  <dimension ref="A2:B2"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B528D17-57E6-4285-80C7-AC55722F1FE9}">
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="110.6640625" customWidth="1"/>
-    <col min="2" max="2" width="55" customWidth="1"/>
+    <col min="1" max="1" width="76.5546875" customWidth="1"/>
+    <col min="2" max="2" width="46.21875" customWidth="1"/>
+    <col min="3" max="3" width="36.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="388.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>248</v>
+    <row r="1" spans="1:3" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="B3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>397</v>
+      </c>
+      <c r="B4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>398</v>
+      </c>
+      <c r="B5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="86" t="s">
+        <v>434</v>
+      </c>
+      <c r="B6" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>399</v>
+      </c>
+      <c r="B7" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>401</v>
+      </c>
+      <c r="B8" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>402</v>
+      </c>
+      <c r="B9" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>403</v>
+      </c>
+      <c r="B10" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="87" t="s">
+        <v>404</v>
+      </c>
+      <c r="B11" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="B12" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>406</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>407</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>408</v>
+      </c>
+      <c r="B15" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="B16" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>409</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B3BD26-DF42-4EE7-B690-C4147DE70AC0}">
-  <dimension ref="A1:A22"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="65.77734375" style="13" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="13"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>